--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="309">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -237,13 +237,6 @@
   </si>
   <si>
     <t>PRIMARY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハード名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1035,10 +1028,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>game_consoles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>games</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1406,10 +1395,6 @@
   </si>
   <si>
     <t>asin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームハードマスター</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1474,6 +1459,25 @@
   </si>
   <si>
     <t>site_daily_accesses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>platforms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームのプラットフォームマスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォーム名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2200,8 +2204,8 @@
   </sheetPr>
   <dimension ref="B2:I93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -2222,16 +2226,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>4</v>
@@ -2245,7 +2249,7 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>7</v>
@@ -2279,10 +2283,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>14</v>
@@ -2291,22 +2295,22 @@
         <v>15</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="15"/>
@@ -2317,10 +2321,10 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D7" s="18">
         <v>200</v>
@@ -2335,10 +2339,10 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -2371,7 +2375,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -2409,11 +2413,11 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -2456,16 +2460,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>4</v>
@@ -2479,10 +2483,10 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -2513,10 +2517,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>14</v>
@@ -2525,36 +2529,36 @@
         <v>15</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
       <c r="I22" s="15" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D23" s="18">
         <v>200</v>
@@ -2564,15 +2568,15 @@
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
       <c r="I23" s="17" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D24" s="18">
         <v>10</v>
@@ -2582,15 +2586,15 @@
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
       <c r="I24" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -2598,7 +2602,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
       <c r="I25" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -2643,7 +2647,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -2681,11 +2685,11 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2695,13 +2699,13 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>53</v>
-      </c>
       <c r="D33" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -2724,16 +2728,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>4</v>
@@ -2747,10 +2751,10 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -2781,10 +2785,10 @@
         <v>11</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>14</v>
@@ -2793,36 +2797,36 @@
         <v>15</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="15"/>
       <c r="H40" s="16"/>
       <c r="I40" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D41" s="18">
         <v>200</v>
@@ -2832,15 +2836,15 @@
       <c r="G41" s="17"/>
       <c r="H41" s="18"/>
       <c r="I41" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -2853,28 +2857,28 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="17"/>
       <c r="H43" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2884,7 +2888,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
       <c r="I44" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -2899,7 +2903,7 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -2937,11 +2941,11 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -2951,13 +2955,13 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
@@ -2990,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>4</v>
@@ -3013,10 +3017,10 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
@@ -3047,10 +3051,10 @@
         <v>11</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>14</v>
@@ -3059,31 +3063,31 @@
         <v>15</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="15"/>
       <c r="H57" s="16"/>
       <c r="I57" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
@@ -3092,7 +3096,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="18"/>
       <c r="I58" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -3117,7 +3121,7 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -3155,11 +3159,11 @@
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
@@ -3192,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D67" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>4</v>
@@ -3215,10 +3219,10 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -3249,10 +3253,10 @@
         <v>11</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>14</v>
@@ -3261,31 +3265,31 @@
         <v>15</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="15"/>
       <c r="H71" s="16"/>
       <c r="I71" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
@@ -3294,12 +3298,12 @@
       <c r="G72" s="17"/>
       <c r="H72" s="18"/>
       <c r="I72" s="17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
@@ -3308,12 +3312,12 @@
       <c r="G73" s="17"/>
       <c r="H73" s="18"/>
       <c r="I73" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="18"/>
@@ -3322,12 +3326,12 @@
       <c r="G74" s="17"/>
       <c r="H74" s="18"/>
       <c r="I74" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
@@ -3336,12 +3340,12 @@
       <c r="G75" s="17"/>
       <c r="H75" s="18"/>
       <c r="I75" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
@@ -3355,10 +3359,10 @@
     </row>
     <row r="77" spans="2:9">
       <c r="B77" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D77" s="18">
         <v>100</v>
@@ -3368,15 +3372,15 @@
       <c r="G77" s="17"/>
       <c r="H77" s="18"/>
       <c r="I77" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
@@ -3384,15 +3388,15 @@
       <c r="G78" s="17"/>
       <c r="H78" s="18"/>
       <c r="I78" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D79" s="18">
         <v>200</v>
@@ -3401,64 +3405,64 @@
       <c r="F79" s="18"/>
       <c r="G79" s="17"/>
       <c r="H79" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="G80" s="17"/>
       <c r="H80" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="17"/>
       <c r="H81" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
       <c r="G82" s="17"/>
       <c r="H82" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -3513,7 +3517,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
@@ -3551,11 +3555,11 @@
     </row>
     <row r="90" spans="2:9">
       <c r="B90" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -3565,13 +3569,13 @@
     </row>
     <row r="91" spans="2:9">
       <c r="B91" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
@@ -3581,13 +3585,13 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
@@ -3607,6 +3611,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="B69:I69"/>
@@ -3616,12 +3626,6 @@
     <mergeCell ref="B46:I46"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -3670,16 +3674,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>4</v>
@@ -3693,10 +3697,10 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -3709,7 +3713,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -3727,10 +3731,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>14</v>
@@ -3739,36 +3743,36 @@
         <v>15</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="I6" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>176</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3776,15 +3780,15 @@
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="I7" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -3792,15 +3796,15 @@
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
       <c r="I8" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -3808,15 +3812,15 @@
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
       <c r="I9" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -3824,15 +3828,15 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -3840,15 +3844,15 @@
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -3856,15 +3860,15 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -3872,15 +3876,15 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -3888,15 +3892,15 @@
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -3904,15 +3908,15 @@
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -3920,15 +3924,15 @@
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -3938,15 +3942,15 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
       <c r="I17" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -3954,25 +3958,25 @@
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
       <c r="I18" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
       <c r="H19" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -4017,7 +4021,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -4055,11 +4059,11 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -4069,13 +4073,13 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -4085,13 +4089,13 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -4101,13 +4105,13 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -4130,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>4</v>
@@ -4153,10 +4157,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
@@ -4187,10 +4191,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>14</v>
@@ -4199,15 +4203,15 @@
         <v>15</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="16"/>
@@ -4219,7 +4223,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
@@ -4321,7 +4325,7 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -4442,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4468,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -4519,10 +4523,10 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -4532,7 +4536,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -4550,12 +4554,12 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
@@ -4568,15 +4572,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -4584,7 +4588,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -4592,7 +4596,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4600,33 +4604,33 @@
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -4634,12 +4638,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
@@ -4649,18 +4653,18 @@
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -4668,7 +4672,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -4761,11 +4765,11 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -4808,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -4834,7 +4838,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -4885,7 +4889,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
@@ -4897,7 +4901,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
@@ -5121,16 +5125,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>4</v>
@@ -5144,10 +5148,10 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -5178,10 +5182,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>14</v>
@@ -5190,36 +5194,36 @@
         <v>15</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="I6" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D7" s="18">
         <v>200</v>
@@ -5234,10 +5238,10 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -5247,15 +5251,15 @@
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
       <c r="I8" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D9" s="18">
         <v>200</v>
@@ -5264,18 +5268,18 @@
       <c r="F9" s="18"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -5287,15 +5291,15 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -5305,43 +5309,43 @@
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -5366,7 +5370,7 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -5404,11 +5408,11 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -5418,13 +5422,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -5457,16 +5461,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>4</v>
@@ -5480,10 +5484,10 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -5514,10 +5518,10 @@
         <v>11</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>14</v>
@@ -5526,18 +5530,18 @@
         <v>15</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D27" s="16">
         <v>200</v>
@@ -5547,15 +5551,15 @@
       <c r="G27" s="15"/>
       <c r="H27" s="16"/>
       <c r="I27" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -5563,15 +5567,15 @@
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -5579,7 +5583,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
       <c r="I29" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -5594,7 +5598,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -5632,11 +5636,11 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -5669,16 +5673,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>4</v>
@@ -5692,10 +5696,10 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -5726,10 +5730,10 @@
         <v>11</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>14</v>
@@ -5738,18 +5742,18 @@
         <v>15</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D41" s="16">
         <v>100</v>
@@ -5759,15 +5763,15 @@
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
       <c r="I41" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" s="18">
         <v>100</v>
@@ -5777,15 +5781,15 @@
       <c r="G42" s="17"/>
       <c r="H42" s="18"/>
       <c r="I42" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D43" s="18">
         <v>100</v>
@@ -5795,15 +5799,15 @@
       <c r="G43" s="17"/>
       <c r="H43" s="18"/>
       <c r="I43" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -5811,7 +5815,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
       <c r="I44" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -5836,7 +5840,7 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -5874,11 +5878,11 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -5911,16 +5915,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>4</v>
@@ -5934,10 +5938,10 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
@@ -5968,10 +5972,10 @@
         <v>11</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>14</v>
@@ -5980,18 +5984,18 @@
         <v>15</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
@@ -5999,15 +6003,15 @@
       <c r="G57" s="15"/>
       <c r="H57" s="16"/>
       <c r="I57" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -6015,7 +6019,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="18"/>
       <c r="I58" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -6040,7 +6044,7 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -6078,14 +6082,14 @@
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -6127,16 +6131,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D68" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>4</v>
@@ -6150,10 +6154,10 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
@@ -6184,10 +6188,10 @@
         <v>11</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>14</v>
@@ -6196,18 +6200,18 @@
         <v>15</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
@@ -6215,15 +6219,15 @@
       <c r="G72" s="15"/>
       <c r="H72" s="16"/>
       <c r="I72" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
@@ -6231,7 +6235,7 @@
       <c r="G73" s="17"/>
       <c r="H73" s="18"/>
       <c r="I73" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -6256,7 +6260,7 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -6294,14 +6298,14 @@
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -6343,16 +6347,16 @@
         <v>0</v>
       </c>
       <c r="C83" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="E83" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F83" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>4</v>
@@ -6366,10 +6370,10 @@
     </row>
     <row r="84" spans="2:9">
       <c r="B84" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" s="26"/>
       <c r="E84" s="26"/>
@@ -6400,10 +6404,10 @@
         <v>11</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>14</v>
@@ -6412,18 +6416,18 @@
         <v>15</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
@@ -6431,15 +6435,15 @@
       <c r="G87" s="15"/>
       <c r="H87" s="16"/>
       <c r="I87" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
@@ -6447,15 +6451,15 @@
       <c r="G88" s="17"/>
       <c r="H88" s="18"/>
       <c r="I88" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D89" s="18">
         <v>1</v>
@@ -6465,7 +6469,7 @@
       <c r="G89" s="17"/>
       <c r="H89" s="18"/>
       <c r="I89" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -6490,7 +6494,7 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="23"/>
@@ -6528,14 +6532,14 @@
     </row>
     <row r="94" spans="2:9">
       <c r="B94" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
@@ -6544,13 +6548,13 @@
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
@@ -6583,16 +6587,16 @@
         <v>0</v>
       </c>
       <c r="C99" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="F99" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>4</v>
@@ -6606,10 +6610,10 @@
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D100" s="26"/>
       <c r="E100" s="26"/>
@@ -6622,7 +6626,7 @@
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -6637,13 +6641,13 @@
         <v>10</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>14</v>
@@ -6652,18 +6656,18 @@
         <v>15</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -6671,15 +6675,15 @@
       <c r="G103" s="15"/>
       <c r="H103" s="16"/>
       <c r="I103" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="18"/>
@@ -6687,15 +6691,15 @@
       <c r="G104" s="17"/>
       <c r="H104" s="18"/>
       <c r="I104" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>160</v>
       </c>
       <c r="D105" s="18">
         <v>100</v>
@@ -6708,10 +6712,10 @@
     </row>
     <row r="106" spans="2:9">
       <c r="B106" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>162</v>
       </c>
       <c r="D106" s="18">
         <v>100</v>
@@ -6724,10 +6728,10 @@
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
@@ -6758,7 +6762,7 @@
     </row>
     <row r="110" spans="2:9">
       <c r="B110" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
@@ -6796,14 +6800,14 @@
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
@@ -6812,13 +6816,13 @@
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
@@ -6851,16 +6855,16 @@
         <v>0</v>
       </c>
       <c r="C117" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E117" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="F117" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>256</v>
       </c>
       <c r="G117" s="12" t="s">
         <v>4</v>
@@ -6874,10 +6878,10 @@
     </row>
     <row r="118" spans="2:9">
       <c r="B118" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D118" s="26"/>
       <c r="E118" s="26"/>
@@ -6890,7 +6894,7 @@
     </row>
     <row r="119" spans="2:9">
       <c r="B119" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6908,10 +6912,10 @@
         <v>11</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F120" s="14" t="s">
         <v>14</v>
@@ -6920,18 +6924,18 @@
         <v>15</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="2:9">
       <c r="B121" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
@@ -6939,15 +6943,15 @@
       <c r="G121" s="15"/>
       <c r="H121" s="16"/>
       <c r="I121" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="2:9">
       <c r="B122" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="18"/>
@@ -6955,15 +6959,15 @@
       <c r="G122" s="17"/>
       <c r="H122" s="18"/>
       <c r="I122" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C123" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
@@ -6973,7 +6977,7 @@
       <c r="G123" s="17"/>
       <c r="H123" s="18"/>
       <c r="I123" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="2:9">
@@ -6988,7 +6992,7 @@
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
@@ -7026,14 +7030,14 @@
     </row>
     <row r="127" spans="2:9">
       <c r="B127" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
@@ -7075,16 +7079,16 @@
         <v>0</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D132" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F132" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>256</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>4</v>
@@ -7098,10 +7102,10 @@
     </row>
     <row r="133" spans="2:9">
       <c r="B133" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D133" s="26"/>
       <c r="E133" s="26"/>
@@ -7132,10 +7136,10 @@
         <v>11</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F135" s="14" t="s">
         <v>14</v>
@@ -7144,22 +7148,22 @@
         <v>15</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="2:9">
       <c r="B136" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="15"/>
@@ -7168,10 +7172,10 @@
     </row>
     <row r="137" spans="2:9">
       <c r="B137" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="18"/>
@@ -7179,15 +7183,15 @@
       <c r="G137" s="17"/>
       <c r="H137" s="18"/>
       <c r="I137" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="B138" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="18"/>
@@ -7195,7 +7199,7 @@
       <c r="G138" s="17"/>
       <c r="H138" s="18"/>
       <c r="I138" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="2:9">
@@ -7270,7 +7274,7 @@
     </row>
     <row r="146" spans="2:9">
       <c r="B146" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
@@ -7308,11 +7312,11 @@
     </row>
     <row r="148" spans="2:9">
       <c r="B148" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C148" s="15"/>
       <c r="D148" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
@@ -7322,13 +7326,13 @@
     </row>
     <row r="149" spans="2:9">
       <c r="B149" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
@@ -7358,7 +7362,7 @@
     </row>
     <row r="152" spans="2:9">
       <c r="B152" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C152" s="39"/>
       <c r="D152" s="39"/>
@@ -7380,6 +7384,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="B119:I119"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="B85:I85"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B152:I152"/>
     <mergeCell ref="B153:I153"/>
     <mergeCell ref="B61:I61"/>
@@ -7396,19 +7413,6 @@
     <mergeCell ref="B70:I70"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="B110:I110"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="B119:I119"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="B85:I85"/>
-    <mergeCell ref="B92:I92"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -7456,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -7482,7 +7486,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -7533,7 +7537,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -7546,7 +7550,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -7564,12 +7568,12 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>23</v>
@@ -7581,18 +7585,18 @@
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
         <v>50</v>
@@ -7602,15 +7606,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -7618,7 +7622,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -7705,7 +7709,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -7715,13 +7719,13 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -7731,13 +7735,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -7760,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -7786,7 +7790,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -7837,7 +7841,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
@@ -7848,12 +7852,12 @@
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
       <c r="I26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>18</v>
@@ -7864,7 +7868,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -7931,10 +7935,10 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -8026,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -8052,7 +8056,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -8103,28 +8107,28 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -8132,15 +8136,15 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7">
         <v>100</v>
@@ -8150,15 +8154,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
         <v>200</v>
@@ -8168,15 +8172,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="7">
         <v>200</v>
@@ -8185,18 +8189,18 @@
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -8204,15 +8208,15 @@
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -8220,15 +8224,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -8236,15 +8240,15 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -8252,15 +8256,15 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -8268,15 +8272,15 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -8284,15 +8288,15 @@
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -8300,7 +8304,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -8367,7 +8371,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -8377,13 +8381,13 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -8416,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -8442,7 +8446,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -8493,7 +8497,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>18</v>
@@ -8504,12 +8508,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="5"/>
       <c r="I31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>18</v>
@@ -8520,7 +8524,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -8577,10 +8581,10 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -8589,13 +8593,13 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -8628,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -8654,7 +8658,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
@@ -8705,10 +8709,10 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -8716,15 +8720,15 @@
       <c r="G45" s="4"/>
       <c r="H45" s="5"/>
       <c r="I45" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -8732,7 +8736,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
       <c r="I46" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -8789,10 +8793,10 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -8801,13 +8805,13 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -8840,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>1</v>
@@ -8866,7 +8870,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
@@ -8917,10 +8921,10 @@
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -8928,15 +8932,15 @@
       <c r="G59" s="4"/>
       <c r="H59" s="5"/>
       <c r="I59" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -8944,15 +8948,15 @@
       <c r="G60" s="6"/>
       <c r="H60" s="7"/>
       <c r="I60" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -8960,15 +8964,15 @@
       <c r="G61" s="6"/>
       <c r="H61" s="7"/>
       <c r="I61" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -8976,7 +8980,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="7"/>
       <c r="I62" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -9033,10 +9037,10 @@
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -9075,7 +9079,7 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="43"/>
       <c r="D70" s="43"/>
@@ -9158,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -9184,7 +9188,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -9235,28 +9239,28 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -9264,15 +9268,15 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7">
         <v>100</v>
@@ -9282,15 +9286,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
         <v>200</v>
@@ -9300,15 +9304,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="7">
         <v>200</v>
@@ -9317,18 +9321,18 @@
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -9336,15 +9340,15 @@
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -9352,15 +9356,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -9368,15 +9372,15 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -9384,15 +9388,15 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -9400,7 +9404,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -9477,7 +9481,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -9487,13 +9491,13 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>

--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ゲームM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="314">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -417,26 +417,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード認証</t>
-    <rPh sb="5" eb="7">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>login_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -497,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>d_auth_twitter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仮登録</t>
     <rPh sb="0" eb="3">
       <t>カリトウロク</t>
@@ -529,10 +506,6 @@
   </si>
   <si>
     <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d_auth_password</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1056,10 +1029,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hard_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>game_packages</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1166,10 +1135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>twitter_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1407,10 +1372,6 @@
   </si>
   <si>
     <t>ゲームID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>console_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1478,6 +1439,65 @@
     <rPh sb="8" eb="9">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>platform_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_passwords</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード認証テーブル</t>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_twitter</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2204,8 +2224,8 @@
   </sheetPr>
   <dimension ref="B2:I93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -2226,16 +2246,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>4</v>
@@ -2249,7 +2269,7 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>7</v>
@@ -2283,10 +2303,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>14</v>
@@ -2295,15 +2315,15 @@
         <v>15</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>46</v>
@@ -2321,10 +2341,10 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D7" s="18">
         <v>200</v>
@@ -2339,7 +2359,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>74</v>
@@ -2375,7 +2395,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -2417,7 +2437,7 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -2460,16 +2480,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>4</v>
@@ -2483,10 +2503,10 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -2517,10 +2537,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>14</v>
@@ -2529,15 +2549,15 @@
         <v>15</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>46</v>
@@ -2550,15 +2570,15 @@
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
       <c r="I22" s="15" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D23" s="18">
         <v>200</v>
@@ -2568,15 +2588,15 @@
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
       <c r="I23" s="17" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="17" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D24" s="18">
         <v>10</v>
@@ -2647,7 +2667,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -2689,7 +2709,7 @@
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2728,16 +2748,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>4</v>
@@ -2751,7 +2771,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>38</v>
@@ -2785,10 +2805,10 @@
         <v>11</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>14</v>
@@ -2797,15 +2817,15 @@
         <v>15</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="15" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>46</v>
@@ -2823,10 +2843,10 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D41" s="18">
         <v>200</v>
@@ -2841,7 +2861,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="17" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>46</v>
@@ -2875,7 +2895,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>46</v>
@@ -2888,7 +2908,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
       <c r="I44" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -2903,7 +2923,7 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -2994,16 +3014,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>4</v>
@@ -3017,7 +3037,7 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>44</v>
@@ -3051,10 +3071,10 @@
         <v>11</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>14</v>
@@ -3063,15 +3083,15 @@
         <v>15</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="15" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="16"/>
@@ -3087,7 +3107,7 @@
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
@@ -3121,7 +3141,7 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -3196,16 +3216,16 @@
         <v>0</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>4</v>
@@ -3219,10 +3239,10 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -3253,10 +3273,10 @@
         <v>11</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>14</v>
@@ -3265,17 +3285,19 @@
         <v>15</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="17"/>
+        <v>194</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="s">
         <v>61</v>
@@ -3284,57 +3306,67 @@
       <c r="G71" s="15"/>
       <c r="H71" s="16"/>
       <c r="I71" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="17"/>
+      <c r="C72" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
       <c r="G72" s="17"/>
       <c r="H72" s="18"/>
       <c r="I72" s="17" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C73" s="17"/>
+        <v>300</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="17"/>
       <c r="H73" s="18"/>
       <c r="I73" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C74" s="17"/>
+        <v>285</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="17"/>
       <c r="H74" s="18"/>
       <c r="I74" s="17" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D75" s="18">
+        <v>200</v>
+      </c>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
       <c r="G75" s="17"/>
@@ -3345,9 +3377,11 @@
     </row>
     <row r="76" spans="2:9">
       <c r="B76" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="17"/>
+        <v>143</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
@@ -3362,7 +3396,7 @@
         <v>40</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D77" s="18">
         <v>100</v>
@@ -3393,10 +3427,10 @@
     </row>
     <row r="79" spans="2:9">
       <c r="B79" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D79" s="18">
         <v>200</v>
@@ -3408,12 +3442,12 @@
         <v>61</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>74</v>
@@ -3426,12 +3460,12 @@
         <v>61</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>74</v>
@@ -3444,12 +3478,12 @@
         <v>61</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>74</v>
@@ -3462,7 +3496,7 @@
         <v>61</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -3517,7 +3551,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
@@ -3559,7 +3593,7 @@
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -3572,10 +3606,10 @@
         <v>50</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
@@ -3588,10 +3622,10 @@
         <v>50</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
@@ -3611,12 +3645,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B20:I20"/>
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="B69:I69"/>
@@ -3626,6 +3654,12 @@
     <mergeCell ref="B46:I46"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -3651,7 +3685,7 @@
   </sheetPr>
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3674,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>4</v>
@@ -3697,10 +3731,10 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -3713,7 +3747,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -3731,10 +3765,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>14</v>
@@ -3743,15 +3777,15 @@
         <v>15</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>46</v>
@@ -3764,15 +3798,15 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="I6" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="17" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3780,15 +3814,15 @@
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="I7" s="17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -3796,15 +3830,15 @@
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
       <c r="I8" s="17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="17" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -3812,15 +3846,15 @@
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
       <c r="I9" s="17" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="17" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -3828,15 +3862,15 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="17" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -3844,15 +3878,15 @@
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="17" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="17" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -3860,15 +3894,15 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="17" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -3876,15 +3910,15 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="17" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="17" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -3892,15 +3926,15 @@
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="17" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -3908,15 +3942,15 @@
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="17" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="17" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -3924,15 +3958,15 @@
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="17" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -3942,15 +3976,15 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
       <c r="I17" s="17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="17" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -3958,25 +3992,25 @@
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
       <c r="I18" s="17" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="17" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
       <c r="H19" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -4021,7 +4055,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="22" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -4063,7 +4097,7 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -4076,10 +4110,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -4092,10 +4126,10 @@
         <v>50</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -4108,10 +4142,10 @@
         <v>50</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -4134,16 +4168,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>4</v>
@@ -4157,10 +4191,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
@@ -4191,10 +4225,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>14</v>
@@ -4203,15 +4237,15 @@
         <v>15</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="15" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="16"/>
@@ -4223,7 +4257,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="17" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
@@ -4325,7 +4359,7 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="22" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -4424,8 +4458,8 @@
   </sheetPr>
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4446,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4472,7 +4506,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -4523,7 +4557,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>46</v>
@@ -4627,7 +4661,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>74</v>
@@ -4638,12 +4672,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
@@ -4656,7 +4690,7 @@
         <v>61</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -4672,7 +4706,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -4769,7 +4803,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -4812,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -4838,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -4889,7 +4923,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
@@ -5100,10 +5134,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I153"/>
+  <dimension ref="B2:I156"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -5125,16 +5159,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>4</v>
@@ -5148,10 +5182,10 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -5182,10 +5216,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>14</v>
@@ -5194,15 +5228,15 @@
         <v>15</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>46</v>
@@ -5220,10 +5254,10 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D7" s="18">
         <v>200</v>
@@ -5241,7 +5275,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -5259,7 +5293,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D9" s="18">
         <v>200</v>
@@ -5276,7 +5310,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>70</v>
@@ -5291,12 +5325,12 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>46</v>
@@ -5309,12 +5343,12 @@
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="17" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>73</v>
@@ -5327,15 +5361,15 @@
         <v>61</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -5345,7 +5379,7 @@
         <v>61</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -5370,7 +5404,7 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -5412,7 +5446,7 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -5425,10 +5459,10 @@
         <v>50</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -5461,16 +5495,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>4</v>
@@ -5484,10 +5518,10 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -5518,10 +5552,10 @@
         <v>11</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>14</v>
@@ -5530,1220 +5564,1220 @@
         <v>15</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="16">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="15"/>
       <c r="H27" s="16"/>
       <c r="I27" s="15" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="17" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="18"/>
+        <v>309</v>
+      </c>
+      <c r="D28" s="18">
+        <v>200</v>
+      </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="17" t="s">
-        <v>79</v>
-      </c>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="17" t="s">
-        <v>62</v>
+        <v>308</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="18"/>
+        <v>309</v>
+      </c>
+      <c r="D29" s="18">
+        <v>256</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
       <c r="I29" s="17" t="s">
-        <v>64</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="19"/>
+      <c r="B30" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C34" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D34" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F34" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H34" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I34" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-    </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C40" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="29"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="16">
+      <c r="D44" s="16">
         <v>100</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="18">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="18">
         <v>100</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="D43" s="18">
-        <v>100</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="17"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="17"/>
+      <c r="I45" s="17" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="19"/>
+      <c r="B46" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="18">
+        <v>100</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="17" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="19"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="24"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="19"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+    </row>
+    <row r="86" spans="2:9" ht="12.95" customHeight="1">
+      <c r="B86" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I86" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="29"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="18">
+        <v>1</v>
+      </c>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="19"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="24"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+    </row>
+    <row r="102" spans="2:9" ht="12.95" customHeight="1">
+      <c r="B102" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="29"/>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="24"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
+      <c r="E105" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="17" t="s">
+      <c r="I105" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="17" t="s">
+      <c r="C106" s="15" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="17"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="24"/>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I68" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" s="12"/>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="29"/>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="17"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="19"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="24"/>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I77" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-    </row>
-    <row r="83" spans="2:9" ht="12.95" customHeight="1">
-      <c r="B83" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" s="12"/>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="29"/>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="17" t="s">
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C88" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" s="18">
-        <v>1</v>
-      </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="17"/>
-    </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="19"/>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="24"/>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F93" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G93" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I93" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-    </row>
-    <row r="99" spans="2:9" ht="12.95" customHeight="1">
-      <c r="B99" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I99" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="12"/>
-    </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="29"/>
-    </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D105" s="18">
-        <v>100</v>
-      </c>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="17"/>
-    </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D106" s="18">
-        <v>100</v>
-      </c>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="17"/>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="17" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
       <c r="F107" s="18"/>
       <c r="G107" s="17"/>
       <c r="H107" s="18"/>
-      <c r="I107" s="17"/>
+      <c r="I107" s="17" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="108" spans="2:9">
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="18"/>
+      <c r="B108" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" s="18">
+        <v>100</v>
+      </c>
       <c r="E108" s="18"/>
       <c r="F108" s="18"/>
       <c r="G108" s="17"/>
@@ -6751,486 +6785,496 @@
       <c r="I108" s="17"/>
     </row>
     <row r="109" spans="2:9">
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="19"/>
+      <c r="B109" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="18">
+        <v>100</v>
+      </c>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="17"/>
     </row>
     <row r="110" spans="2:9">
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="17"/>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="17"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="19"/>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="24"/>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+    </row>
+    <row r="120" spans="2:9" ht="12.95" customHeight="1">
+      <c r="B120" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I120" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="12"/>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="29"/>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18">
+        <v>0</v>
+      </c>
+      <c r="G126" s="17"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="19"/>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="B128" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="24"/>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I129" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="B130" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+    </row>
+    <row r="132" spans="2:9">
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I135" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" s="12"/>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="29"/>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="24"/>
-    </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G111" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H111" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I111" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-    </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-    </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-    </row>
-    <row r="117" spans="2:9" ht="12.95" customHeight="1">
-      <c r="B117" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I117" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I118" s="12"/>
-    </row>
-    <row r="119" spans="2:9">
-      <c r="B119" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="29"/>
-    </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H120" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="I120" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9">
-      <c r="B122" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9">
-      <c r="B123" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18">
-        <v>0</v>
-      </c>
-      <c r="G123" s="17"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="19"/>
-    </row>
-    <row r="125" spans="2:9">
-      <c r="B125" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="24"/>
-    </row>
-    <row r="126" spans="2:9">
-      <c r="B126" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G126" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H126" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I126" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9">
-      <c r="B127" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-    </row>
-    <row r="128" spans="2:9">
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-      <c r="I128" s="17"/>
-    </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
-    </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-    </row>
-    <row r="132" spans="2:9">
-      <c r="B132" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I132" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9">
-      <c r="B133" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" s="12"/>
-    </row>
-    <row r="134" spans="2:9">
-      <c r="B134" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="29"/>
-    </row>
-    <row r="135" spans="2:9">
-      <c r="B135" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H135" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9">
-      <c r="B136" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="F136" s="16"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="15"/>
-    </row>
-    <row r="137" spans="2:9">
-      <c r="B137" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9">
-      <c r="B138" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9">
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="17"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="15"/>
     </row>
     <row r="140" spans="2:9">
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
+      <c r="B140" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="D140" s="18"/>
       <c r="E140" s="18"/>
       <c r="F140" s="18"/>
       <c r="G140" s="17"/>
       <c r="H140" s="18"/>
-      <c r="I140" s="17"/>
+      <c r="I140" s="17" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="141" spans="2:9">
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
+      <c r="B141" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>251</v>
+      </c>
       <c r="D141" s="18"/>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
       <c r="G141" s="17"/>
       <c r="H141" s="18"/>
-      <c r="I141" s="17"/>
+      <c r="I141" s="17" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="142" spans="2:9">
       <c r="B142" s="17"/>
@@ -7263,166 +7307,196 @@
       <c r="I144" s="17"/>
     </row>
     <row r="145" spans="2:9">
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="19"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="17"/>
     </row>
     <row r="146" spans="2:9">
-      <c r="B146" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="24"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="17"/>
     </row>
     <row r="147" spans="2:9">
-      <c r="B147" s="21" t="s">
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="17"/>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="19"/>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="24"/>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C150" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="D150" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="E150" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F147" s="21" t="s">
+      <c r="F150" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G147" s="21" t="s">
+      <c r="G150" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H147" s="21" t="s">
+      <c r="H150" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I147" s="21" t="s">
+      <c r="I150" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-    </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="17" t="s">
+    <row r="151" spans="2:9">
+      <c r="B151" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-    </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="17"/>
-    </row>
-    <row r="151" spans="2:9">
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-    </row>
-    <row r="152" spans="2:9">
-      <c r="B152" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="C152" s="39"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
-      <c r="F152" s="39"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="39"/>
-      <c r="I152" s="40"/>
-    </row>
-    <row r="153" spans="2:9" ht="47.25" customHeight="1">
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="41"/>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="41"/>
+      <c r="C152" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="39"/>
+      <c r="F155" s="39"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="39"/>
+      <c r="I155" s="40"/>
+    </row>
+    <row r="156" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B156" s="41"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="41"/>
+      <c r="E156" s="41"/>
+      <c r="F156" s="41"/>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="B110:I110"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="B119:I119"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="B85:I85"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B155:I155"/>
+    <mergeCell ref="B156:I156"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="B137:I137"/>
+    <mergeCell ref="B149:I149"/>
+    <mergeCell ref="B128:I128"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="C103:G103"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B152:I152"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="B134:I134"/>
-    <mergeCell ref="B146:I146"/>
-    <mergeCell ref="B125:I125"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B104:I104"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="B122:I122"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B95:I95"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94:B97 B63:B66 B112:B115 B127:B130 B78:B81 B148:B151 B18:B21 B33:B35 B49:B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97:B100 B66:B69 B115:B118 B130:B133 B81:B84 B151:B154 B52:B54 B18:B21 B35:B38">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G83 G99 G117 G68 G132 G53 G2 G23 G37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G86 G102 G120 G71 G135 G56 G40 G2 G23">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G87:G91 G103:G109 G121:G124 G72:G75 G136:G145 G57:G60 G41:G46 G6:G15 G27:G30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G90:G94 G106:G112 G124:G127 G75:G78 G139:G148 G60:G63 G44:G49 G6:G15 G27:G32">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7438,7 +7512,7 @@
   </sheetPr>
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C23" sqref="C23:G23"/>
     </sheetView>
   </sheetViews>
@@ -7460,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -7486,7 +7560,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -7593,10 +7667,10 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
         <v>50</v>
@@ -7606,12 +7680,12 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>73</v>
@@ -7622,7 +7696,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -7722,10 +7796,10 @@
         <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -7738,10 +7812,10 @@
         <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -7764,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -7790,7 +7864,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -7857,7 +7931,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>18</v>
@@ -7868,7 +7942,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -7938,7 +8012,7 @@
         <v>62</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -8030,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -8056,7 +8130,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -8107,7 +8181,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>72</v>
@@ -8120,7 +8194,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -8136,15 +8210,15 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
         <v>100</v>
@@ -8154,15 +8228,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
         <v>200</v>
@@ -8172,15 +8246,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
         <v>200</v>
@@ -8192,12 +8266,12 @@
         <v>67</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>74</v>
@@ -8208,12 +8282,12 @@
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>70</v>
@@ -8224,12 +8298,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>70</v>
@@ -8240,12 +8314,12 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>72</v>
@@ -8256,12 +8330,12 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>70</v>
@@ -8272,12 +8346,12 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>72</v>
@@ -8288,12 +8362,12 @@
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>72</v>
@@ -8304,7 +8378,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -8371,7 +8445,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -8384,7 +8458,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>68</v>
@@ -8420,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -8446,7 +8520,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -8497,7 +8571,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>18</v>
@@ -8508,12 +8582,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="5"/>
       <c r="I31" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>18</v>
@@ -8524,7 +8598,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -8581,10 +8655,10 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -8596,10 +8670,10 @@
         <v>50</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -8632,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -8658,7 +8732,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
@@ -8709,7 +8783,7 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>72</v>
@@ -8720,12 +8794,12 @@
       <c r="G45" s="4"/>
       <c r="H45" s="5"/>
       <c r="I45" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>72</v>
@@ -8736,7 +8810,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
       <c r="I46" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -8793,10 +8867,10 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -8808,10 +8882,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -8844,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>1</v>
@@ -8870,7 +8944,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
@@ -8921,7 +8995,7 @@
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>72</v>
@@ -8932,12 +9006,12 @@
       <c r="G59" s="4"/>
       <c r="H59" s="5"/>
       <c r="I59" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>72</v>
@@ -8948,12 +9022,12 @@
       <c r="G60" s="6"/>
       <c r="H60" s="7"/>
       <c r="I60" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>72</v>
@@ -8964,12 +9038,12 @@
       <c r="G61" s="6"/>
       <c r="H61" s="7"/>
       <c r="I61" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>72</v>
@@ -8980,7 +9054,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="7"/>
       <c r="I62" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -9037,10 +9111,10 @@
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -9079,7 +9153,7 @@
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C70" s="43"/>
       <c r="D70" s="43"/>
@@ -9162,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -9188,7 +9262,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -9239,7 +9313,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>72</v>
@@ -9252,7 +9326,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -9268,15 +9342,15 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
         <v>100</v>
@@ -9286,15 +9360,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
         <v>200</v>
@@ -9304,15 +9378,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
         <v>200</v>
@@ -9324,12 +9398,12 @@
         <v>67</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>74</v>
@@ -9340,12 +9414,12 @@
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>70</v>
@@ -9356,12 +9430,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>70</v>
@@ -9372,12 +9446,12 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>72</v>
@@ -9388,12 +9462,12 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>74</v>
@@ -9404,7 +9478,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -9481,7 +9555,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -9494,7 +9568,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>68</v>

--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ゲームM" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="339">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>公式サイトURL</t>
     <rPh sb="0" eb="2">
       <t>コウシキ</t>
@@ -472,10 +468,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>amazon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハードリスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -487,13 +479,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アマゾンの情報</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -845,10 +830,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>companies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1211,10 +1192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>platforms</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プラットフォームID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1622,6 +1599,56 @@
   </si>
   <si>
     <t>site_daily_accesses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録ゲームID</t>
+    <rPh sb="0" eb="3">
+      <t>カリトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_companies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_platforms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_provisional_registrations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_hiragana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名(ひらがな)</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_hiragana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_in_series</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1928,15 +1955,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1950,6 +1968,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2280,10 +2307,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I118"/>
+  <dimension ref="B2:I115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView showGridLines="0" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2293,7 +2320,7 @@
     <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.875" style="3"/>
@@ -2304,16 +2331,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>330</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -2327,31 +2354,31 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -2361,10 +2388,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
@@ -2373,25 +2400,27 @@
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
         <v>19</v>
@@ -2399,10 +2428,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -2417,106 +2446,118 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>124</v>
+        <v>333</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>200</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>25</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2524,174 +2565,180 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="5" t="s">
-        <v>249</v>
+      <c r="H22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="7" t="s">
-        <v>74</v>
+      <c r="B23" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="8">
-        <v>200</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7" t="s">
-        <v>250</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
-        <v>238</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D24" s="8">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>185</v>
+      </c>
+      <c r="D25" s="8">
+        <v>10</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
@@ -2714,332 +2761,338 @@
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
+      <c r="B29" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
+      <c r="B30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="B31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="B32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
+      <c r="I38" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="5" t="s">
+      <c r="D40" s="8">
+        <v>200</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" s="8">
-        <v>200</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
+      <c r="H42" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="I42" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
+      <c r="F44" s="8"/>
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="7"/>
+      <c r="B45" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
+      <c r="B46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="B47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="B48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -3048,134 +3101,136 @@
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>185</v>
+      <c r="C56" s="7"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="5" t="s">
-        <v>168</v>
+      <c r="B57" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="5" t="s">
-        <v>58</v>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="7"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
@@ -3188,191 +3243,197 @@
       <c r="I59" s="7"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="7"/>
+      <c r="B60" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="14"/>
+      <c r="B61" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="B62" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E69" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="19"/>
+      <c r="I69" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>185</v>
+      <c r="B70" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="5" t="s">
-        <v>162</v>
+      <c r="B71" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="5" t="s">
-        <v>172</v>
+        <v>247</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="7" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3380,15 +3441,15 @@
       <c r="G72" s="7"/>
       <c r="H72" s="8"/>
       <c r="I72" s="7" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3396,57 +3457,59 @@
       <c r="G73" s="7"/>
       <c r="H73" s="8"/>
       <c r="I73" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="7" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D74" s="8"/>
+        <v>248</v>
+      </c>
+      <c r="D74" s="8">
+        <v>200</v>
+      </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="7"/>
       <c r="H74" s="8"/>
       <c r="I74" s="7" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="7" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D75" s="8">
-        <v>200</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
       <c r="H75" s="8"/>
       <c r="I75" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D76" s="8"/>
+        <v>185</v>
+      </c>
+      <c r="D76" s="8">
+        <v>100</v>
+      </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="7"/>
       <c r="H76" s="8"/>
       <c r="I76" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
@@ -3454,11 +3517,9 @@
         <v>39</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D77" s="8">
-        <v>100</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="7"/>
@@ -3469,93 +3530,87 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="D78" s="8">
+        <v>200</v>
+      </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
+      <c r="H78" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="I78" s="7" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D79" s="8">
-        <v>200</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="7"/>
       <c r="H79" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="7"/>
       <c r="H80" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="7"/>
       <c r="H81" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B82" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>157</v>
-      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="7"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="7"/>
@@ -3598,76 +3653,82 @@
       <c r="I86" s="7"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="7"/>
+      <c r="B87" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="19"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="14"/>
+      <c r="B88" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B89" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="B89" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
+      <c r="B90" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -3676,279 +3737,267 @@
       <c r="I91" s="7"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
       <c r="H95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I95" s="2">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="19"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>6</v>
+      <c r="B98" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H98" s="6"/>
+      <c r="I98" s="5" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="5" t="s">
-        <v>162</v>
+      <c r="B99" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="5" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D100" s="8">
+        <v>200</v>
+      </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="7"/>
       <c r="H100" s="8"/>
       <c r="I100" s="7" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="8"/>
+      <c r="H101" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I101" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="8">
-        <v>100</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="8"/>
+      <c r="H102" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="I102" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B103" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="8"/>
+      <c r="H103" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="I103" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="7"/>
       <c r="H104" s="8" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="7" t="s">
-        <v>51</v>
+        <v>311</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="7"/>
       <c r="H105" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="I105" s="7"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="7"/>
       <c r="H106" s="8"/>
-      <c r="I106" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="I106" s="7"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="H107" s="8"/>
+      <c r="I107" s="7"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>317</v>
-      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="7"/>
-      <c r="H108" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="H108" s="8"/>
       <c r="I108" s="7"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
@@ -3962,147 +4011,121 @@
       <c r="I109" s="7"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="7"/>
+      <c r="B110" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="7"/>
+      <c r="B111" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="7"/>
+      <c r="B112" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B113" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="14"/>
+      <c r="B113" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B114" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I114" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B29:I29"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B87:I87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G57:G60 G71:G87 G40:G45 G22:G29 G6:G10 G99:G107 G108:G112">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G59 G70:G86 G39:G44 G98:G109 G6:G11 G23:G28">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90:B93 B32:B34 B13:B16 B63:B65 B48:B51 B115:B118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89:B92 B31:B33 B14:B17 B62:B64 B47:B50 B112:B115">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53 G18 G2 G36 G67 G95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52 G19 G2 G35 G66 G94">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4118,8 +4141,8 @@
   </sheetPr>
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4130,7 +4153,7 @@
     <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.875" style="3"/>
@@ -4141,16 +4164,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -4164,31 +4187,31 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -4198,10 +4221,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
@@ -4210,36 +4233,38 @@
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -4247,15 +4272,15 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -4263,15 +4288,15 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -4279,147 +4304,147 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -4434,10 +4459,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -4445,15 +4470,15 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -4461,15 +4486,15 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
       <c r="I20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -4479,15 +4504,15 @@
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
       <c r="I21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -4495,25 +4520,25 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -4557,50 +4582,50 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
+      <c r="B28" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -4610,13 +4635,13 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -4626,13 +4651,13 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -4642,13 +4667,13 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -4719,16 +4744,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -4742,31 +4767,31 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -4776,10 +4801,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
@@ -4788,36 +4813,36 @@
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -4827,15 +4852,15 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -4845,15 +4870,15 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D9" s="8">
         <v>200</v>
@@ -4862,18 +4887,18 @@
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -4885,15 +4910,15 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -4903,61 +4928,61 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -4971,50 +4996,50 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -5024,13 +5049,13 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -5063,16 +5088,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>4</v>
@@ -5086,31 +5111,31 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
@@ -5120,10 +5145,10 @@
         <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -5132,18 +5157,18 @@
         <v>14</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -5151,15 +5176,15 @@
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
       <c r="I27" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D28" s="8">
         <v>200</v>
@@ -5169,15 +5194,15 @@
       <c r="G28" s="7"/>
       <c r="H28" s="8"/>
       <c r="I28" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D29" s="8">
         <v>256</v>
@@ -5187,15 +5212,15 @@
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D30" s="8">
         <v>100</v>
@@ -5205,25 +5230,25 @@
       <c r="G30" s="7"/>
       <c r="H30" s="8"/>
       <c r="I30" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
@@ -5247,50 +5272,50 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
+      <c r="B34" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -5300,13 +5325,13 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -5339,16 +5364,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>4</v>
@@ -5362,31 +5387,31 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
@@ -5396,10 +5421,10 @@
         <v>10</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
@@ -5408,18 +5433,18 @@
         <v>14</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D45" s="6">
         <v>100</v>
@@ -5429,15 +5454,15 @@
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
       <c r="I45" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D46" s="8">
         <v>100</v>
@@ -5447,15 +5472,15 @@
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D47" s="8">
         <v>100</v>
@@ -5465,15 +5490,15 @@
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -5481,7 +5506,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
@@ -5505,50 +5530,50 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
+      <c r="B51" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="E52" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="G52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="I52" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -5581,16 +5606,16 @@
         <v>0</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>4</v>
@@ -5604,31 +5629,31 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
       <c r="H58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="19"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
@@ -5638,10 +5663,10 @@
         <v>10</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>13</v>
@@ -5650,18 +5675,18 @@
         <v>14</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -5669,15 +5694,15 @@
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
       <c r="I61" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -5685,15 +5710,15 @@
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D63" s="8">
         <v>1</v>
@@ -5705,15 +5730,15 @@
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D64" s="8">
         <v>1</v>
@@ -5725,7 +5750,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="8"/>
       <c r="I64" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
@@ -5739,53 +5764,53 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
+      <c r="B66" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="D67" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="E67" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="F67" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="G67" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="H67" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="I67" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5794,14 +5819,14 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -5833,16 +5858,16 @@
         <v>0</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>4</v>
@@ -5856,31 +5881,31 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="19"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="4" t="s">
@@ -5890,10 +5915,10 @@
         <v>10</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>13</v>
@@ -5902,18 +5927,18 @@
         <v>14</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -5921,15 +5946,15 @@
       <c r="G77" s="5"/>
       <c r="H77" s="6"/>
       <c r="I77" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -5937,7 +5962,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="8"/>
       <c r="I78" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
@@ -5961,53 +5986,53 @@
       <c r="I80" s="9"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="14"/>
+      <c r="B81" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="D82" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="E82" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="G82" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="I82" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -6049,16 +6074,16 @@
         <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>4</v>
@@ -6072,31 +6097,31 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
       <c r="H89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="19"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="16"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="4" t="s">
@@ -6106,10 +6131,10 @@
         <v>10</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>13</v>
@@ -6118,18 +6143,18 @@
         <v>14</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B92" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -6137,15 +6162,15 @@
       <c r="G92" s="5"/>
       <c r="H92" s="6"/>
       <c r="I92" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -6153,15 +6178,15 @@
       <c r="G93" s="7"/>
       <c r="H93" s="8"/>
       <c r="I93" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D94" s="8">
         <v>1</v>
@@ -6173,15 +6198,15 @@
       <c r="G94" s="7"/>
       <c r="H94" s="8"/>
       <c r="I94" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D95" s="8">
         <v>1</v>
@@ -6193,7 +6218,7 @@
       <c r="G95" s="7"/>
       <c r="H95" s="8"/>
       <c r="I95" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.15">
@@ -6207,53 +6232,53 @@
       <c r="I96" s="9"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="14"/>
+      <c r="B97" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="19"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="D98" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="E98" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="F98" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="G98" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="H98" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="I98" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B99" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -6262,16 +6287,16 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -6303,16 +6328,16 @@
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>4</v>
@@ -6326,44 +6351,44 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
       <c r="H105" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="19"/>
+      <c r="B106" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="16"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>13</v>
@@ -6372,18 +6397,18 @@
         <v>14</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B108" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -6391,15 +6416,15 @@
       <c r="G108" s="5"/>
       <c r="H108" s="6"/>
       <c r="I108" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B109" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -6407,15 +6432,15 @@
       <c r="G109" s="7"/>
       <c r="H109" s="8"/>
       <c r="I109" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D110" s="8">
         <v>100</v>
@@ -6428,10 +6453,10 @@
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D111" s="8">
         <v>100</v>
@@ -6473,53 +6498,53 @@
       <c r="I114" s="9"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="14"/>
+      <c r="B115" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="D116" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="E116" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="F116" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="G116" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G116" s="11" t="s">
+      <c r="H116" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="I116" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B117" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -6528,13 +6553,13 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B118" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
@@ -6567,16 +6592,16 @@
         <v>0</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>4</v>
@@ -6590,31 +6615,31 @@
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
+        <v>196</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
       <c r="H123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="19"/>
+      <c r="B124" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="16"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
@@ -6624,10 +6649,10 @@
         <v>10</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>13</v>
@@ -6636,18 +6661,18 @@
         <v>14</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
@@ -6655,15 +6680,15 @@
       <c r="G126" s="5"/>
       <c r="H126" s="6"/>
       <c r="I126" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -6671,15 +6696,15 @@
       <c r="G127" s="7"/>
       <c r="H127" s="8"/>
       <c r="I127" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -6689,7 +6714,7 @@
       <c r="G128" s="7"/>
       <c r="H128" s="8"/>
       <c r="I128" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.15">
@@ -6703,53 +6728,53 @@
       <c r="I129" s="9"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B130" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="14"/>
+      <c r="B130" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="19"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B131" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="D131" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="E131" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="F131" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="G131" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="H131" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H131" s="11" t="s">
+      <c r="I131" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I131" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -6791,16 +6816,16 @@
         <v>0</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>4</v>
@@ -6814,31 +6839,31 @@
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B138" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
+        <v>196</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
       <c r="H138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="19"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="16"/>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
@@ -6848,10 +6873,10 @@
         <v>10</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>13</v>
@@ -6860,22 +6885,22 @@
         <v>14</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B141" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="5"/>
@@ -6884,10 +6909,10 @@
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B142" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6895,15 +6920,15 @@
       <c r="G142" s="7"/>
       <c r="H142" s="8"/>
       <c r="I142" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B143" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6911,7 +6936,7 @@
       <c r="G143" s="7"/>
       <c r="H143" s="8"/>
       <c r="I143" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.15">
@@ -6985,50 +7010,50 @@
       <c r="I150" s="9"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B151" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
-      <c r="I151" s="14"/>
+      <c r="B151" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="19"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B152" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="D152" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="E152" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="F152" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F152" s="11" t="s">
+      <c r="G152" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G152" s="11" t="s">
+      <c r="H152" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H152" s="11" t="s">
+      <c r="I152" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I152" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B153" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -7038,13 +7063,13 @@
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B154" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
@@ -7074,7 +7099,7 @@
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B157" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C157" s="21"/>
       <c r="D157" s="21"/>
@@ -7099,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>1</v>
@@ -7124,29 +7149,29 @@
       <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
+      <c r="C161" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
       <c r="H161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="19"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="16"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
@@ -7176,44 +7201,44 @@
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B164" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H164" s="6"/>
       <c r="I164" s="5"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B165" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H165" s="8"/>
       <c r="I165" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B166" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
@@ -7224,10 +7249,10 @@
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B167" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
@@ -7238,10 +7263,10 @@
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B168" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
@@ -7301,50 +7326,50 @@
       <c r="I173" s="9"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B174" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="14"/>
+      <c r="B174" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="19"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B175" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="D175" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="E175" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="F175" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F175" s="11" t="s">
+      <c r="G175" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G175" s="11" t="s">
+      <c r="H175" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H175" s="11" t="s">
+      <c r="I175" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B176" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
@@ -7354,11 +7379,11 @@
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B177" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
@@ -7368,14 +7393,14 @@
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B178" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
@@ -7384,11 +7409,11 @@
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B179" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
@@ -7408,7 +7433,7 @@
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B181" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C181" s="21"/>
       <c r="D181" s="21"/>
@@ -7430,6 +7455,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="B162:I162"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B182:I182"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B106:I106"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="B124:I124"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="B90:I90"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:I25"/>
     <mergeCell ref="B157:I157"/>
     <mergeCell ref="B158:I158"/>
     <mergeCell ref="B66:I66"/>
@@ -7446,24 +7489,6 @@
     <mergeCell ref="B75:I75"/>
     <mergeCell ref="B81:I81"/>
     <mergeCell ref="C105:G105"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="B115:I115"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="B162:I162"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -7512,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -7537,29 +7562,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -7589,28 +7614,28 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -7618,15 +7643,15 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="8">
         <v>100</v>
@@ -7636,15 +7661,15 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="8">
         <v>200</v>
@@ -7654,15 +7679,15 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="8">
         <v>200</v>
@@ -7671,18 +7696,18 @@
       <c r="F10" s="8"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -7690,15 +7715,15 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -7706,15 +7731,15 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -7722,15 +7747,15 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -7738,15 +7763,15 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="I14" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -7754,61 +7779,61 @@
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -7822,50 +7847,50 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
+      <c r="B20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -7875,13 +7900,13 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -7891,7 +7916,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -7916,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -7941,29 +7966,29 @@
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="C28" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
@@ -7993,7 +8018,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>17</v>
@@ -8004,12 +8029,12 @@
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>17</v>
@@ -8020,7 +8045,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
@@ -8034,53 +8059,53 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
+      <c r="B34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -8089,13 +8114,13 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -8128,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -8153,29 +8178,29 @@
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="C42" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
@@ -8205,10 +8230,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -8216,61 +8241,61 @@
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
       <c r="I45" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
@@ -8284,53 +8309,53 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
+      <c r="B50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="I51" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -8339,11 +8364,11 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -8373,7 +8398,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>

--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -7,10 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ゲームM" sheetId="1" r:id="rId1"/>
-    <sheet name="ゲームD" sheetId="10" r:id="rId2"/>
-    <sheet name="ユーザーD" sheetId="4" r:id="rId3"/>
-    <sheet name="サイトD" sheetId="6" r:id="rId4"/>
+    <sheet name="ゲーム" sheetId="1" r:id="rId1"/>
+    <sheet name="ユーザー" sheetId="4" r:id="rId2"/>
+    <sheet name="サイト" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="356">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -348,15 +347,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -733,9 +724,6 @@
     <t>ゲームID</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>怖さ</t>
     <rPh sb="0" eb="1">
       <t>こわ</t>
@@ -743,26 +731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>良い点</t>
-    <rPh sb="0" eb="1">
-      <t>い</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>てん</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悪い点</t>
-    <rPh sb="0" eb="1">
-      <t>わる</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>てん</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>いいね数</t>
     <rPh sb="3" eb="4">
       <t>すう</t>
@@ -874,15 +842,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>reviews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -908,14 +868,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>blocks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>favorite_sites</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1100,10 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>like_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1153,10 +1101,6 @@
   </si>
   <si>
     <t>post_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1174,16 +1118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新日時</t>
-    <rPh sb="0" eb="2">
-      <t>こうしん</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>にちじ</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sites</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1227,14 +1161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>created_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>token</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1243,17 +1169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_passwords</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード認証テーブル</t>
-    <rPh sb="5" eb="7">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_twitter</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1267,10 +1182,6 @@
   </si>
   <si>
     <t>package_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>limit_date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1346,15 +1257,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>timelines</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイムライン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1453,10 +1356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>follows</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォロー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1649,6 +1548,192 @@
   </si>
   <si>
     <t>order_in_series</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crowded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やりこみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作性</t>
+    <rPh sb="0" eb="3">
+      <t>そうさせい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新回数</t>
+    <rPh sb="0" eb="2">
+      <t>こうしん</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>かいすう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoughts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プレイした感想（ネタバレOK）</t>
+    <rPh sb="5" eb="7">
+      <t>かんそう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おすすめポイント（ネタバレ不可）</t>
+    <rPh sb="13" eb="15">
+      <t>ふか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSIGNED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hgs12_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HGS1/2ユーザーフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sing_up_limit_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remember_token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録ユーザー</t>
+    <rPh sb="0" eb="3">
+      <t>カリトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録ユーザーID</t>
+    <rPh sb="0" eb="3">
+      <t>カリトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録期限</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_blocks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_timelines</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_provisional_registrations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_follows</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_favorite_sites</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入日</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア日</t>
+    <rPh sb="3" eb="4">
+      <t>ビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1955,6 +2040,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1968,15 +2062,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2307,10 +2392,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I115"/>
+  <dimension ref="B2:I149"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView showGridLines="0" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2331,16 +2416,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -2354,31 +2439,31 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -2388,10 +2473,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
@@ -2400,15 +2485,15 @@
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>43</v>
@@ -2419,7 +2504,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
@@ -2428,10 +2513,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -2446,7 +2531,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
@@ -2459,15 +2544,15 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -2499,16 +2584,16 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
+      <c r="B12" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
@@ -2542,7 +2627,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2556,7 +2641,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2570,7 +2655,7 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -2593,16 +2678,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>4</v>
@@ -2616,31 +2701,31 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -2650,10 +2735,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -2662,15 +2747,15 @@
         <v>14</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>43</v>
@@ -2681,19 +2766,19 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D24" s="8">
         <v>200</v>
@@ -2703,15 +2788,15 @@
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D25" s="8">
         <v>10</v>
@@ -2761,16 +2846,16 @@
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="B29" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
@@ -2804,7 +2889,7 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2843,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>4</v>
@@ -2866,31 +2951,31 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
@@ -2900,10 +2985,10 @@
         <v>10</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>13</v>
@@ -2912,15 +2997,15 @@
         <v>14</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>43</v>
@@ -2931,7 +3016,7 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="5" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="5" t="s">
@@ -2940,10 +3025,10 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D40" s="8">
         <v>200</v>
@@ -2958,7 +3043,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>43</v>
@@ -2992,7 +3077,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>43</v>
@@ -3005,7 +3090,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
@@ -3019,16 +3104,16 @@
       <c r="I44" s="7"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
+      <c r="B45" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="11" t="s">
@@ -3088,11 +3173,11 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -3115,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>4</v>
@@ -3138,31 +3223,31 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
       <c r="H53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
@@ -3172,10 +3257,10 @@
         <v>10</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>13</v>
@@ -3184,15 +3269,15 @@
         <v>14</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
@@ -3201,7 +3286,7 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="5" t="s">
@@ -3210,7 +3295,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
@@ -3243,16 +3328,16 @@
       <c r="I59" s="7"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
+      <c r="B60" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="14"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="11" t="s">
@@ -3286,7 +3371,7 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -3319,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>4</v>
@@ -3342,31 +3427,31 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
       <c r="H67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="16"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
@@ -3376,10 +3461,10 @@
         <v>10</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>13</v>
@@ -3388,18 +3473,18 @@
         <v>14</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
@@ -3409,7 +3494,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="6"/>
       <c r="I70" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
@@ -3417,7 +3502,7 @@
         <v>37</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3425,15 +3510,15 @@
       <c r="G71" s="7"/>
       <c r="H71" s="8"/>
       <c r="I71" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3441,15 +3526,15 @@
       <c r="G72" s="7"/>
       <c r="H72" s="8"/>
       <c r="I72" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3457,15 +3542,15 @@
       <c r="G73" s="7"/>
       <c r="H73" s="8"/>
       <c r="I73" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D74" s="8">
         <v>200</v>
@@ -3480,10 +3565,10 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3499,7 +3584,7 @@
         <v>38</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D76" s="8">
         <v>100</v>
@@ -3530,10 +3615,10 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D78" s="8">
         <v>200</v>
@@ -3545,15 +3630,15 @@
         <v>58</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3563,15 +3648,15 @@
         <v>58</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3581,15 +3666,15 @@
         <v>58</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3599,7 +3684,7 @@
         <v>58</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
@@ -3653,16 +3738,16 @@
       <c r="I86" s="7"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="19"/>
+      <c r="B87" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="11" t="s">
@@ -3696,7 +3781,7 @@
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -3709,10 +3794,10 @@
         <v>47</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -3725,10 +3810,10 @@
         <v>47</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -3751,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -3776,29 +3861,29 @@
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
+      <c r="C95" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
       <c r="H95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="16"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="19"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B97" s="4" t="s">
@@ -3828,7 +3913,7 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>43</v>
@@ -3839,19 +3924,19 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="5" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="5" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -3859,7 +3944,7 @@
       <c r="G99" s="7"/>
       <c r="H99" s="8"/>
       <c r="I99" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
@@ -3912,7 +3997,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="7"/>
       <c r="H102" s="8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>56</v>
@@ -3938,10 +4023,10 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -3951,22 +4036,22 @@
         <v>18</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="7" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="7"/>
       <c r="H105" s="8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="I105" s="7"/>
     </row>
@@ -4011,16 +4096,16 @@
       <c r="I109" s="7"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="19"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="14"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="11" t="s">
@@ -4054,7 +4139,7 @@
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -4068,7 +4153,7 @@
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -4096,19 +4181,555 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B118" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B119" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="19"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B121" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H121" s="6"/>
+      <c r="I121" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B122" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B123" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B124" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B125" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H125" s="8"/>
+      <c r="I125" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B126" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H126" s="8"/>
+      <c r="I126" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B127" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H127" s="8"/>
+      <c r="I127" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B128" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H128" s="8"/>
+      <c r="I128" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B129" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H129" s="8"/>
+      <c r="I129" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B130" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H130" s="8"/>
+      <c r="I130" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B131" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H131" s="8"/>
+      <c r="I131" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B132" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H132" s="8"/>
+      <c r="I132" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B133" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H133" s="8"/>
+      <c r="I133" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B134" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B135" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B136" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8">
+        <v>0</v>
+      </c>
+      <c r="G136" s="7"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B137" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B138" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8">
+        <v>0</v>
+      </c>
+      <c r="G138" s="7"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="7"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B143" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="14"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B144" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B145" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B146" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B147" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B148" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B54:I54"/>
+  <mergeCells count="21">
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="B119:I119"/>
+    <mergeCell ref="B143:I143"/>
     <mergeCell ref="C95:G95"/>
     <mergeCell ref="B96:I96"/>
     <mergeCell ref="B110:I110"/>
@@ -4116,16 +4737,27 @@
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="B68:I68"/>
     <mergeCell ref="B87:I87"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G59 G70:G86 G39:G44 G98:G109 G6:G11 G23:G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G59 G70:G86 G39:G44 G98:G109 G6:G11 G23:G28 G121:G142">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89:B92 B31:B33 B14:B17 B62:B64 B47:B50 B112:B115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89:B92 B31:B33 B14:B17 B62:B64 B47:B50 B112:B115 B145:B149">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52 G19 G2 G35 G66 G94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52 G19 G2 G35 G66 G94 G117">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4137,592 +4769,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:I34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B28:I28"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B34">
-      <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G27">
-      <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I182"/>
+  <dimension ref="B2:I199"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4744,16 +4796,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -4767,31 +4819,31 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -4801,10 +4853,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
@@ -4813,15 +4865,15 @@
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>43</v>
@@ -4834,15 +4886,15 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -4857,52 +4909,52 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
         <v>0</v>
@@ -4910,33 +4962,33 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="I11" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -4946,127 +4998,137 @@
         <v>58</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>58</v>
+        <v>247</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="8" t="s">
-        <v>264</v>
-      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="7" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9"/>
+      <c r="B15" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8">
+        <v>200</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -5074,135 +5136,129 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="14" t="s">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="5" t="s">
-        <v>277</v>
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="8">
-        <v>200</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7" t="s">
-        <v>276</v>
+      <c r="B28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="7" t="s">
-        <v>254</v>
+        <v>343</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="D29" s="8">
         <v>256</v>
@@ -5212,43 +5268,41 @@
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
-        <v>255</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="D30" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
       <c r="H30" s="8"/>
       <c r="I30" s="7" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H31" s="8"/>
       <c r="I31" s="7" t="s">
-        <v>175</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
@@ -5272,16 +5326,16 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
+      <c r="B34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
@@ -5310,12 +5364,12 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
-        <v>45</v>
+      <c r="B36" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -5325,13 +5379,11 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>250</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -5364,16 +5416,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>258</v>
+        <v>346</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>4</v>
@@ -5387,31 +5439,31 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
@@ -5421,10 +5473,10 @@
         <v>10</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
@@ -5433,80 +5485,82 @@
         <v>14</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="6">
-        <v>100</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="5" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="D46" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="D47" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="7" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="8"/>
+        <v>256</v>
+      </c>
+      <c r="D48" s="8">
+        <v>100</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="7" t="s">
-        <v>61</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
@@ -5530,16 +5584,16 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
+      <c r="B51" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
@@ -5568,12 +5622,12 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="5" t="s">
-        <v>46</v>
+      <c r="B53" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -5582,9 +5636,15 @@
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="B54" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -5592,716 +5652,708 @@
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0</v>
-      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="14" t="s">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="16"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="D61" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="5" t="s">
-        <v>61</v>
+      <c r="H61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="7" t="s">
-        <v>314</v>
+      <c r="B62" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="6">
+        <v>100</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>313</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E63" s="8"/>
-      <c r="F63" s="8">
-        <v>1</v>
-      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>315</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>313</v>
+        <v>176</v>
       </c>
       <c r="D64" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E64" s="8"/>
-      <c r="F64" s="8">
-        <v>1</v>
-      </c>
+      <c r="F64" s="8"/>
       <c r="G64" s="7"/>
       <c r="H64" s="8"/>
       <c r="I64" s="7" t="s">
-        <v>319</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="9"/>
+      <c r="B65" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="7"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D69" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E69" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F69" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G69" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I69" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="5" t="s">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73" s="2">
-        <v>0</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="14" t="s">
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="16"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="19"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F76" s="4" t="s">
+      <c r="D77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="5" t="s">
+      <c r="H77" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="7" t="s">
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="7"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="7"/>
+      <c r="I79" s="7" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="9"/>
+      <c r="B80" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="7" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="19"/>
+      <c r="B81" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" s="8">
+        <v>1</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8">
+        <v>1</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="7" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B83" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D84" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G84" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="H84" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="I84" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="5" t="s">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B85" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
+      <c r="E85" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-    </row>
-    <row r="88" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="1" t="s">
+      <c r="B86" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I90" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B89" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="1" t="s">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="14" t="s">
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="16"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B91" s="4" t="s">
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="19"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F91" s="4" t="s">
+      <c r="D93" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="5" t="s">
+      <c r="H93" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B94" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B93" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B94" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D94" s="8">
-        <v>1</v>
-      </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8">
-        <v>1</v>
-      </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="7" t="s">
-        <v>322</v>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="7" t="s">
-        <v>318</v>
+        <v>134</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D95" s="8">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D95" s="8"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="8">
-        <v>1</v>
-      </c>
+      <c r="F95" s="8"/>
       <c r="G95" s="7"/>
       <c r="H95" s="8"/>
       <c r="I95" s="7" t="s">
-        <v>319</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="9"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="7"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="19"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="14"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B99" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C99" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D99" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E99" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F99" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G99" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H99" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="I99" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="5" t="s">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B100" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5" t="s">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B100" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="E100" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="7"/>
@@ -6314,253 +6366,263 @@
       <c r="I101" s="7"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-    </row>
-    <row r="104" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="1" t="s">
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+    </row>
+    <row r="105" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I105" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="1" t="s">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="16"/>
+      <c r="I106" s="2"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="19"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B108" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F107" s="4" t="s">
+      <c r="C108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G108" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H107" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="5" t="s">
-        <v>199</v>
+      <c r="H108" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="7" t="s">
-        <v>260</v>
+      <c r="B109" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>325</v>
+        <v>182</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D110" s="8">
-        <v>100</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="7"/>
       <c r="H110" s="8"/>
-      <c r="I110" s="7"/>
+      <c r="I110" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
-        <v>326</v>
+        <v>183</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D111" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
+      <c r="F111" s="8">
+        <v>1</v>
+      </c>
       <c r="G111" s="7"/>
       <c r="H111" s="8"/>
-      <c r="I111" s="7"/>
+      <c r="I111" s="7" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="8"/>
+      <c r="B112" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D112" s="8">
+        <v>1</v>
+      </c>
       <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
+      <c r="F112" s="8">
+        <v>1</v>
+      </c>
       <c r="G112" s="7"/>
       <c r="H112" s="8"/>
-      <c r="I112" s="7"/>
+      <c r="I112" s="7" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="7"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="9"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="9"/>
+      <c r="B114" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="14"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="19"/>
+      <c r="B115" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B116" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="B116" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B117" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
+      <c r="B117" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B118" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>259</v>
-      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -6568,678 +6630,688 @@
       <c r="I118" s="7"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-    </row>
-    <row r="122" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+    </row>
+    <row r="121" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
       <c r="H122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I122" s="2">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I122" s="2"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I123" s="2"/>
+      <c r="B123" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="19"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="16"/>
+      <c r="D124" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>196</v>
+      <c r="B125" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B126" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="5" t="s">
-        <v>199</v>
+      <c r="B126" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" s="7" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D127" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="D127" s="8">
+        <v>100</v>
+      </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="7"/>
       <c r="H127" s="8"/>
       <c r="I127" s="7" t="s">
-        <v>168</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D128" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="D128" s="8">
+        <v>100</v>
+      </c>
       <c r="E128" s="8"/>
-      <c r="F128" s="8">
-        <v>0</v>
-      </c>
+      <c r="F128" s="8"/>
       <c r="G128" s="7"/>
       <c r="H128" s="8"/>
       <c r="I128" s="7" t="s">
-        <v>134</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="9"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="7"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B130" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="19"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="7"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="9"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B132" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="14"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B133" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C133" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D133" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E133" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F133" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="G133" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H131" s="11" t="s">
+      <c r="H133" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I131" s="11" t="s">
+      <c r="I133" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B132" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-    </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
+      <c r="B134" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
+      <c r="B135" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+    </row>
+    <row r="139" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="H139" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I139" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B138" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="1" t="s">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B140" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B139" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B140" s="4" t="s">
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B141" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="19"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B142" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F140" s="4" t="s">
+      <c r="D142" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G142" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H140" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B141" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F141" s="6"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B142" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="7" t="s">
-        <v>199</v>
+      <c r="H142" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B143" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="7" t="s">
-        <v>113</v>
+      <c r="B143" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
+      <c r="B144" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="7"/>
       <c r="H144" s="8"/>
-      <c r="I144" s="7"/>
+      <c r="I144" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
+      <c r="B145" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
+      <c r="F145" s="8">
+        <v>0</v>
+      </c>
       <c r="G145" s="7"/>
       <c r="H145" s="8"/>
-      <c r="I145" s="7"/>
+      <c r="I145" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="7"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="9"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="7"/>
+      <c r="B147" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="14"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="7"/>
+      <c r="B148" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="7"/>
+      <c r="B149" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="9"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B155" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B156" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="19"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B158" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F158" s="6"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B159" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B160" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="19"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B152" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H152" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I152" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B153" s="5" t="s">
+      <c r="C160" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B154" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B157" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="22"/>
-    </row>
-    <row r="158" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="23"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="23"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23"/>
-      <c r="I158" s="23"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I160" s="2">
-        <v>0</v>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B161" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
-      <c r="H161" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I161" s="2"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="7"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B162" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="16"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="7"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B163" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="7"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B164" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H164" s="6"/>
-      <c r="I164" s="5"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="7"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B165" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>283</v>
-      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
-      <c r="G165" s="7" t="s">
-        <v>284</v>
-      </c>
+      <c r="G165" s="7"/>
       <c r="H165" s="8"/>
-      <c r="I165" s="7" t="s">
-        <v>285</v>
-      </c>
+      <c r="I165" s="7"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B166" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>288</v>
-      </c>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
@@ -7248,257 +7320,510 @@
       <c r="I166" s="7"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B167" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="7"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="9"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B168" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="7"/>
+      <c r="B168" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="14"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="7"/>
+      <c r="B169" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I169" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="7"/>
+      <c r="B170" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
+      <c r="B171" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
       <c r="G171" s="7"/>
-      <c r="H171" s="8"/>
+      <c r="H171" s="7"/>
       <c r="I171" s="7"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
       <c r="G172" s="7"/>
-      <c r="H172" s="8"/>
+      <c r="H172" s="7"/>
       <c r="I172" s="7"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
       <c r="G173" s="9"/>
-      <c r="H173" s="10"/>
+      <c r="H173" s="9"/>
       <c r="I173" s="9"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B174" s="17" t="s">
+      <c r="B174" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="22"/>
+    </row>
+    <row r="175" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="23"/>
+      <c r="I175" s="23"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B179" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="19"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B181" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H181" s="6"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B182" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H182" s="8"/>
+      <c r="I182" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B183" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="7"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B184" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H184" s="8"/>
+      <c r="I184" s="7"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B185" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="7"/>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="7"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="7"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="7"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="7"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="9"/>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B191" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="19"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B175" s="11" t="s">
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="14"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B192" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C192" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="D192" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="E192" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F175" s="11" t="s">
+      <c r="F192" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G175" s="11" t="s">
+      <c r="G192" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H175" s="11" t="s">
+      <c r="H192" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I175" s="11" t="s">
+      <c r="I192" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B176" s="5" t="s">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B193" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B177" s="7" t="s">
+      <c r="C193" s="5"/>
+      <c r="D193" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B194" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B178" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
-      <c r="I178" s="7"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B179" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
-      <c r="I179" s="7"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="9"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B181" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
-      <c r="E181" s="21"/>
-      <c r="F181" s="21"/>
-      <c r="G181" s="21"/>
-      <c r="H181" s="21"/>
-      <c r="I181" s="22"/>
-    </row>
-    <row r="182" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="23"/>
-      <c r="C182" s="23"/>
-      <c r="D182" s="23"/>
-      <c r="E182" s="23"/>
-      <c r="F182" s="23"/>
-      <c r="G182" s="23"/>
-      <c r="H182" s="23"/>
-      <c r="I182" s="23"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B195" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B196" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B198" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="22"/>
+    </row>
+    <row r="199" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="23"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="23"/>
+      <c r="G199" s="23"/>
+      <c r="H199" s="23"/>
+      <c r="I199" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="B162:I162"/>
+  <mergeCells count="37">
     <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="B115:I115"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="B175:I175"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="B156:I156"/>
+    <mergeCell ref="B168:I168"/>
+    <mergeCell ref="B147:I147"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B98:I98"/>
+    <mergeCell ref="C122:G122"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B157:I157"/>
-    <mergeCell ref="B158:I158"/>
-    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B17:I17"/>
     <mergeCell ref="C42:G42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="C138:G138"/>
-    <mergeCell ref="B139:I139"/>
-    <mergeCell ref="B151:I151"/>
-    <mergeCell ref="B130:I130"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="B123:I123"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="B141:I141"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="B114:I114"/>
+    <mergeCell ref="C178:G178"/>
+    <mergeCell ref="B179:I179"/>
+    <mergeCell ref="B191:I191"/>
+    <mergeCell ref="B198:I198"/>
+    <mergeCell ref="B199:I199"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99:B102 B68:B71 B117:B120 B132:B135 B83:B86 B153:B156 B53:B55 B18:B21 B36:C36 B37:B39 B176:B180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B116:B119 B85:B88 B134:B137 B149:B152 B100:B103 B170:B173 B70:B72 B19:B22 B53:C53 B54:B56 B193:B197 B36:B39">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G88 G104 G122 G73 G137 G57 G41 G2 G23 G160">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G105 G121 G139 G90 G154 G74 G58 G2 G41 G177 G24">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G61:G65 G108:G114 G126:G129 G77:G80 G141:G150 G164:G173 G45:G50 G6:G15 G27:G33 G92:G96">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G78:G82 G125:G131 G143:G146 G94:G97 G158:G167 G181:G190 G62:G67 G109:G113 G6:G16 G28:G33 G45:G50">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7507,7 +7832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -7537,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -7562,29 +7887,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -7614,28 +7939,28 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -7643,15 +7968,15 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="8">
         <v>100</v>
@@ -7661,15 +7986,15 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="8">
         <v>200</v>
@@ -7679,15 +8004,15 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8">
         <v>200</v>
@@ -7696,18 +8021,18 @@
       <c r="F10" s="8"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -7715,15 +8040,15 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -7731,15 +8056,15 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -7747,15 +8072,15 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -7763,15 +8088,15 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="I14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -7779,61 +8104,61 @@
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -7847,16 +8172,16 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
@@ -7890,7 +8215,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -7903,10 +8228,10 @@
         <v>47</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -7916,7 +8241,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -7941,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -7966,29 +8291,29 @@
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="C28" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
@@ -8018,7 +8343,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>17</v>
@@ -8029,12 +8354,12 @@
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>17</v>
@@ -8045,7 +8370,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
@@ -8059,16 +8384,16 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
@@ -8102,10 +8427,10 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -8117,10 +8442,10 @@
         <v>47</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -8153,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -8178,29 +8503,29 @@
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="C42" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
@@ -8230,10 +8555,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -8241,61 +8566,61 @@
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
       <c r="I45" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
@@ -8309,16 +8634,16 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
@@ -8352,10 +8677,10 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -8368,7 +8693,7 @@
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -8398,7 +8723,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>

--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="357">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1203,10 +1203,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bad_count</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1475,10 +1471,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>own_games</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーID(0～999は予約番号、1000スタート)</t>
     <rPh sb="13" eb="15">
       <t>ヨヤク</t>
@@ -1734,6 +1726,18 @@
     <rPh sb="3" eb="4">
       <t>ビ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_own_games</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>package_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2416,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>169</v>
@@ -2442,7 +2446,7 @@
         <v>172</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -2504,7 +2508,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
@@ -2531,7 +2535,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
@@ -2544,7 +2548,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -2641,7 +2645,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2655,7 +2659,7 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -2678,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>169</v>
@@ -2704,7 +2708,7 @@
         <v>172</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -2766,7 +2770,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
@@ -3016,7 +3020,7 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="5" t="s">
@@ -3173,11 +3177,11 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -3286,7 +3290,7 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="5" t="s">
@@ -3836,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -3924,11 +3928,11 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
@@ -4023,7 +4027,7 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>68</v>
@@ -4041,10 +4045,10 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4153,7 +4157,7 @@
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -4186,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>169</v>
@@ -4274,7 +4278,7 @@
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H121" s="6"/>
       <c r="I121" s="5" t="s">
@@ -4331,20 +4335,20 @@
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.15">
@@ -4358,7 +4362,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="7" t="s">
@@ -4376,7 +4380,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="7" t="s">
@@ -4394,7 +4398,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="7" t="s">
@@ -4403,7 +4407,7 @@
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B129" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>131</v>
@@ -4412,16 +4416,16 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B130" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>131</v>
@@ -4430,16 +4434,16 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B131" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>131</v>
@@ -4448,16 +4452,16 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>131</v>
@@ -4466,11 +4470,11 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.15">
@@ -4484,7 +4488,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="7" t="s">
@@ -4493,7 +4497,7 @@
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>214</v>
@@ -4504,12 +4508,12 @@
       <c r="G134" s="7"/>
       <c r="H134" s="8"/>
       <c r="I134" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>214</v>
@@ -4520,7 +4524,7 @@
       <c r="G135" s="7"/>
       <c r="H135" s="8"/>
       <c r="I135" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.15">
@@ -4559,7 +4563,7 @@
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B138" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>216</v>
@@ -4572,7 +4576,7 @@
       <c r="G138" s="7"/>
       <c r="H138" s="8"/>
       <c r="I138" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.15">
@@ -4771,10 +4775,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I199"/>
+  <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView showGridLines="0" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4886,7 +4890,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -4920,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
@@ -5003,7 +5007,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>246</v>
@@ -5021,7 +5025,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>64</v>
@@ -5036,12 +5040,12 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="I14" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -5160,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -5186,7 +5190,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -5250,15 +5254,15 @@
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
       <c r="I28" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D29" s="8">
         <v>256</v>
@@ -5268,15 +5272,15 @@
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D30" s="8">
         <v>50</v>
@@ -5286,15 +5290,15 @@
       <c r="G30" s="7"/>
       <c r="H30" s="8"/>
       <c r="I30" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -5302,7 +5306,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
       <c r="I31" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
@@ -5379,11 +5383,11 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -5416,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>169</v>
@@ -5442,7 +5446,7 @@
         <v>172</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -5502,11 +5506,11 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
@@ -5514,7 +5518,7 @@
         <v>239</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D46" s="8">
         <v>200</v>
@@ -5524,7 +5528,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
@@ -5532,7 +5536,7 @@
         <v>240</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D47" s="8">
         <v>50</v>
@@ -5547,10 +5551,10 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="D48" s="8">
         <v>100</v>
@@ -5560,7 +5564,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
@@ -5627,7 +5631,7 @@
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -5637,7 +5641,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>238</v>
@@ -5918,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>169</v>
@@ -5944,7 +5948,7 @@
         <v>172</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -6011,7 +6015,7 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>43</v>
@@ -6022,7 +6026,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="8"/>
       <c r="I79" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
@@ -6030,7 +6034,7 @@
         <v>183</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D80" s="8">
         <v>1</v>
@@ -6040,19 +6044,19 @@
         <v>1</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D81" s="8">
         <v>1</v>
@@ -6062,11 +6066,11 @@
         <v>1</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
@@ -6126,7 +6130,7 @@
         <v>59</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -6135,14 +6139,14 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -6174,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>169</v>
@@ -6390,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>169</v>
@@ -6514,15 +6518,15 @@
       <c r="G111" s="7"/>
       <c r="H111" s="8"/>
       <c r="I111" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B112" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D112" s="8">
         <v>1</v>
@@ -6534,7 +6538,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="8"/>
       <c r="I112" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.15">
@@ -6612,7 +6616,7 @@
         <v>182</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
@@ -6644,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>169</v>
@@ -6753,7 +6757,7 @@
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>127</v>
@@ -6766,12 +6770,12 @@
       <c r="G127" s="7"/>
       <c r="H127" s="8"/>
       <c r="I127" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>128</v>
@@ -6784,480 +6788,486 @@
       <c r="G128" s="7"/>
       <c r="H128" s="8"/>
       <c r="I128" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="9"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B130" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="14"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B131" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B132" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B133" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+    </row>
+    <row r="137" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B138" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B139" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="19"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B141" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B142" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B143" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8">
+        <v>0</v>
+      </c>
+      <c r="G143" s="7"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="9"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B145" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="14"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B146" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B147" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B148" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="7"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="7"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="9"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B132" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="14"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B133" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H133" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I133" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B134" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5" t="s">
+      <c r="E148" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B153" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B154" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="19"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B156" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F156" s="6"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B157" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B135" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-    </row>
-    <row r="139" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I139" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B140" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I140" s="2"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B141" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="19"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B142" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B143" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C143" s="5" t="s">
+      <c r="C157" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="5" t="s">
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B144" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B145" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8">
-        <v>0</v>
-      </c>
-      <c r="G145" s="7"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="9"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B147" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="14"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B148" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B149" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B154" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I154" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B155" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B156" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="19"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B157" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B158" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F158" s="6"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="5"/>
+      <c r="B158" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B159" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="7"/>
       <c r="H159" s="8"/>
-      <c r="I159" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="I159" s="7"/>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B160" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>201</v>
-      </c>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="7"/>
       <c r="H160" s="8"/>
-      <c r="I160" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="I160" s="7"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B161" s="7"/>
@@ -7300,265 +7310,275 @@
       <c r="I164" s="7"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="7"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="9"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="7"/>
+      <c r="B166" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="14"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="9"/>
+      <c r="B167" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B168" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
-      <c r="I168" s="14"/>
+      <c r="B168" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B169" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I169" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="B169" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B170" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B171" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="9"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B174" s="20" t="s">
+      <c r="B172" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C174" s="21"/>
-      <c r="D174" s="21"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="21"/>
-      <c r="I174" s="22"/>
-    </row>
-    <row r="175" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="23"/>
-      <c r="C175" s="23"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="23"/>
-      <c r="F175" s="23"/>
-      <c r="G175" s="23"/>
-      <c r="H175" s="23"/>
-      <c r="I175" s="23"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
+      <c r="I172" s="22"/>
+    </row>
+    <row r="173" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="23"/>
+      <c r="I173" s="23"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I176" s="2"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B177" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I177" s="2">
-        <v>0</v>
-      </c>
+      <c r="B177" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="19"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I178" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C178" s="15" t="s">
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B179" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H179" s="6"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B180" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I178" s="2"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B179" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
-      <c r="I179" s="19"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B180" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I180" s="4" t="s">
-        <v>6</v>
+      <c r="C180" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H180" s="8"/>
+      <c r="I180" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B181" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="H181" s="6"/>
-      <c r="I181" s="5"/>
+      <c r="B181" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="7"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B182" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
       <c r="G182" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H182" s="8"/>
-      <c r="I182" s="7" t="s">
-        <v>266</v>
-      </c>
+      <c r="I182" s="7"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B183" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
@@ -7568,28 +7588,18 @@
       <c r="I183" s="7"/>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B184" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>271</v>
-      </c>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
-      <c r="G184" s="7" t="s">
-        <v>252</v>
-      </c>
+      <c r="G184" s="7"/>
       <c r="H184" s="8"/>
       <c r="I184" s="7"/>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B185" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>278</v>
-      </c>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
@@ -7618,94 +7628,104 @@
       <c r="I187" s="7"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="7"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="9"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="7"/>
+      <c r="B189" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="14"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="10"/>
-      <c r="I190" s="9"/>
+      <c r="B190" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H190" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I190" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B191" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="13"/>
-      <c r="H191" s="13"/>
-      <c r="I191" s="14"/>
+      <c r="B191" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B192" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D192" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F192" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G192" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H192" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I192" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="B192" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B193" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
+      <c r="B193" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B194" s="7" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
@@ -7714,81 +7734,51 @@
       <c r="I194" s="7"/>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B195" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B196" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
-      <c r="I196" s="7"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
-      <c r="H197" s="9"/>
-      <c r="I197" s="9"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B198" s="20" t="s">
+      <c r="B196" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="21"/>
-      <c r="H198" s="21"/>
-      <c r="I198" s="22"/>
-    </row>
-    <row r="199" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="23"/>
-      <c r="C199" s="23"/>
-      <c r="D199" s="23"/>
-      <c r="E199" s="23"/>
-      <c r="F199" s="23"/>
-      <c r="G199" s="23"/>
-      <c r="H199" s="23"/>
-      <c r="I199" s="23"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="22"/>
+    </row>
+    <row r="197" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="23"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="23"/>
+      <c r="F197" s="23"/>
+      <c r="G197" s="23"/>
+      <c r="H197" s="23"/>
+      <c r="I197" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B175:I175"/>
+    <mergeCell ref="B172:I172"/>
+    <mergeCell ref="B173:I173"/>
     <mergeCell ref="B83:I83"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="B68:I68"/>
     <mergeCell ref="B60:I60"/>
     <mergeCell ref="C75:G75"/>
     <mergeCell ref="B76:I76"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="B156:I156"/>
-    <mergeCell ref="B168:I168"/>
-    <mergeCell ref="B147:I147"/>
+    <mergeCell ref="C153:G153"/>
+    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="B166:I166"/>
+    <mergeCell ref="B145:I145"/>
     <mergeCell ref="C91:G91"/>
     <mergeCell ref="B92:I92"/>
     <mergeCell ref="B98:I98"/>
@@ -7803,27 +7793,27 @@
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="B51:I51"/>
     <mergeCell ref="B123:I123"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C140:G140"/>
-    <mergeCell ref="B141:I141"/>
+    <mergeCell ref="B130:I130"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="B139:I139"/>
     <mergeCell ref="C106:G106"/>
     <mergeCell ref="B107:I107"/>
     <mergeCell ref="B114:I114"/>
-    <mergeCell ref="C178:G178"/>
-    <mergeCell ref="B179:I179"/>
-    <mergeCell ref="B191:I191"/>
-    <mergeCell ref="B198:I198"/>
-    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="C176:G176"/>
+    <mergeCell ref="B177:I177"/>
+    <mergeCell ref="B189:I189"/>
+    <mergeCell ref="B196:I196"/>
+    <mergeCell ref="B197:I197"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B116:B119 B85:B88 B134:B137 B149:B152 B100:B103 B170:B173 B70:B72 B19:B22 B53:C53 B54:B56 B193:B197 B36:B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B116:B119 B85:B88 B132:B135 B147:B150 B100:B103 B168:B171 B70:B72 B19:B22 B53:C53 B54:B56 B191:B195 B36:B39">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G105 G121 G139 G90 G154 G74 G58 G2 G41 G177 G24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G105 G121 G137 G90 G152 G74 G58 G2 G41 G175 G24">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G78:G82 G125:G131 G143:G146 G94:G97 G158:G167 G181:G190 G62:G67 G109:G113 G6:G16 G28:G33 G45:G50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G78:G82 G141:G144 G94:G97 G156:G165 G179:G188 G62:G67 G109:G113 G6:G16 G28:G33 G45:G50 G125:G129">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7839,8 +7829,8 @@
   </sheetPr>
   <dimension ref="B2:I57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -8118,7 +8108,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
@@ -8136,7 +8126,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
@@ -8145,20 +8135,20 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -8240,9 +8230,7 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -8478,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -8580,7 +8568,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
@@ -8598,7 +8586,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="7" t="s">
@@ -8616,7 +8604,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="7" t="s">
@@ -8693,7 +8681,7 @@
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>

--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム" sheetId="1" r:id="rId1"/>
-    <sheet name="ユーザー" sheetId="4" r:id="rId2"/>
-    <sheet name="サイト" sheetId="6" r:id="rId3"/>
+    <sheet name="レビュー" sheetId="8" r:id="rId2"/>
+    <sheet name="ユーザー" sheetId="4" r:id="rId3"/>
+    <sheet name="サイト" sheetId="6" r:id="rId4"/>
+    <sheet name="コミュニティ" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="468">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1738,6 +1740,597 @@
   </si>
   <si>
     <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>communities</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>join_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加入日</t>
+    <rPh sb="0" eb="3">
+      <t>カニュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_block_users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティのユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>why</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぜ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ参加をブロックされているユーザー</t>
+    <rPh sb="6" eb="8">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_walkthrough_threads</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_walkthrough_responses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの攻略掲示板のスレッド</t>
+    <rPh sb="7" eb="9">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wrote_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>good</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hide_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非表示フラグ</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの攻略掲示板の記事へのレス</t>
+    <rPh sb="7" eb="9">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_chat_threads</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの雑談掲示板のスレッド</t>
+    <rPh sb="7" eb="9">
+      <t>ザツダン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_chat_responses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの雑談掲示板の記事へのレス</t>
+    <rPh sb="7" eb="9">
+      <t>ザツダン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板への不正報告</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板不正報告ID</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>response_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンスID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID(報告者)</t>
+    <rPh sb="7" eb="10">
+      <t>ホウコクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正の種類</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reported_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告日時</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応状況</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者のコメント</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site_access_histories</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトへのアクセス履歴</t>
+    <rPh sb="9" eb="11">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>access_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス日時</t>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site_injustice_reports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_bbs_injustice_reports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトの不正報告</t>
+    <rPh sb="4" eb="6">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト不正報告ID</t>
+    <rPh sb="3" eb="5">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_update_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューにいいねしたログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>good_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねした日時</t>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anonymous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>匿名フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>トクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_good_histories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_injustice_reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レビューの不正報告</t>
+    <rPh sb="5" eb="7">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー不正報告ID</t>
+    <rPh sb="4" eb="6">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2398,7 +2991,7 @@
   </sheetPr>
   <dimension ref="B2:I149"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
@@ -4771,6 +5364,1209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:I71"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
+    <col min="2" max="3" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="B55:I55"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G36 G53">
+      <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B34 B48:B51 B68:B71">
+      <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G27 G40:G45 G57:G65">
+      <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -7822,15 +9618,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I57"/>
+  <dimension ref="B2:I95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -8731,8 +10527,604 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="22"/>
+    </row>
+    <row r="75" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="19"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B81" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B82" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B83" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B85" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B86" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B91" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B93" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B94" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B20:I20"/>
@@ -8744,20 +11136,2587 @@
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B90:I90"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:I75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B55 B22:B25 B36:B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B55 B22:B25 B36:B39 B70:B73 B92:B95">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G45:G49 G6:G19 G31:G33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G45:G49 G6:G19 G31:G33 G63:G67 G81:G89">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G41 G27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G41 G27 G59 G77">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:I158"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:XFD158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="8">
+        <v>200</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="8">
+        <v>200</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B81" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B82" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B83" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B85" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H85" s="8"/>
+      <c r="I85" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B89" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B91" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B97" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="19"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B99" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B100" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H100" s="8"/>
+      <c r="I100" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B101" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B102" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="8">
+        <v>200</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B103" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B104" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B105" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B106" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B107" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8">
+        <v>0</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H107" s="8"/>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B108" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D108" s="8">
+        <v>1</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8">
+        <v>0</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H108" s="8"/>
+      <c r="I108" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B110" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="14"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B111" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B112" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B113" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B114" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B120" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="19"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B122" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="6"/>
+      <c r="G122" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H122" s="6"/>
+      <c r="I122" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B123" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H123" s="8"/>
+      <c r="I123" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B124" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H124" s="8"/>
+      <c r="I124" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B125" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B126" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B127" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8">
+        <v>0</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H127" s="8"/>
+      <c r="I127" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B128" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D128" s="8">
+        <v>1</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8">
+        <v>0</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H128" s="8"/>
+      <c r="I128" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="9"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B131" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="14"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B132" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B133" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B134" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B135" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B140" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="19"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B142" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="6"/>
+      <c r="G142" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H142" s="6"/>
+      <c r="I142" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B143" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H143" s="8"/>
+      <c r="I143" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B144" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H144" s="8"/>
+      <c r="I144" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B145" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B146" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H146" s="8"/>
+      <c r="I146" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B147" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H147" s="8"/>
+      <c r="I147" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B148" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B149" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B150" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8">
+        <v>0</v>
+      </c>
+      <c r="G150" s="7"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B151" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="9"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B153" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="14"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B154" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B155" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B156" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B157" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B131:I131"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="B140:I140"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="B120:I120"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19 G2 G36 G52 G75 G95 G118 G138">
+      <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G11 G23:G28 G40:G44 G79:G87 G56:G66 G122:G130 G99:G109 G142:G152">
+      <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:B34 B14:B17 B47:B50 B90:B93 B69:B73 B133:B136 B112:B116 B155:B158">
+      <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="467">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -699,15 +699,6 @@
     <t>公開区分</t>
   </si>
   <si>
-    <t>ブロック</t>
-  </si>
-  <si>
-    <t>block_user_id</t>
-  </si>
-  <si>
-    <t>ブロックユーザーID</t>
-  </si>
-  <si>
     <t>レビュー</t>
   </si>
   <si>
@@ -1167,10 +1158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トークン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_twitter</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1184,24 +1171,6 @@
   </si>
   <si>
     <t>package_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮登録期限</t>
-    <rPh sb="0" eb="3">
-      <t>カリトウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キゲン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1459,10 +1428,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>notice</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相手に通知するフラグ</t>
     <rPh sb="0" eb="2">
       <t>アイテ</t>
@@ -1616,10 +1581,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sing_up_limit_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>remember_token</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1647,27 +1608,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仮登録ユーザーID</t>
-    <rPh sb="0" eb="3">
-      <t>カリトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トークン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録期限</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>email</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1676,10 +1620,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_blocks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_email</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1693,10 +1633,6 @@
   </si>
   <si>
     <t>UNIQUE</t>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メール認証テーブル</t>
@@ -2287,10 +2223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>anonymous</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TINYINT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2302,10 +2234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>review_good_histories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>review_injustice_reports</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2331,6 +2259,89 @@
   </si>
   <si>
     <t>レビューID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_good_histories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anonymous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再アクセストークン</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効期限</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再発行時の有効期限</t>
+    <rPh sb="5" eb="8">
+      <t>サイハッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再発行時のトークン</t>
+    <rPh sb="5" eb="8">
+      <t>サイハッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォローカテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>follow_user_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3013,16 +3024,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -3036,10 +3047,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -3070,10 +3081,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
@@ -3082,15 +3093,15 @@
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>43</v>
@@ -3101,7 +3112,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
@@ -3113,7 +3124,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -3128,7 +3139,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
@@ -3141,7 +3152,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -3182,7 +3193,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -3224,7 +3235,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3238,7 +3249,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -3252,7 +3263,7 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -3275,16 +3286,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>4</v>
@@ -3298,10 +3309,10 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -3332,10 +3343,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3344,15 +3355,15 @@
         <v>14</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>43</v>
@@ -3363,11 +3374,11 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -3375,7 +3386,7 @@
         <v>71</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D24" s="8">
         <v>200</v>
@@ -3385,15 +3396,15 @@
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D25" s="8">
         <v>10</v>
@@ -3444,7 +3455,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -3486,7 +3497,7 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3525,16 +3536,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>4</v>
@@ -3548,7 +3559,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>36</v>
@@ -3582,10 +3593,10 @@
         <v>10</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>13</v>
@@ -3594,15 +3605,15 @@
         <v>14</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>43</v>
@@ -3613,7 +3624,7 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="5" t="s">
@@ -3625,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D40" s="8">
         <v>200</v>
@@ -3640,7 +3651,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>43</v>
@@ -3702,7 +3713,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -3770,11 +3781,11 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -3797,16 +3808,16 @@
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>4</v>
@@ -3820,7 +3831,7 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>41</v>
@@ -3854,10 +3865,10 @@
         <v>10</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>13</v>
@@ -3866,15 +3877,15 @@
         <v>14</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
@@ -3883,7 +3894,7 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="5" t="s">
@@ -3926,7 +3937,7 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -3968,7 +3979,7 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -4001,16 +4012,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>4</v>
@@ -4024,10 +4035,10 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
@@ -4058,10 +4069,10 @@
         <v>10</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>13</v>
@@ -4070,18 +4081,18 @@
         <v>14</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
@@ -4091,7 +4102,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="6"/>
       <c r="I70" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
@@ -4099,7 +4110,7 @@
         <v>37</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -4107,15 +4118,15 @@
       <c r="G71" s="7"/>
       <c r="H71" s="8"/>
       <c r="I71" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -4123,15 +4134,15 @@
       <c r="G72" s="7"/>
       <c r="H72" s="8"/>
       <c r="I72" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -4139,7 +4150,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="8"/>
       <c r="I73" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
@@ -4147,7 +4158,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D74" s="8">
         <v>200</v>
@@ -4165,7 +4176,7 @@
         <v>119</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4181,7 +4192,7 @@
         <v>38</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D76" s="8">
         <v>100</v>
@@ -4212,10 +4223,10 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D78" s="8">
         <v>200</v>
@@ -4227,12 +4238,12 @@
         <v>58</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>68</v>
@@ -4245,12 +4256,12 @@
         <v>58</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>68</v>
@@ -4263,12 +4274,12 @@
         <v>58</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>68</v>
@@ -4281,7 +4292,7 @@
         <v>58</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
@@ -4336,7 +4347,7 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -4378,7 +4389,7 @@
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -4391,10 +4402,10 @@
         <v>47</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -4407,10 +4418,10 @@
         <v>47</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -4433,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -4510,7 +4521,7 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>43</v>
@@ -4521,11 +4532,11 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="5" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
@@ -4594,7 +4605,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="7"/>
       <c r="H102" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>56</v>
@@ -4620,7 +4631,7 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>68</v>
@@ -4638,17 +4649,17 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="7"/>
       <c r="H105" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I105" s="7"/>
     </row>
@@ -4736,7 +4747,7 @@
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -4750,7 +4761,7 @@
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -4783,16 +4794,16 @@
         <v>0</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>4</v>
@@ -4806,10 +4817,10 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -4840,10 +4851,10 @@
         <v>10</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>13</v>
@@ -4852,15 +4863,15 @@
         <v>14</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B121" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>43</v>
@@ -4871,19 +4882,19 @@
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H121" s="6"/>
       <c r="I121" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B122" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -4891,7 +4902,7 @@
       <c r="G122" s="7"/>
       <c r="H122" s="8"/>
       <c r="I122" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.15">
@@ -4899,7 +4910,7 @@
         <v>126</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -4907,15 +4918,15 @@
       <c r="G123" s="7"/>
       <c r="H123" s="8"/>
       <c r="I123" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -4923,30 +4934,30 @@
       <c r="G124" s="7"/>
       <c r="H124" s="8"/>
       <c r="I124" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>131</v>
@@ -4955,16 +4966,16 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>131</v>
@@ -4973,16 +4984,16 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>131</v>
@@ -4991,16 +5002,16 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B129" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>131</v>
@@ -5009,16 +5020,16 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B130" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>131</v>
@@ -5027,16 +5038,16 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B131" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>131</v>
@@ -5045,16 +5056,16 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>131</v>
@@ -5063,16 +5074,16 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>131</v>
@@ -5081,19 +5092,19 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5101,15 +5112,15 @@
       <c r="G134" s="7"/>
       <c r="H134" s="8"/>
       <c r="I134" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -5117,15 +5128,15 @@
       <c r="G135" s="7"/>
       <c r="H135" s="8"/>
       <c r="I135" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B136" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -5135,15 +5146,15 @@
       <c r="G136" s="7"/>
       <c r="H136" s="8"/>
       <c r="I136" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -5151,15 +5162,15 @@
       <c r="G137" s="7"/>
       <c r="H137" s="8"/>
       <c r="I137" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B138" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -5169,7 +5180,7 @@
       <c r="G138" s="7"/>
       <c r="H138" s="8"/>
       <c r="I138" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.15">
@@ -5214,7 +5225,7 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B143" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
@@ -5256,7 +5267,7 @@
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
@@ -5269,10 +5280,10 @@
         <v>47</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
@@ -5285,10 +5296,10 @@
         <v>47</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -5301,10 +5312,10 @@
         <v>47</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -5370,8 +5381,8 @@
   </sheetPr>
   <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5392,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -5418,7 +5429,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -5449,7 +5460,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -5461,7 +5472,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>6</v>
@@ -5469,7 +5480,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>43</v>
@@ -5480,19 +5491,19 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -5500,7 +5511,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -5508,7 +5519,7 @@
         <v>126</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -5516,15 +5527,15 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -5532,30 +5543,30 @@
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>131</v>
@@ -5564,16 +5575,16 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>131</v>
@@ -5582,16 +5593,16 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>131</v>
@@ -5600,16 +5611,16 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>131</v>
@@ -5618,16 +5629,16 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>131</v>
@@ -5636,16 +5647,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>131</v>
@@ -5654,16 +5665,16 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>131</v>
@@ -5672,16 +5683,16 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>131</v>
@@ -5690,19 +5701,19 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -5710,15 +5721,15 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -5726,15 +5737,15 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
       <c r="I20" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -5742,19 +5753,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -5762,15 +5773,15 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -5778,19 +5789,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -5798,7 +5809,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -5833,7 +5844,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -5875,7 +5886,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -5888,10 +5899,10 @@
         <v>47</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -5904,10 +5915,10 @@
         <v>47</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -5920,10 +5931,10 @@
         <v>47</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -5946,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -5972,7 +5983,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -6003,7 +6014,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>12</v>
@@ -6015,7 +6026,7 @@
         <v>14</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>6</v>
@@ -6023,46 +6034,46 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="5" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -6070,15 +6081,15 @@
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -6088,11 +6099,11 @@
         <v>0</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
@@ -6117,7 +6128,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -6159,10 +6170,10 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -6174,10 +6185,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -6210,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
@@ -6236,7 +6247,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -6267,7 +6278,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>12</v>
@@ -6279,7 +6290,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>6</v>
@@ -6287,7 +6298,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>17</v>
@@ -6298,11 +6309,11 @@
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="5" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
@@ -6316,11 +6327,11 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
@@ -6334,18 +6345,18 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>64</v>
@@ -6354,21 +6365,21 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -6378,12 +6389,12 @@
         <v>18</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>67</v>
@@ -6394,12 +6405,12 @@
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>64</v>
@@ -6412,15 +6423,15 @@
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -6430,7 +6441,7 @@
         <v>18</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
@@ -6487,7 +6498,7 @@
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -6571,10 +6582,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I197"/>
+  <dimension ref="B2:I182"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -6596,16 +6607,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -6619,7 +6630,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>82</v>
@@ -6653,10 +6664,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
@@ -6665,15 +6676,15 @@
         <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>43</v>
@@ -6686,7 +6697,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -6694,7 +6705,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -6712,7 +6723,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -6720,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
@@ -6767,7 +6778,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>67</v>
@@ -6785,10 +6796,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6798,137 +6809,131 @@
         <v>58</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="8" t="s">
-        <v>247</v>
-      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D14" s="8">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I14" s="7" t="s">
-        <v>330</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="8">
-        <v>200</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="9"/>
+      <c r="B16" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -6936,901 +6941,923 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>6</v>
+      <c r="B27" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="8">
+        <v>256</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5" t="s">
-        <v>338</v>
+      <c r="B28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="8">
+        <v>50</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D29" s="8">
-        <v>256</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
-        <v>342</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D30" s="8">
-        <v>50</v>
-      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="7" t="s">
-        <v>339</v>
-      </c>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="2"/>
+      <c r="B42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="5" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
+      <c r="B43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="8">
+        <v>200</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="7" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>172</v>
+      <c r="B44" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" s="8">
+        <v>50</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="5" t="s">
-        <v>259</v>
+      <c r="B45" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D46" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D47" s="8">
-        <v>50</v>
-      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D48" s="8">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B52" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="6">
         <v>100</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="B61" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>172</v>
+      <c r="D61" s="8">
+        <v>100</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="6">
+      <c r="B62" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="8">
         <v>100</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="5" t="s">
-        <v>75</v>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="8">
-        <v>100</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="8">
-        <v>100</v>
-      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="I64" s="7"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="19"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="7" t="s">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="14"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="1" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8">
         <v>0</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>172</v>
+      <c r="G77" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="5" t="s">
+      <c r="B78" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="5" t="s">
-        <v>60</v>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="7" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1</v>
+      </c>
       <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+      <c r="F79" s="8">
+        <v>1</v>
+      </c>
       <c r="G79" s="7"/>
       <c r="H79" s="8"/>
       <c r="I79" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>292</v>
+        <v>64</v>
       </c>
       <c r="D80" s="8">
         <v>1</v>
@@ -7839,35 +7866,21 @@
       <c r="F80" s="8">
         <v>1</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>251</v>
-      </c>
+      <c r="G80" s="7"/>
       <c r="H80" s="8"/>
       <c r="I80" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D81" s="8">
-        <v>1</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="8">
-        <v>1</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>251</v>
-      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="7"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="7" t="s">
-        <v>298</v>
-      </c>
+      <c r="I81" s="7"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="9"/>
@@ -7881,7 +7894,7 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -7926,24 +7939,24 @@
         <v>59</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F85" s="5"/>
+        <v>465</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>299</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -7969,21 +7982,21 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>4</v>
@@ -7997,10 +8010,10 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -8031,10 +8044,10 @@
         <v>10</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>13</v>
@@ -8043,10 +8056,10 @@
         <v>14</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.15">
@@ -8067,7 +8080,7 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="7" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>43</v>
@@ -8078,351 +8091,373 @@
       <c r="G95" s="7"/>
       <c r="H95" s="8"/>
       <c r="I95" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="8"/>
+      <c r="B96" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="8">
+        <v>1</v>
+      </c>
       <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
+      <c r="F96" s="8">
+        <v>1</v>
+      </c>
       <c r="G96" s="7"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="7"/>
+      <c r="I96" s="7" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="9"/>
+      <c r="B97" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D97" s="8">
+        <v>1</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="7" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B99" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B100" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="14"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B100" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
+      <c r="B102" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>292</v>
+      </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-    </row>
-    <row r="105" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="1" t="s">
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+    </row>
+    <row r="106" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C106" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B107" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I105" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="1" t="s">
+      <c r="C107" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="19"/>
+      <c r="I107" s="2"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B109" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F108" s="4" t="s">
+      <c r="C109" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G109" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H108" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="5" t="s">
-        <v>60</v>
+      <c r="H109" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="7" t="s">
-        <v>90</v>
+      <c r="B110" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D111" s="8">
-        <v>1</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="8">
-        <v>1</v>
-      </c>
+      <c r="F111" s="8"/>
       <c r="G111" s="7"/>
       <c r="H111" s="8"/>
       <c r="I111" s="7" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B112" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>292</v>
+        <v>127</v>
       </c>
       <c r="D112" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E112" s="8"/>
-      <c r="F112" s="8">
-        <v>1</v>
-      </c>
+      <c r="F112" s="8"/>
       <c r="G112" s="7"/>
       <c r="H112" s="8"/>
       <c r="I112" s="7" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="9"/>
+      <c r="B113" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" s="8">
+        <v>100</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="7" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B114" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="14"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="9"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="14"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B116" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C116" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D116" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E116" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F116" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G115" s="11" t="s">
+      <c r="G116" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H116" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I115" s="11" t="s">
+      <c r="I116" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B116" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-    </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B118" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
+      <c r="C118" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -8430,161 +8465,153 @@
       <c r="I118" s="7"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-    </row>
-    <row r="121" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="1" t="s">
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+    </row>
+    <row r="122" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I122" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B122" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="1" t="s">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="17" t="s">
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B124" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="19"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="4" t="s">
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="19"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B125" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D124" s="4" t="s">
+      <c r="C125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I125" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E124" s="4" t="s">
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B126" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="4" t="s">
+      <c r="C126" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I124" s="4" t="s">
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="5" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B125" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B126" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" s="7" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D127" s="8">
-        <v>100</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="7"/>
       <c r="H127" s="8"/>
       <c r="I127" s="7" t="s">
-        <v>352</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D128" s="8">
-        <v>100</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D128" s="8"/>
       <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
+      <c r="F128" s="8">
+        <v>0</v>
+      </c>
       <c r="G128" s="7"/>
       <c r="H128" s="8"/>
       <c r="I128" s="7" t="s">
-        <v>353</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.15">
@@ -8599,7 +8626,7 @@
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B130" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -8637,14 +8664,14 @@
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -8655,13 +8682,13 @@
       <c r="B133" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>129</v>
-      </c>
+      <c r="C133" s="7"/>
       <c r="D133" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E133" s="7"/>
+        <v>342</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
@@ -8687,21 +8714,21 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="137" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B137" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>4</v>
@@ -8715,10 +8742,10 @@
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B138" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
@@ -8731,7 +8758,7 @@
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B139" s="17" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
@@ -8749,10 +8776,10 @@
         <v>10</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>13</v>
@@ -8761,34 +8788,34 @@
         <v>14</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B141" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
+      <c r="E141" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="F141" s="6"/>
       <c r="G141" s="5"/>
       <c r="H141" s="6"/>
-      <c r="I141" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="I141" s="5"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B142" s="7" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -8796,820 +8823,587 @@
       <c r="G142" s="7"/>
       <c r="H142" s="8"/>
       <c r="I142" s="7" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B143" s="7" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
-      <c r="F143" s="8">
-        <v>0</v>
-      </c>
+      <c r="F143" s="8"/>
       <c r="G143" s="7"/>
       <c r="H143" s="8"/>
       <c r="I143" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="9"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="7"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B145" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="14"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="7"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I146" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="7"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B147" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="7"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B148" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="B148" s="7"/>
       <c r="C148" s="7"/>
-      <c r="D148" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F148" s="7"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
       <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
+      <c r="H148" s="8"/>
       <c r="I148" s="7"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
       <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
+      <c r="H149" s="8"/>
       <c r="I149" s="7"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
       <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
+      <c r="H150" s="10"/>
       <c r="I150" s="9"/>
     </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B151" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="14"/>
+    </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B153" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B154" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B157" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="22"/>
+    </row>
+    <row r="158" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="23"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B160" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G152" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="H160" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I152" s="2">
+      <c r="I160" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B153" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C153" s="15" t="s">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B162" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="19"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B164" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B154" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
-      <c r="I154" s="19"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B155" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I155" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B156" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F156" s="6"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="5"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B157" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B158" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="7"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="7"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="7"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="7"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="7"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="7"/>
+      <c r="C164" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H164" s="6"/>
+      <c r="I164" s="5"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="9"/>
+      <c r="B165" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H165" s="8"/>
+      <c r="I165" s="7" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B166" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="14"/>
+      <c r="B166" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="7"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B167" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F167" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I167" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="B167" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H167" s="8"/>
+      <c r="I167" s="7"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B168" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
+      <c r="B168" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="7"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B169" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
       <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
+      <c r="H169" s="8"/>
       <c r="I169" s="7"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
       <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
+      <c r="H170" s="8"/>
       <c r="I170" s="7"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="9"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="7"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B172" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C172" s="21"/>
-      <c r="D172" s="21"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="21"/>
-      <c r="I172" s="22"/>
-    </row>
-    <row r="173" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="23"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="23"/>
-      <c r="H173" s="23"/>
-      <c r="I173" s="23"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="7"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="9"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B174" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="14"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B175" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I175" s="2">
-        <v>0</v>
+      <c r="B175" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I175" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B176" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="16"/>
-      <c r="H176" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I176" s="2"/>
+      <c r="B176" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B177" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="19"/>
+      <c r="B177" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B178" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B178" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B179" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H179" s="6"/>
-      <c r="I179" s="5"/>
+      <c r="B179" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B180" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H180" s="8"/>
-      <c r="I180" s="7" t="s">
-        <v>265</v>
-      </c>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B181" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="7"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B182" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H182" s="8"/>
-      <c r="I182" s="7"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B183" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="7"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="7"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="7"/>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="7"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="7"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="10"/>
-      <c r="I188" s="9"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B189" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="13"/>
-      <c r="H189" s="13"/>
-      <c r="I189" s="14"/>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B190" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E190" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F190" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G190" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H190" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I190" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B191" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B192" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
-      <c r="I192" s="7"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B193" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
-      <c r="I193" s="7"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B194" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
-      <c r="I194" s="7"/>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
-      <c r="I195" s="9"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B196" s="20" t="s">
+      <c r="B181" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21"/>
-      <c r="E196" s="21"/>
-      <c r="F196" s="21"/>
-      <c r="G196" s="21"/>
-      <c r="H196" s="21"/>
-      <c r="I196" s="22"/>
-    </row>
-    <row r="197" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="23"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="23"/>
-      <c r="E197" s="23"/>
-      <c r="F197" s="23"/>
-      <c r="G197" s="23"/>
-      <c r="H197" s="23"/>
-      <c r="I197" s="23"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="22"/>
+    </row>
+    <row r="182" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="23"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="23"/>
+      <c r="G182" s="23"/>
+      <c r="H182" s="23"/>
+      <c r="I182" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B172:I172"/>
-    <mergeCell ref="B173:I173"/>
+  <mergeCells count="34">
+    <mergeCell ref="B157:I157"/>
+    <mergeCell ref="B158:I158"/>
     <mergeCell ref="B83:I83"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="C153:G153"/>
-    <mergeCell ref="B154:I154"/>
-    <mergeCell ref="B166:I166"/>
-    <mergeCell ref="B145:I145"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="B139:I139"/>
+    <mergeCell ref="B151:I151"/>
+    <mergeCell ref="B130:I130"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="B124:I124"/>
     <mergeCell ref="C91:G91"/>
     <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B98:I98"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B123:I123"/>
-    <mergeCell ref="B130:I130"/>
-    <mergeCell ref="C138:G138"/>
-    <mergeCell ref="B139:I139"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="B107:I107"/>
-    <mergeCell ref="B114:I114"/>
-    <mergeCell ref="C176:G176"/>
-    <mergeCell ref="B177:I177"/>
-    <mergeCell ref="B189:I189"/>
-    <mergeCell ref="B196:I196"/>
-    <mergeCell ref="B197:I197"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="B162:I162"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B182:I182"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B116:B119 B85:B88 B132:B135 B147:B150 B100:B103 B168:B171 B70:B72 B19:B22 B53:C53 B54:B56 B191:B195 B36:B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101:B104 B85:B88 B117:B120 B132:B135 B153:B156 B68:B70 B18:B21 B51:C51 B52:B54 B176:B180 B34:B36">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G105 G121 G137 G90 G152 G74 G58 G2 G41 G175 G24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G90 G106 G122 G137 G72 G56 G2 G38 G160 G23">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G78:G82 G141:G144 G94:G97 G156:G165 G179:G188 G62:G67 G109:G113 G6:G16 G28:G33 G45:G50 G125:G129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G42:G48 G126:G129 G141:G150 G164:G173 G60:G65 G94:G98 G27:G31 G110:G114 G6:G15 G76:G82">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9648,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -9725,7 +9519,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>66</v>
@@ -9904,7 +9698,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
@@ -9922,7 +9716,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
@@ -9931,20 +9725,20 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -10001,7 +9795,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -10050,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10262,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -10364,7 +10158,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
@@ -10382,7 +10176,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="7" t="s">
@@ -10400,7 +10194,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="7" t="s">
@@ -10477,7 +10271,7 @@
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -10532,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1</v>
@@ -10558,7 +10352,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -10618,7 +10412,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="5" t="s">
@@ -10627,28 +10421,28 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -10656,7 +10450,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
@@ -10719,13 +10513,13 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -10738,7 +10532,7 @@
         <v>47</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>59</v>
@@ -10796,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
@@ -10822,7 +10616,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -10873,7 +10667,7 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>17</v>
@@ -10884,16 +10678,16 @@
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="5" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>17</v>
@@ -10902,16 +10696,16 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>17</v>
@@ -10920,41 +10714,41 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -10964,12 +10758,12 @@
         <v>18</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>67</v>
@@ -10980,15 +10774,15 @@
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
       <c r="I86" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -10998,15 +10792,15 @@
       <c r="G87" s="7"/>
       <c r="H87" s="8"/>
       <c r="I87" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -11016,7 +10810,7 @@
         <v>18</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
@@ -11073,7 +10867,7 @@
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -11086,10 +10880,10 @@
         <v>47</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -11102,10 +10896,10 @@
         <v>48</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -11192,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -11218,7 +11012,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -11269,7 +11063,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>17</v>
@@ -11282,15 +11076,15 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -11305,10 +11099,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -11393,7 +11187,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -11436,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -11462,7 +11256,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -11513,7 +11307,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>17</v>
@@ -11524,7 +11318,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -11545,7 +11339,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>67</v>
@@ -11556,7 +11350,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -11633,10 +11427,10 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -11684,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -11710,7 +11504,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -11761,7 +11555,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>17</v>
@@ -11772,7 +11566,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
       <c r="I40" s="5" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
@@ -11793,10 +11587,10 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -11804,7 +11598,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
@@ -11871,10 +11665,10 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -11922,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
@@ -11948,7 +11742,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -11999,7 +11793,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>17</v>
@@ -12010,16 +11804,16 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="5" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>17</v>
@@ -12028,11 +11822,11 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
@@ -12046,7 +11840,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="7" t="s">
@@ -12055,7 +11849,7 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>21</v>
@@ -12068,15 +11862,15 @@
       <c r="G59" s="7"/>
       <c r="H59" s="8"/>
       <c r="I59" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -12084,12 +11878,12 @@
       <c r="G60" s="7"/>
       <c r="H60" s="8"/>
       <c r="I60" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>67</v>
@@ -12100,15 +11894,15 @@
       <c r="G61" s="7"/>
       <c r="H61" s="8"/>
       <c r="I61" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -12116,15 +11910,15 @@
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -12132,15 +11926,15 @@
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -12148,17 +11942,17 @@
         <v>0</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
@@ -12168,11 +11962,11 @@
         <v>0</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
@@ -12229,7 +12023,7 @@
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -12258,10 +12052,10 @@
         <v>48</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -12294,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1</v>
@@ -12320,7 +12114,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -12371,7 +12165,7 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>17</v>
@@ -12382,16 +12176,16 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="5" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>17</v>
@@ -12400,11 +12194,11 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
@@ -12418,7 +12212,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="7" t="s">
@@ -12427,10 +12221,10 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -12438,12 +12232,12 @@
       <c r="G82" s="7"/>
       <c r="H82" s="8"/>
       <c r="I82" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>67</v>
@@ -12454,15 +12248,15 @@
       <c r="G83" s="7"/>
       <c r="H83" s="8"/>
       <c r="I83" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -12470,19 +12264,19 @@
         <v>0</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D85" s="8">
         <v>1</v>
@@ -12492,11 +12286,11 @@
         <v>0</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
@@ -12563,7 +12357,7 @@
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -12592,10 +12386,10 @@
         <v>48</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -12618,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
@@ -12644,7 +12438,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -12695,7 +12489,7 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B99" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>17</v>
@@ -12706,16 +12500,16 @@
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="5" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>17</v>
@@ -12724,11 +12518,11 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.15">
@@ -12742,7 +12536,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="7" t="s">
@@ -12751,7 +12545,7 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>21</v>
@@ -12764,15 +12558,15 @@
       <c r="G102" s="7"/>
       <c r="H102" s="8"/>
       <c r="I102" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B103" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -12780,12 +12574,12 @@
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
       <c r="I103" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>67</v>
@@ -12796,15 +12590,15 @@
       <c r="G104" s="7"/>
       <c r="H104" s="8"/>
       <c r="I104" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -12812,15 +12606,15 @@
       <c r="G105" s="7"/>
       <c r="H105" s="8"/>
       <c r="I105" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -12828,15 +12622,15 @@
       <c r="G106" s="7"/>
       <c r="H106" s="8"/>
       <c r="I106" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -12844,17 +12638,17 @@
         <v>0</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="7"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B108" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D108" s="8">
         <v>1</v>
@@ -12864,11 +12658,11 @@
         <v>0</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
@@ -12925,7 +12719,7 @@
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -12954,10 +12748,10 @@
         <v>48</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -12990,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
@@ -13016,7 +12810,7 @@
         <v>6</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
@@ -13067,7 +12861,7 @@
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B122" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>17</v>
@@ -13078,16 +12872,16 @@
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="5" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B123" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>17</v>
@@ -13096,11 +12890,11 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
@@ -13114,7 +12908,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="7" t="s">
@@ -13123,10 +12917,10 @@
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -13134,12 +12928,12 @@
       <c r="G125" s="7"/>
       <c r="H125" s="8"/>
       <c r="I125" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>67</v>
@@ -13150,15 +12944,15 @@
       <c r="G126" s="7"/>
       <c r="H126" s="8"/>
       <c r="I126" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -13166,19 +12960,19 @@
         <v>0</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D128" s="8">
         <v>1</v>
@@ -13188,11 +12982,11 @@
         <v>0</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.15">
@@ -13259,7 +13053,7 @@
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -13288,10 +13082,10 @@
         <v>48</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -13314,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>1</v>
@@ -13340,7 +13134,7 @@
         <v>6</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
@@ -13391,7 +13185,7 @@
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B142" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>17</v>
@@ -13402,34 +13196,34 @@
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="5" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B143" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B144" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>17</v>
@@ -13438,16 +13232,16 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B145" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>17</v>
@@ -13456,18 +13250,18 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B146" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>17</v>
@@ -13476,37 +13270,37 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B147" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="7" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B148" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -13516,12 +13310,12 @@
         <v>18</v>
       </c>
       <c r="I148" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B149" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>67</v>
@@ -13532,15 +13326,15 @@
       <c r="G149" s="7"/>
       <c r="H149" s="8"/>
       <c r="I149" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B150" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -13550,15 +13344,15 @@
       <c r="G150" s="7"/>
       <c r="H150" s="8"/>
       <c r="I150" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B151" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -13568,7 +13362,7 @@
         <v>18</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.15">
@@ -13625,7 +13419,7 @@
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
@@ -13638,10 +13432,10 @@
         <v>47</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -13654,13 +13448,13 @@
         <v>48</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>

--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="463">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1045,10 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>like_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,10 +1053,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1074,10 +1066,6 @@
   </si>
   <si>
     <t>package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1562,10 +1550,6 @@
     <rPh sb="13" eb="15">
       <t>ふか</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_reviews</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2348,8 +2332,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2648,15 +2632,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2670,6 +2645,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2996,17 +2980,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I149"/>
+  <dimension ref="B2:I115"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView showGridLines="0" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="3" width="13.375" style="3" bestFit="1" customWidth="1"/>
@@ -3019,12 +3003,12 @@
     <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>166</v>
@@ -3045,35 +3029,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3099,7 +3083,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
         <v>150</v>
       </c>
@@ -3112,14 +3096,14 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="7" t="s">
         <v>71</v>
       </c>
@@ -3137,9 +3121,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="B8" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
@@ -3152,10 +3136,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="7" t="s">
         <v>119</v>
       </c>
@@ -3171,7 +3155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -3181,7 +3165,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -3191,19 +3175,19 @@
       <c r="H11" s="10"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:9">
+      <c r="B12" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -3229,7 +3213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
@@ -3243,13 +3227,13 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -3257,13 +3241,13 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -3271,7 +3255,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3281,12 +3265,12 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>166</v>
@@ -3307,35 +3291,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9">
       <c r="B20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:9">
+      <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -3361,7 +3345,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="5" t="s">
         <v>150</v>
       </c>
@@ -3374,14 +3358,14 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="7" t="s">
         <v>71</v>
       </c>
@@ -3396,12 +3380,12 @@
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>173</v>
@@ -3417,7 +3401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9">
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
@@ -3433,7 +3417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -3443,7 +3427,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -3453,19 +3437,19 @@
       <c r="H28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="12" t="s">
+    <row r="29" spans="2:9">
+      <c r="B29" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="11" t="s">
         <v>26</v>
       </c>
@@ -3491,7 +3475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9">
       <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
@@ -3505,7 +3489,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9">
       <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
@@ -3521,7 +3505,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -3531,7 +3515,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3557,35 +3541,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9">
       <c r="B36" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="17" t="s">
+    <row r="37" spans="2:9">
+      <c r="B37" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="4" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3595,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9">
       <c r="B39" s="5" t="s">
         <v>156</v>
       </c>
@@ -3624,14 +3608,14 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9">
       <c r="B40" s="7" t="s">
         <v>71</v>
       </c>
@@ -3649,9 +3633,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9">
       <c r="B41" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>43</v>
@@ -3665,7 +3649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9">
       <c r="B42" s="7" t="s">
         <v>42</v>
       </c>
@@ -3683,7 +3667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9">
       <c r="B43" s="7" t="s">
         <v>120</v>
       </c>
@@ -3701,7 +3685,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
@@ -3711,19 +3695,19 @@
       <c r="H44" s="8"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="12" t="s">
+    <row r="45" spans="2:9">
+      <c r="B45" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" s="11" t="s">
         <v>26</v>
       </c>
@@ -3749,7 +3733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9">
       <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
@@ -3763,7 +3747,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9">
       <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
@@ -3779,13 +3763,13 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9">
       <c r="B49" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -3793,7 +3777,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -3803,7 +3787,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -3829,35 +3813,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9">
       <c r="B53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="17" t="s">
+    <row r="54" spans="2:9">
+      <c r="B54" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" s="4" t="s">
         <v>9</v>
       </c>
@@ -3883,7 +3867,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9">
       <c r="B56" s="5" t="s">
         <v>156</v>
       </c>
@@ -3894,14 +3878,14 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
         <v>71</v>
       </c>
@@ -3915,7 +3899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -3925,7 +3909,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -3935,19 +3919,19 @@
       <c r="H59" s="8"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="12" t="s">
+    <row r="60" spans="2:9">
+      <c r="B60" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="14"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" s="11" t="s">
         <v>26</v>
       </c>
@@ -3973,7 +3957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9">
       <c r="B62" s="5" t="s">
         <v>45</v>
       </c>
@@ -3987,7 +3971,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -3997,7 +3981,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -4007,7 +3991,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9">
       <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
@@ -4033,35 +4017,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9">
       <c r="B67" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="17" t="s">
+    <row r="68" spans="2:9">
+      <c r="B68" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" s="4" t="s">
         <v>9</v>
       </c>
@@ -4087,12 +4071,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9">
       <c r="B70" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
@@ -4105,12 +4089,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -4118,15 +4102,15 @@
       <c r="G71" s="7"/>
       <c r="H71" s="8"/>
       <c r="I71" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -4137,12 +4121,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9">
       <c r="B73" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -4153,12 +4137,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9">
       <c r="B74" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D74" s="8">
         <v>200</v>
@@ -4171,12 +4155,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9">
       <c r="B75" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4187,7 +4171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9">
       <c r="B76" s="7" t="s">
         <v>38</v>
       </c>
@@ -4205,7 +4189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9">
       <c r="B77" s="7" t="s">
         <v>39</v>
       </c>
@@ -4221,7 +4205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9">
       <c r="B78" s="7" t="s">
         <v>153</v>
       </c>
@@ -4241,7 +4225,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9">
       <c r="B79" s="7" t="s">
         <v>141</v>
       </c>
@@ -4259,7 +4243,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9">
       <c r="B80" s="7" t="s">
         <v>142</v>
       </c>
@@ -4277,7 +4261,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:9">
       <c r="B81" s="7" t="s">
         <v>143</v>
       </c>
@@ -4295,7 +4279,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:9">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="8"/>
@@ -4305,7 +4289,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:9">
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
@@ -4315,7 +4299,7 @@
       <c r="H83" s="8"/>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:9">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
@@ -4325,7 +4309,7 @@
       <c r="H84" s="8"/>
       <c r="I84" s="7"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:9">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -4335,7 +4319,7 @@
       <c r="H85" s="8"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:9">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -4345,19 +4329,19 @@
       <c r="H86" s="8"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="12" t="s">
+    <row r="87" spans="2:9">
+      <c r="B87" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="14"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="19"/>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" s="11" t="s">
         <v>26</v>
       </c>
@@ -4383,7 +4367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:9">
       <c r="B89" s="5" t="s">
         <v>45</v>
       </c>
@@ -4397,7 +4381,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:9">
       <c r="B90" s="7" t="s">
         <v>47</v>
       </c>
@@ -4413,15 +4397,15 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:9">
       <c r="B91" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -4429,7 +4413,7 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:9">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -4439,12 +4423,12 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:9">
       <c r="B94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -4465,35 +4449,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:9">
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
       <c r="H95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="17" t="s">
+    <row r="96" spans="2:9">
+      <c r="B96" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="19"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" s="4" t="s">
         <v>9</v>
       </c>
@@ -4519,7 +4503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:9">
       <c r="B98" s="5" t="s">
         <v>150</v>
       </c>
@@ -4532,14 +4516,14 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" s="7" t="s">
         <v>62</v>
       </c>
@@ -4555,7 +4539,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:9">
       <c r="B100" s="7" t="s">
         <v>20</v>
       </c>
@@ -4573,7 +4557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:9">
       <c r="B101" s="7" t="s">
         <v>38</v>
       </c>
@@ -4593,7 +4577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:9">
       <c r="B102" s="7" t="s">
         <v>16</v>
       </c>
@@ -4611,7 +4595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:9">
       <c r="B103" s="7" t="s">
         <v>50</v>
       </c>
@@ -4629,9 +4613,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:9">
       <c r="B104" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>68</v>
@@ -4647,12 +4631,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:9">
       <c r="B105" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4663,7 +4647,7 @@
       </c>
       <c r="I105" s="7"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:9">
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="8"/>
@@ -4673,7 +4657,7 @@
       <c r="H106" s="8"/>
       <c r="I106" s="7"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:9">
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="8"/>
@@ -4683,7 +4667,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="7"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:9">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="8"/>
@@ -4693,7 +4677,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="7"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:9">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="8"/>
@@ -4703,19 +4687,19 @@
       <c r="H109" s="8"/>
       <c r="I109" s="7"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="12" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="14"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="2:9">
       <c r="B111" s="11" t="s">
         <v>26</v>
       </c>
@@ -4741,7 +4725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:9">
       <c r="B112" s="5" t="s">
         <v>45</v>
       </c>
@@ -4755,13 +4739,13 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:9">
       <c r="B113" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -4769,7 +4753,7 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:9">
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -4779,7 +4763,7 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:9">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -4789,558 +4773,14 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I117" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B118" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B119" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="19"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B121" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B122" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B125" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H125" s="8"/>
-      <c r="I125" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B126" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H126" s="8"/>
-      <c r="I126" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B127" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H127" s="8"/>
-      <c r="I127" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B128" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H128" s="8"/>
-      <c r="I128" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B129" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H129" s="8"/>
-      <c r="I129" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B130" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H130" s="8"/>
-      <c r="I130" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B131" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H131" s="8"/>
-      <c r="I131" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B132" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H132" s="8"/>
-      <c r="I132" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B133" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H133" s="8"/>
-      <c r="I133" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B134" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B135" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B136" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8">
-        <v>0</v>
-      </c>
-      <c r="G136" s="7"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B137" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B138" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8">
-        <v>0</v>
-      </c>
-      <c r="G138" s="7"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="7"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="7"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="7"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="7"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B143" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="14"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B144" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I144" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B145" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B146" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B147" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B148" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="B119:I119"/>
-    <mergeCell ref="B143:I143"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="B110:I110"/>
+  <mergeCells count="18">
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
     <mergeCell ref="B60:I60"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="B68:I68"/>
@@ -5350,22 +4790,19 @@
     <mergeCell ref="B45:I45"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="B110:I110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G59 G70:G86 G39:G44 G98:G109 G6:G11 G23:G28 G121:G142">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G59 G23:G28 G6:G11 G98:G109 G39:G44 G70:G86">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89:B92 B31:B33 B14:B17 B62:B64 B47:B50 B112:B115 B145:B149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89:B92 B112:B115 B47:B50 B62:B64 B14:B17 B31:B33">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52 G19 G2 G35 G66 G94 G117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52 G94 G66 G35 G2 G19">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5375,17 +4812,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="3" width="13.375" style="3" bestFit="1" customWidth="1"/>
@@ -5398,12 +4835,12 @@
     <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -5424,35 +4861,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5478,7 +4915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
         <v>161</v>
       </c>
@@ -5491,14 +4928,14 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="7" t="s">
         <v>134</v>
       </c>
@@ -5514,7 +4951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="B8" s="7" t="s">
         <v>126</v>
       </c>
@@ -5530,7 +4967,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9">
       <c r="B9" s="7" t="s">
         <v>201</v>
       </c>
@@ -5546,25 +4983,25 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="B10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="7" t="s">
         <v>203</v>
       </c>
@@ -5575,14 +5012,14 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12" s="7" t="s">
         <v>204</v>
       </c>
@@ -5593,14 +5030,14 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="B13" s="7" t="s">
         <v>207</v>
       </c>
@@ -5611,16 +5048,16 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>131</v>
@@ -5629,16 +5066,16 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>131</v>
@@ -5647,16 +5084,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>131</v>
@@ -5665,16 +5102,16 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>131</v>
@@ -5683,14 +5120,14 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="7" t="s">
         <v>209</v>
       </c>
@@ -5701,16 +5138,16 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9">
       <c r="B19" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>211</v>
@@ -5721,12 +5158,12 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>211</v>
@@ -5737,15 +5174,15 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
       <c r="I20" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -5753,19 +5190,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9">
       <c r="B22" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -5773,15 +5210,15 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -5789,19 +5226,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -5809,10 +5246,10 @@
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -5822,7 +5259,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
@@ -5832,7 +5269,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -5842,19 +5279,19 @@
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9">
+      <c r="B28" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="11" t="s">
         <v>26</v>
       </c>
@@ -5880,7 +5317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9">
       <c r="B30" s="5" t="s">
         <v>45</v>
       </c>
@@ -5894,15 +5331,15 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9">
       <c r="B31" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -5910,7 +5347,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9">
       <c r="B32" s="7" t="s">
         <v>47</v>
       </c>
@@ -5918,7 +5355,7 @@
         <v>206</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -5926,12 +5363,12 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9">
       <c r="B33" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>201</v>
@@ -5942,7 +5379,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -5952,12 +5389,12 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -5978,35 +5415,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="C37" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
+    <row r="38" spans="2:9">
+      <c r="B38" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
@@ -6032,9 +5469,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9">
       <c r="B40" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>186</v>
@@ -6043,16 +5480,16 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>186</v>
@@ -6061,16 +5498,16 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>164</v>
@@ -6081,15 +5518,15 @@
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -6099,14 +5536,14 @@
         <v>0</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
@@ -6116,7 +5553,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -6126,19 +5563,19 @@
       <c r="H45" s="8"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9">
+      <c r="B46" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" s="11" t="s">
         <v>26</v>
       </c>
@@ -6164,31 +5601,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9">
       <c r="B48" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9">
       <c r="B49" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -6196,7 +5633,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -6206,7 +5643,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -6216,12 +5653,12 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9">
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
@@ -6242,35 +5679,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9">
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="C54" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="17" t="s">
+    <row r="55" spans="2:9">
+      <c r="B55" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
@@ -6296,7 +5733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9">
       <c r="B57" s="5" t="s">
         <v>150</v>
       </c>
@@ -6309,14 +5746,14 @@
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" s="7" t="s">
         <v>88</v>
       </c>
@@ -6327,14 +5764,14 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" s="7" t="s">
         <v>62</v>
       </c>
@@ -6345,18 +5782,18 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>64</v>
@@ -6365,21 +5802,21 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -6389,12 +5826,12 @@
         <v>18</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>67</v>
@@ -6405,12 +5842,12 @@
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>64</v>
@@ -6423,15 +5860,15 @@
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -6441,10 +5878,10 @@
         <v>18</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
@@ -6454,19 +5891,19 @@
       <c r="H65" s="10"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="12" t="s">
+    <row r="66" spans="2:9">
+      <c r="B66" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" s="11" t="s">
         <v>26</v>
       </c>
@@ -6492,7 +5929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9">
       <c r="B68" s="5" t="s">
         <v>34</v>
       </c>
@@ -6506,7 +5943,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9">
       <c r="B69" s="7" t="s">
         <v>47</v>
       </c>
@@ -6522,7 +5959,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9">
       <c r="B70" s="7" t="s">
         <v>48</v>
       </c>
@@ -6538,7 +5975,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -6578,17 +6015,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:I182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="3" bestFit="1" customWidth="1"/>
@@ -6602,7 +6039,7 @@
     <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6628,35 +6065,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6682,7 +6119,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
         <v>150</v>
       </c>
@@ -6697,10 +6134,10 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="7" t="s">
         <v>71</v>
       </c>
@@ -6718,7 +6155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="B8" s="7" t="s">
         <v>63</v>
       </c>
@@ -6731,14 +6168,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9">
       <c r="B9" s="7" t="s">
         <v>77</v>
       </c>
@@ -6758,7 +6195,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="B10" s="7" t="s">
         <v>80</v>
       </c>
@@ -6776,7 +6213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="7" t="s">
         <v>175</v>
       </c>
@@ -6794,7 +6231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12" s="7" t="s">
         <v>163</v>
       </c>
@@ -6812,9 +6249,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="B13" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>64</v>
@@ -6829,12 +6266,12 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>21</v>
@@ -6849,10 +6286,10 @@
         <v>18</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -6862,19 +6299,19 @@
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="11" t="s">
         <v>26</v>
       </c>
@@ -6900,7 +6337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9">
       <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
@@ -6914,7 +6351,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9">
       <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
@@ -6930,7 +6367,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6940,7 +6377,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -6950,12 +6387,12 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -6976,35 +6413,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9">
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="C24" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="2:9">
+      <c r="B25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
@@ -7030,12 +6467,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9">
       <c r="B27" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D27" s="8">
         <v>256</v>
@@ -7045,15 +6482,15 @@
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
       <c r="I27" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D28" s="8">
         <v>50</v>
@@ -7063,15 +6500,15 @@
       <c r="G28" s="7"/>
       <c r="H28" s="8"/>
       <c r="I28" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -7079,10 +6516,10 @@
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -7092,7 +6529,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -7102,19 +6539,19 @@
       <c r="H31" s="10"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="12" t="s">
+    <row r="32" spans="2:9">
+      <c r="B32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="11" t="s">
         <v>26</v>
       </c>
@@ -7140,13 +6577,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9">
       <c r="B34" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -7154,7 +6591,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -7164,7 +6601,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -7174,12 +6611,12 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>166</v>
@@ -7200,35 +6637,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="C39" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="17" t="s">
+    <row r="40" spans="2:9">
+      <c r="B40" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="4" t="s">
         <v>9</v>
       </c>
@@ -7254,7 +6691,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9">
       <c r="B42" s="5" t="s">
         <v>59</v>
       </c>
@@ -7265,19 +6702,19 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D43" s="8">
         <v>200</v>
@@ -7287,15 +6724,15 @@
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D44" s="8">
         <v>50</v>
@@ -7304,36 +6741,36 @@
       <c r="F44" s="8"/>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D46" s="8">
         <v>100</v>
@@ -7343,10 +6780,10 @@
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
@@ -7356,7 +6793,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -7366,19 +6803,19 @@
       <c r="H48" s="10"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="12" t="s">
+    <row r="49" spans="2:9">
+      <c r="B49" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" s="11" t="s">
         <v>26</v>
       </c>
@@ -7404,13 +6841,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9">
       <c r="B51" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -7418,15 +6855,15 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9">
       <c r="B52" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -7434,7 +6871,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -7444,7 +6881,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -7454,12 +6891,12 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9">
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>166</v>
@@ -7480,35 +6917,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9">
       <c r="B57" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="17" t="s">
+    <row r="58" spans="2:9">
+      <c r="B58" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16"/>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" s="4" t="s">
         <v>9</v>
       </c>
@@ -7534,7 +6971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9">
       <c r="B60" s="5" t="s">
         <v>177</v>
       </c>
@@ -7552,7 +6989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9">
       <c r="B61" s="7" t="s">
         <v>73</v>
       </c>
@@ -7570,7 +7007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9">
       <c r="B62" s="7" t="s">
         <v>74</v>
       </c>
@@ -7588,7 +7025,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9">
       <c r="B63" s="7" t="s">
         <v>59</v>
       </c>
@@ -7604,7 +7041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -7614,7 +7051,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
@@ -7624,19 +7061,19 @@
       <c r="H65" s="10"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="12" t="s">
+    <row r="66" spans="2:9">
+      <c r="B66" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" s="11" t="s">
         <v>26</v>
       </c>
@@ -7662,7 +7099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9">
       <c r="B68" s="5" t="s">
         <v>46</v>
       </c>
@@ -7676,7 +7113,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9">
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -7686,7 +7123,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -7696,12 +7133,12 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9">
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>166</v>
@@ -7722,35 +7159,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9">
       <c r="B73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+      <c r="C73" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="17" t="s">
+    <row r="74" spans="2:9">
+      <c r="B74" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" s="4" t="s">
         <v>9</v>
       </c>
@@ -7776,7 +7213,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9">
       <c r="B76" s="5" t="s">
         <v>59</v>
       </c>
@@ -7787,19 +7224,19 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9">
       <c r="B77" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -7807,16 +7244,16 @@
         <v>0</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>43</v>
@@ -7825,14 +7262,14 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79" s="7" t="s">
         <v>180</v>
       </c>
@@ -7849,12 +7286,12 @@
       <c r="G79" s="7"/>
       <c r="H79" s="8"/>
       <c r="I79" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="7" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B80" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>64</v>
@@ -7869,10 +7306,10 @@
       <c r="G80" s="7"/>
       <c r="H80" s="8"/>
       <c r="I80" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="8"/>
@@ -7882,7 +7319,7 @@
       <c r="H81" s="8"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:9">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -7892,19 +7329,19 @@
       <c r="H82" s="10"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="12" t="s">
+    <row r="83" spans="2:9">
+      <c r="B83" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="14"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="19"/>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" s="11" t="s">
         <v>26</v>
       </c>
@@ -7930,7 +7367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:9">
       <c r="B85" s="5" t="s">
         <v>46</v>
       </c>
@@ -7939,22 +7376,22 @@
         <v>59</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:9">
       <c r="B86" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -7962,7 +7399,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:9">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -7972,7 +7409,7 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:9">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -7982,12 +7419,12 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="90" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:9" ht="12.95" customHeight="1">
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>166</v>
@@ -8008,35 +7445,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:9">
       <c r="B91" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="17" t="s">
+    <row r="92" spans="2:9">
+      <c r="B92" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="19"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="16"/>
+    </row>
+    <row r="93" spans="2:9">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -8062,7 +7499,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:9">
       <c r="B94" s="5" t="s">
         <v>59</v>
       </c>
@@ -8078,7 +7515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:9">
       <c r="B95" s="7" t="s">
         <v>179</v>
       </c>
@@ -8094,7 +7531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:9">
       <c r="B96" s="7" t="s">
         <v>180</v>
       </c>
@@ -8111,15 +7548,15 @@
       <c r="G96" s="7"/>
       <c r="H96" s="8"/>
       <c r="I96" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8">
         <v>1</v>
@@ -8131,10 +7568,10 @@
       <c r="G97" s="7"/>
       <c r="H97" s="8"/>
       <c r="I97" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="10"/>
@@ -8144,19 +7581,19 @@
       <c r="H98" s="10"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="12" t="s">
+    <row r="99" spans="2:9">
+      <c r="B99" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="19"/>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" s="11" t="s">
         <v>26</v>
       </c>
@@ -8182,7 +7619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:9">
       <c r="B101" s="5" t="s">
         <v>46</v>
       </c>
@@ -8198,7 +7635,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:9">
       <c r="B102" s="7" t="s">
         <v>47</v>
       </c>
@@ -8209,14 +7646,14 @@
         <v>179</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:9">
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -8226,7 +7663,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:9">
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -8236,12 +7673,12 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="106" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:9" ht="12.95" customHeight="1">
       <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>166</v>
@@ -8262,35 +7699,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:9">
       <c r="B107" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
       <c r="H107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="17" t="s">
+    <row r="108" spans="2:9">
+      <c r="B108" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="16"/>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" s="4" t="s">
         <v>9</v>
       </c>
@@ -8316,7 +7753,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:9">
       <c r="B110" s="5" t="s">
         <v>185</v>
       </c>
@@ -8332,9 +7769,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:9">
       <c r="B111" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>186</v>
@@ -8345,12 +7782,12 @@
       <c r="G111" s="7"/>
       <c r="H111" s="8"/>
       <c r="I111" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
       <c r="B112" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>127</v>
@@ -8363,12 +7800,12 @@
       <c r="G112" s="7"/>
       <c r="H112" s="8"/>
       <c r="I112" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
       <c r="B113" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>128</v>
@@ -8381,10 +7818,10 @@
       <c r="G113" s="7"/>
       <c r="H113" s="8"/>
       <c r="I113" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="10"/>
@@ -8394,19 +7831,19 @@
       <c r="H114" s="10"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="12" t="s">
+    <row r="115" spans="2:9">
+      <c r="B115" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="14"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="19"/>
+    </row>
+    <row r="116" spans="2:9">
       <c r="B116" s="11" t="s">
         <v>26</v>
       </c>
@@ -8432,7 +7869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:9">
       <c r="B117" s="5" t="s">
         <v>189</v>
       </c>
@@ -8441,14 +7878,14 @@
         <v>185</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:9">
       <c r="B118" s="7" t="s">
         <v>47</v>
       </c>
@@ -8456,7 +7893,7 @@
         <v>129</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
@@ -8464,7 +7901,7 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:9">
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -8474,7 +7911,7 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:9">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -8484,7 +7921,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="122" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:9" ht="12.95" customHeight="1">
       <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
@@ -8510,35 +7947,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:9">
       <c r="B123" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
       <c r="H123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="17" t="s">
+    <row r="124" spans="2:9">
+      <c r="B124" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="19"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="16"/>
+    </row>
+    <row r="125" spans="2:9">
       <c r="B125" s="4" t="s">
         <v>9</v>
       </c>
@@ -8564,7 +8001,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:9">
       <c r="B126" s="5" t="s">
         <v>185</v>
       </c>
@@ -8580,9 +8017,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:9">
       <c r="B127" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>186</v>
@@ -8596,7 +8033,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:9">
       <c r="B128" s="7" t="s">
         <v>130</v>
       </c>
@@ -8614,7 +8051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:9">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="10"/>
@@ -8624,19 +8061,19 @@
       <c r="H129" s="10"/>
       <c r="I129" s="9"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B130" s="12" t="s">
+    <row r="130" spans="2:9">
+      <c r="B130" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="14"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="19"/>
+    </row>
+    <row r="131" spans="2:9">
       <c r="B131" s="11" t="s">
         <v>26</v>
       </c>
@@ -8662,7 +8099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:9">
       <c r="B132" s="5" t="s">
         <v>189</v>
       </c>
@@ -8671,30 +8108,30 @@
         <v>185</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:9">
       <c r="B133" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:9">
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -8704,7 +8141,7 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:9">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -8714,7 +8151,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:9">
       <c r="B137" s="1" t="s">
         <v>0</v>
       </c>
@@ -8740,35 +8177,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:9">
       <c r="B138" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
       <c r="H138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B139" s="17" t="s">
+    <row r="139" spans="2:9">
+      <c r="B139" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="19"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="16"/>
+    </row>
+    <row r="140" spans="2:9">
       <c r="B140" s="4" t="s">
         <v>9</v>
       </c>
@@ -8794,7 +8231,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:9">
       <c r="B141" s="5" t="s">
         <v>195</v>
       </c>
@@ -8810,7 +8247,7 @@
       <c r="H141" s="6"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:9">
       <c r="B142" s="7" t="s">
         <v>185</v>
       </c>
@@ -8826,7 +8263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:9">
       <c r="B143" s="7" t="s">
         <v>197</v>
       </c>
@@ -8842,7 +8279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:9">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="8"/>
@@ -8852,7 +8289,7 @@
       <c r="H144" s="8"/>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:9">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="8"/>
@@ -8862,7 +8299,7 @@
       <c r="H145" s="8"/>
       <c r="I145" s="7"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:9">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="8"/>
@@ -8872,7 +8309,7 @@
       <c r="H146" s="8"/>
       <c r="I146" s="7"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:9">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
@@ -8882,7 +8319,7 @@
       <c r="H147" s="8"/>
       <c r="I147" s="7"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:9">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
@@ -8892,7 +8329,7 @@
       <c r="H148" s="8"/>
       <c r="I148" s="7"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:9">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
@@ -8902,7 +8339,7 @@
       <c r="H149" s="8"/>
       <c r="I149" s="7"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:9">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="10"/>
@@ -8912,19 +8349,19 @@
       <c r="H150" s="10"/>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B151" s="12" t="s">
+    <row r="151" spans="2:9">
+      <c r="B151" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
-      <c r="I151" s="14"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="19"/>
+    </row>
+    <row r="152" spans="2:9">
       <c r="B152" s="11" t="s">
         <v>26</v>
       </c>
@@ -8950,7 +8387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:9">
       <c r="B153" s="5" t="s">
         <v>189</v>
       </c>
@@ -8964,7 +8401,7 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:9">
       <c r="B154" s="7" t="s">
         <v>47</v>
       </c>
@@ -8980,7 +8417,7 @@
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:9">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -8990,7 +8427,7 @@
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:9">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -9000,7 +8437,7 @@
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:9">
       <c r="B157" s="20" t="s">
         <v>200</v>
       </c>
@@ -9012,7 +8449,7 @@
       <c r="H157" s="21"/>
       <c r="I157" s="22"/>
     </row>
-    <row r="158" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:9" ht="47.25" customHeight="1">
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -9022,12 +8459,12 @@
       <c r="H158" s="23"/>
       <c r="I158" s="23"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:9">
       <c r="B160" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>1</v>
@@ -9048,35 +8485,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:9">
       <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
+      <c r="C161" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
       <c r="H161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B162" s="17" t="s">
+    <row r="162" spans="2:9">
+      <c r="B162" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="19"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="16"/>
+    </row>
+    <row r="163" spans="2:9">
       <c r="B163" s="4" t="s">
         <v>9</v>
       </c>
@@ -9102,7 +8539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:9">
       <c r="B164" s="5" t="s">
         <v>150</v>
       </c>
@@ -9113,35 +8550,35 @@
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H164" s="6"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:9">
       <c r="B165" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H165" s="8"/>
       <c r="I165" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9">
+      <c r="B166" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C166" s="7" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B166" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
@@ -9150,28 +8587,28 @@
       <c r="H166" s="8"/>
       <c r="I166" s="7"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:9">
       <c r="B167" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H167" s="8"/>
       <c r="I167" s="7"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:9">
       <c r="B168" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
@@ -9180,7 +8617,7 @@
       <c r="H168" s="8"/>
       <c r="I168" s="7"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:9">
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="8"/>
@@ -9190,7 +8627,7 @@
       <c r="H169" s="8"/>
       <c r="I169" s="7"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:9">
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
@@ -9200,7 +8637,7 @@
       <c r="H170" s="8"/>
       <c r="I170" s="7"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:9">
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="8"/>
@@ -9210,7 +8647,7 @@
       <c r="H171" s="8"/>
       <c r="I171" s="7"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:9">
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="8"/>
@@ -9220,7 +8657,7 @@
       <c r="H172" s="8"/>
       <c r="I172" s="7"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:9">
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="10"/>
@@ -9230,19 +8667,19 @@
       <c r="H173" s="10"/>
       <c r="I173" s="9"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B174" s="12" t="s">
+    <row r="174" spans="2:9">
+      <c r="B174" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="14"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="19"/>
+    </row>
+    <row r="175" spans="2:9">
       <c r="B175" s="11" t="s">
         <v>26</v>
       </c>
@@ -9268,7 +8705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:9">
       <c r="B176" s="5" t="s">
         <v>34</v>
       </c>
@@ -9282,13 +8719,13 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:9">
       <c r="B177" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
@@ -9296,29 +8733,29 @@
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:9">
       <c r="B178" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:9">
       <c r="B179" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
@@ -9326,7 +8763,7 @@
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:9">
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
@@ -9336,7 +8773,7 @@
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:9">
       <c r="B181" s="20" t="s">
         <v>118</v>
       </c>
@@ -9348,7 +8785,7 @@
       <c r="H181" s="21"/>
       <c r="I181" s="22"/>
     </row>
-    <row r="182" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:9" ht="47.25" customHeight="1">
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -9360,6 +8797,27 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="B162:I162"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B182:I182"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="B124:I124"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B32:I32"/>
     <mergeCell ref="B157:I157"/>
     <mergeCell ref="B158:I158"/>
     <mergeCell ref="B83:I83"/>
@@ -9373,27 +8831,6 @@
     <mergeCell ref="B151:I151"/>
     <mergeCell ref="B130:I130"/>
     <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B115:I115"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="B162:I162"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -9413,7 +8850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9423,7 +8860,7 @@
       <selection activeCell="A81" sqref="A81:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="3" bestFit="1" customWidth="1"/>
@@ -9437,12 +8874,12 @@
     <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -9463,35 +8900,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9517,7 +8954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
         <v>150</v>
       </c>
@@ -9535,7 +8972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="7" t="s">
         <v>62</v>
       </c>
@@ -9551,7 +8988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="B8" s="7" t="s">
         <v>71</v>
       </c>
@@ -9569,7 +9006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9">
       <c r="B9" s="7" t="s">
         <v>89</v>
       </c>
@@ -9587,7 +9024,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="B10" s="7" t="s">
         <v>93</v>
       </c>
@@ -9607,7 +9044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="7" t="s">
         <v>96</v>
       </c>
@@ -9623,7 +9060,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12" s="7" t="s">
         <v>97</v>
       </c>
@@ -9639,7 +9076,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="B13" s="7" t="s">
         <v>98</v>
       </c>
@@ -9655,7 +9092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="7" t="s">
         <v>95</v>
       </c>
@@ -9671,7 +9108,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="B15" s="7" t="s">
         <v>110</v>
       </c>
@@ -9687,7 +9124,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" s="7" t="s">
         <v>99</v>
       </c>
@@ -9698,14 +9135,14 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9">
       <c r="B17" s="7" t="s">
         <v>100</v>
       </c>
@@ -9716,32 +9153,32 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9">
       <c r="B18" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -9751,19 +9188,19 @@
       <c r="H19" s="10"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="2:9">
+      <c r="B20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="11" t="s">
         <v>26</v>
       </c>
@@ -9789,7 +9226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9">
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
@@ -9803,7 +9240,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="7" t="s">
         <v>47</v>
       </c>
@@ -9819,7 +9256,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -9829,7 +9266,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -9839,12 +9276,12 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -9865,35 +9302,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9">
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="2:9">
+      <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
@@ -9919,7 +9356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9">
       <c r="B31" s="5" t="s">
         <v>88</v>
       </c>
@@ -9935,7 +9372,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9">
       <c r="B32" s="7" t="s">
         <v>108</v>
       </c>
@@ -9951,7 +9388,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -9961,19 +9398,19 @@
       <c r="H33" s="10"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="12" t="s">
+    <row r="34" spans="2:9">
+      <c r="B34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="11" t="s">
         <v>26</v>
       </c>
@@ -9999,7 +9436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9">
       <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
@@ -10015,7 +9452,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9">
       <c r="B37" s="7" t="s">
         <v>47</v>
       </c>
@@ -10031,7 +9468,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -10041,7 +9478,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -10051,12 +9488,12 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9">
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -10077,35 +9514,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9">
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="17" t="s">
+    <row r="43" spans="2:9">
+      <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" s="4" t="s">
         <v>9</v>
       </c>
@@ -10131,7 +9568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9">
       <c r="B45" s="5" t="s">
         <v>88</v>
       </c>
@@ -10147,7 +9584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9">
       <c r="B46" s="7" t="s">
         <v>113</v>
       </c>
@@ -10158,14 +9595,14 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9">
       <c r="B47" s="7" t="s">
         <v>115</v>
       </c>
@@ -10176,14 +9613,14 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9">
       <c r="B48" s="7" t="s">
         <v>100</v>
       </c>
@@ -10194,14 +9631,14 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -10211,19 +9648,19 @@
       <c r="H49" s="10"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="12" t="s">
+    <row r="50" spans="2:9">
+      <c r="B50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" s="11" t="s">
         <v>26</v>
       </c>
@@ -10249,7 +9686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9">
       <c r="B52" s="5" t="s">
         <v>34</v>
       </c>
@@ -10265,13 +9702,13 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9">
       <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -10279,7 +9716,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -10289,7 +9726,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -10299,7 +9736,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9">
       <c r="B56" s="20" t="s">
         <v>118</v>
       </c>
@@ -10311,7 +9748,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="47.25" customHeight="1">
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -10321,12 +9758,12 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9">
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1</v>
@@ -10347,35 +9784,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9">
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="C60" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
       <c r="H60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="17" t="s">
+    <row r="61" spans="2:9">
+      <c r="B61" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -10401,7 +9838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9">
       <c r="B63" s="5" t="s">
         <v>88</v>
       </c>
@@ -10412,37 +9849,37 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9">
       <c r="B64" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -10450,10 +9887,10 @@
       <c r="G65" s="7"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -10463,7 +9900,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="10"/>
@@ -10473,19 +9910,19 @@
       <c r="H67" s="10"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="12" t="s">
+    <row r="68" spans="2:9">
+      <c r="B68" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="14"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" s="11" t="s">
         <v>26</v>
       </c>
@@ -10511,15 +9948,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9">
       <c r="B70" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -10527,12 +9964,12 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>59</v>
@@ -10543,7 +9980,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -10553,7 +9990,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -10563,7 +10000,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9">
       <c r="B74" s="20" t="s">
         <v>118</v>
       </c>
@@ -10575,7 +10012,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="22"/>
     </row>
-    <row r="75" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" ht="47.25" customHeight="1">
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -10585,12 +10022,12 @@
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9">
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
@@ -10611,35 +10048,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9">
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+      <c r="C78" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="17" t="s">
+    <row r="79" spans="2:9">
+      <c r="B79" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="19"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" s="4" t="s">
         <v>9</v>
       </c>
@@ -10665,7 +10102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:9">
       <c r="B81" s="5" t="s">
         <v>150</v>
       </c>
@@ -10678,16 +10115,16 @@
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>17</v>
@@ -10696,16 +10133,16 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>17</v>
@@ -10714,41 +10151,41 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -10758,12 +10195,12 @@
         <v>18</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>67</v>
@@ -10774,15 +10211,15 @@
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
       <c r="I86" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -10792,15 +10229,15 @@
       <c r="G87" s="7"/>
       <c r="H87" s="8"/>
       <c r="I87" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -10810,10 +10247,10 @@
         <v>18</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="10"/>
@@ -10823,19 +10260,19 @@
       <c r="H89" s="10"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="12" t="s">
+    <row r="90" spans="2:9">
+      <c r="B90" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="14"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="19"/>
+    </row>
+    <row r="91" spans="2:9">
       <c r="B91" s="11" t="s">
         <v>26</v>
       </c>
@@ -10861,7 +10298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:9">
       <c r="B92" s="5" t="s">
         <v>34</v>
       </c>
@@ -10875,15 +10312,15 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:9">
       <c r="B93" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -10891,15 +10328,15 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:9">
       <c r="B94" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -10907,7 +10344,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:9">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -10919,6 +10356,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B90:I90"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:I75"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B20:I20"/>
@@ -10930,14 +10375,6 @@
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:I75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -10957,17 +10394,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:I158"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:XFD158"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="3" bestFit="1" customWidth="1"/>
@@ -10981,12 +10418,12 @@
     <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -11007,35 +10444,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -11061,7 +10498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
         <v>150</v>
       </c>
@@ -11076,15 +10513,15 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -11097,9 +10534,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="B8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>174</v>
@@ -11113,7 +10550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -11123,7 +10560,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -11133,7 +10570,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -11143,19 +10580,19 @@
       <c r="H11" s="10"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:9">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -11181,7 +10618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
@@ -11195,7 +10632,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -11205,7 +10642,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -11215,7 +10652,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -11225,12 +10662,12 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -11251,35 +10688,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:9">
+      <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -11305,9 +10742,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>17</v>
@@ -11318,10 +10755,10 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
@@ -11337,9 +10774,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9">
       <c r="B25" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>67</v>
@@ -11350,10 +10787,10 @@
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
@@ -11363,7 +10800,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -11373,7 +10810,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -11383,19 +10820,19 @@
       <c r="H28" s="10"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="12" t="s">
+    <row r="29" spans="2:9">
+      <c r="B29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="11" t="s">
         <v>26</v>
       </c>
@@ -11421,23 +10858,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9">
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9">
       <c r="B32" s="7" t="s">
         <v>47</v>
       </c>
@@ -11453,7 +10890,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -11463,7 +10900,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -11473,12 +10910,12 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -11499,35 +10936,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="C37" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
+    <row r="38" spans="2:9">
+      <c r="B38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
@@ -11553,9 +10990,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9">
       <c r="B40" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>17</v>
@@ -11566,10 +11003,10 @@
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
       <c r="I40" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
@@ -11585,12 +11022,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9">
       <c r="B42" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -11598,10 +11035,10 @@
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
@@ -11611,7 +11048,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9">
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -11621,19 +11058,19 @@
       <c r="H44" s="10"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="12" t="s">
+    <row r="45" spans="2:9">
+      <c r="B45" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" s="11" t="s">
         <v>26</v>
       </c>
@@ -11659,23 +11096,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9">
       <c r="B47" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9">
       <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
@@ -11691,7 +11128,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -11701,7 +11138,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -11711,12 +11148,12 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
@@ -11737,35 +11174,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9">
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="C53" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="17" t="s">
+    <row r="54" spans="2:9">
+      <c r="B54" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" s="4" t="s">
         <v>9</v>
       </c>
@@ -11791,7 +11228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9">
       <c r="B56" s="5" t="s">
         <v>150</v>
       </c>
@@ -11804,16 +11241,16 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>17</v>
@@ -11822,14 +11259,14 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" s="7" t="s">
         <v>59</v>
       </c>
@@ -11840,16 +11277,16 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9">
       <c r="B59" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>21</v>
@@ -11862,15 +11299,15 @@
       <c r="G59" s="7"/>
       <c r="H59" s="8"/>
       <c r="I59" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -11878,12 +11315,12 @@
       <c r="G60" s="7"/>
       <c r="H60" s="8"/>
       <c r="I60" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>67</v>
@@ -11894,15 +11331,15 @@
       <c r="G61" s="7"/>
       <c r="H61" s="8"/>
       <c r="I61" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -11910,15 +11347,15 @@
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -11926,12 +11363,12 @@
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>174</v>
@@ -11942,17 +11379,17 @@
         <v>0</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9">
       <c r="B65" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
@@ -11962,14 +11399,14 @@
         <v>0</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
@@ -11979,19 +11416,19 @@
       <c r="H66" s="10"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="12" t="s">
+    <row r="67" spans="2:9">
+      <c r="B67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="14"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" s="11" t="s">
         <v>26</v>
       </c>
@@ -12017,13 +11454,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9">
       <c r="B69" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -12031,7 +11468,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9">
       <c r="B70" s="7" t="s">
         <v>47</v>
       </c>
@@ -12047,15 +11484,15 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9">
       <c r="B71" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -12063,7 +11500,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -12073,7 +11510,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -12083,12 +11520,12 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9">
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1</v>
@@ -12109,35 +11546,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9">
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
+      <c r="C76" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="17" t="s">
+    <row r="77" spans="2:9">
+      <c r="B77" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" s="4" t="s">
         <v>9</v>
       </c>
@@ -12163,7 +11600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9">
       <c r="B79" s="5" t="s">
         <v>150</v>
       </c>
@@ -12176,16 +11613,16 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>17</v>
@@ -12194,14 +11631,14 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" s="7" t="s">
         <v>59</v>
       </c>
@@ -12212,19 +11649,19 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:9">
       <c r="B82" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -12232,12 +11669,12 @@
       <c r="G82" s="7"/>
       <c r="H82" s="8"/>
       <c r="I82" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>67</v>
@@ -12248,12 +11685,12 @@
       <c r="G83" s="7"/>
       <c r="H83" s="8"/>
       <c r="I83" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>174</v>
@@ -12264,19 +11701,19 @@
         <v>0</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D85" s="8">
         <v>1</v>
@@ -12286,14 +11723,14 @@
         <v>0</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -12303,7 +11740,7 @@
       <c r="H86" s="8"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:9">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="10"/>
@@ -12313,19 +11750,19 @@
       <c r="H87" s="10"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="12" t="s">
+    <row r="88" spans="2:9">
+      <c r="B88" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="14"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="19"/>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" s="11" t="s">
         <v>26</v>
       </c>
@@ -12351,7 +11788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:9">
       <c r="B90" s="5" t="s">
         <v>34</v>
       </c>
@@ -12365,7 +11802,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:9">
       <c r="B91" s="7" t="s">
         <v>47</v>
       </c>
@@ -12381,15 +11818,15 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:9">
       <c r="B92" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -12397,7 +11834,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:9">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -12407,12 +11844,12 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:9">
       <c r="B95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
@@ -12433,35 +11870,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:9">
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
+      <c r="C96" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
       <c r="H96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="17" t="s">
+    <row r="97" spans="2:9">
+      <c r="B97" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="19"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" s="4" t="s">
         <v>9</v>
       </c>
@@ -12487,7 +11924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:9">
       <c r="B99" s="5" t="s">
         <v>150</v>
       </c>
@@ -12500,16 +11937,16 @@
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>17</v>
@@ -12518,14 +11955,14 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" s="7" t="s">
         <v>59</v>
       </c>
@@ -12536,16 +11973,16 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:9">
       <c r="B102" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>21</v>
@@ -12558,15 +11995,15 @@
       <c r="G102" s="7"/>
       <c r="H102" s="8"/>
       <c r="I102" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -12574,12 +12011,12 @@
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
       <c r="I103" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>67</v>
@@ -12590,15 +12027,15 @@
       <c r="G104" s="7"/>
       <c r="H104" s="8"/>
       <c r="I104" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -12606,15 +12043,15 @@
       <c r="G105" s="7"/>
       <c r="H105" s="8"/>
       <c r="I105" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -12622,12 +12059,12 @@
       <c r="G106" s="7"/>
       <c r="H106" s="8"/>
       <c r="I106" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>174</v>
@@ -12638,17 +12075,17 @@
         <v>0</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="7"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:9">
       <c r="B108" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D108" s="8">
         <v>1</v>
@@ -12658,14 +12095,14 @@
         <v>0</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="10"/>
@@ -12675,19 +12112,19 @@
       <c r="H109" s="10"/>
       <c r="I109" s="9"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="12" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="14"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="2:9">
       <c r="B111" s="11" t="s">
         <v>26</v>
       </c>
@@ -12713,13 +12150,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:9">
       <c r="B112" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -12727,7 +12164,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:9">
       <c r="B113" s="7" t="s">
         <v>47</v>
       </c>
@@ -12743,15 +12180,15 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:9">
       <c r="B114" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -12759,7 +12196,7 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:9">
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -12769,7 +12206,7 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:9">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -12779,12 +12216,12 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:9">
       <c r="B118" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
@@ -12805,35 +12242,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:9">
       <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
+      <c r="C119" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
       <c r="H119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="17" t="s">
+    <row r="120" spans="2:9">
+      <c r="B120" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="2:9">
       <c r="B121" s="4" t="s">
         <v>9</v>
       </c>
@@ -12859,7 +12296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:9">
       <c r="B122" s="5" t="s">
         <v>150</v>
       </c>
@@ -12872,16 +12309,16 @@
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
       <c r="B123" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>17</v>
@@ -12890,14 +12327,14 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
       <c r="B124" s="7" t="s">
         <v>59</v>
       </c>
@@ -12908,19 +12345,19 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:9">
       <c r="B125" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -12928,12 +12365,12 @@
       <c r="G125" s="7"/>
       <c r="H125" s="8"/>
       <c r="I125" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
       <c r="B126" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>67</v>
@@ -12944,12 +12381,12 @@
       <c r="G126" s="7"/>
       <c r="H126" s="8"/>
       <c r="I126" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
       <c r="B127" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>174</v>
@@ -12960,19 +12397,19 @@
         <v>0</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9">
       <c r="B128" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D128" s="8">
         <v>1</v>
@@ -12982,14 +12419,14 @@
         <v>0</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="8"/>
@@ -12999,7 +12436,7 @@
       <c r="H129" s="8"/>
       <c r="I129" s="7"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:9">
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="10"/>
@@ -13009,19 +12446,19 @@
       <c r="H130" s="10"/>
       <c r="I130" s="9"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B131" s="12" t="s">
+    <row r="131" spans="2:9">
+      <c r="B131" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="14"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="19"/>
+    </row>
+    <row r="132" spans="2:9">
       <c r="B132" s="11" t="s">
         <v>26</v>
       </c>
@@ -13047,7 +12484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:9">
       <c r="B133" s="5" t="s">
         <v>34</v>
       </c>
@@ -13061,7 +12498,7 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:9">
       <c r="B134" s="7" t="s">
         <v>47</v>
       </c>
@@ -13077,15 +12514,15 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:9">
       <c r="B135" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -13093,7 +12530,7 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:9">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -13103,12 +12540,12 @@
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:9">
       <c r="B138" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>1</v>
@@ -13129,35 +12566,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:9">
       <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
+      <c r="C139" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
       <c r="H139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B140" s="17" t="s">
+    <row r="140" spans="2:9">
+      <c r="B140" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="19"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" spans="2:9">
       <c r="B141" s="4" t="s">
         <v>9</v>
       </c>
@@ -13183,7 +12620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:9">
       <c r="B142" s="5" t="s">
         <v>150</v>
       </c>
@@ -13196,34 +12633,34 @@
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
       <c r="B143" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
       <c r="B144" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>17</v>
@@ -13232,16 +12669,16 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
       <c r="B145" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>17</v>
@@ -13250,18 +12687,18 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
       <c r="B146" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>17</v>
@@ -13270,37 +12707,37 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
       <c r="B147" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
       <c r="B148" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -13310,12 +12747,12 @@
         <v>18</v>
       </c>
       <c r="I148" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
       <c r="B149" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>67</v>
@@ -13326,15 +12763,15 @@
       <c r="G149" s="7"/>
       <c r="H149" s="8"/>
       <c r="I149" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
       <c r="B150" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -13344,15 +12781,15 @@
       <c r="G150" s="7"/>
       <c r="H150" s="8"/>
       <c r="I150" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
       <c r="B151" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -13362,10 +12799,10 @@
         <v>18</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="10"/>
@@ -13375,19 +12812,19 @@
       <c r="H152" s="10"/>
       <c r="I152" s="9"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B153" s="12" t="s">
+    <row r="153" spans="2:9">
+      <c r="B153" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="14"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="19"/>
+    </row>
+    <row r="154" spans="2:9">
       <c r="B154" s="11" t="s">
         <v>26</v>
       </c>
@@ -13413,7 +12850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:9">
       <c r="B155" s="5" t="s">
         <v>34</v>
       </c>
@@ -13427,15 +12864,15 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:9">
       <c r="B156" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -13443,25 +12880,25 @@
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:9">
       <c r="B157" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:9">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -13473,21 +12910,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="B77:I77"/>
     <mergeCell ref="B131:I131"/>
     <mergeCell ref="C139:G139"/>
     <mergeCell ref="B140:I140"/>
@@ -13497,6 +12919,21 @@
     <mergeCell ref="B110:I110"/>
     <mergeCell ref="C119:G119"/>
     <mergeCell ref="B120:I120"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">

--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム" sheetId="1" r:id="rId1"/>
@@ -1069,10 +1069,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acronym</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>company_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2326,14 +2322,18 @@
   </si>
   <si>
     <t>follow_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acronym</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2632,6 +2632,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2645,15 +2654,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2980,17 +2980,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:I115"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="3" width="13.375" style="3" bestFit="1" customWidth="1"/>
@@ -3003,12 +3003,12 @@
     <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>166</v>
@@ -3029,35 +3029,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>150</v>
       </c>
@@ -3096,14 +3096,14 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>71</v>
       </c>
@@ -3121,9 +3121,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
@@ -3136,10 +3136,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>119</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -3165,7 +3165,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -3175,19 +3175,19 @@
       <c r="H11" s="10"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
@@ -3227,13 +3227,13 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -3241,13 +3241,13 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -3255,7 +3255,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3265,12 +3265,12 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>166</v>
@@ -3291,35 +3291,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>150</v>
       </c>
@@ -3358,14 +3358,14 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
         <v>71</v>
       </c>
@@ -3380,12 +3380,12 @@
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>218</v>
+        <v>462</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>173</v>
@@ -3401,7 +3401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -3427,7 +3427,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -3437,19 +3437,19 @@
       <c r="H28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
         <v>26</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -3515,7 +3515,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3541,35 +3541,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="14" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="2:9">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>9</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
         <v>156</v>
       </c>
@@ -3608,14 +3608,14 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="7" t="s">
         <v>71</v>
       </c>
@@ -3633,9 +3633,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>43</v>
@@ -3649,7 +3649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
         <v>42</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
         <v>120</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
@@ -3695,19 +3695,19 @@
       <c r="H44" s="8"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="17" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="2:9">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="11" t="s">
         <v>26</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
@@ -3763,13 +3763,13 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -3777,7 +3777,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -3787,7 +3787,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -3813,35 +3813,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
       <c r="H53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="14" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55" spans="2:9">
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>9</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
         <v>156</v>
       </c>
@@ -3878,14 +3878,14 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
         <v>71</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -3909,7 +3909,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -3919,19 +3919,19 @@
       <c r="H59" s="8"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="17" t="s">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="2:9">
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="11" t="s">
         <v>26</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="5" t="s">
         <v>45</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -3981,7 +3981,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -3991,7 +3991,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
@@ -4017,35 +4017,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
       <c r="H67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="14" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="16"/>
-    </row>
-    <row r="69" spans="2:9">
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
         <v>9</v>
       </c>
@@ -4071,12 +4071,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
@@ -4089,12 +4089,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -4102,15 +4102,15 @@
       <c r="G71" s="7"/>
       <c r="H71" s="8"/>
       <c r="I71" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -4121,12 +4121,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -4137,12 +4137,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D74" s="8">
         <v>200</v>
@@ -4155,12 +4155,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4171,7 +4171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
         <v>38</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
         <v>39</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
         <v>153</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
         <v>141</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
         <v>142</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
         <v>143</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="8"/>
@@ -4289,7 +4289,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
@@ -4299,7 +4299,7 @@
       <c r="H83" s="8"/>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
@@ -4309,7 +4309,7 @@
       <c r="H84" s="8"/>
       <c r="I84" s="7"/>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -4319,7 +4319,7 @@
       <c r="H85" s="8"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -4329,19 +4329,19 @@
       <c r="H86" s="8"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="17" t="s">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="19"/>
-    </row>
-    <row r="88" spans="2:9">
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="14"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="11" t="s">
         <v>26</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="5" t="s">
         <v>45</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
         <v>47</v>
       </c>
@@ -4397,15 +4397,15 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -4413,7 +4413,7 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -4423,12 +4423,12 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -4449,35 +4449,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
       <c r="H95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="14" t="s">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B96" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="16"/>
-    </row>
-    <row r="97" spans="2:9">
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="19"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B97" s="4" t="s">
         <v>9</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="5" t="s">
         <v>150</v>
       </c>
@@ -4516,14 +4516,14 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
         <v>62</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
         <v>20</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="7" t="s">
         <v>38</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" s="7" t="s">
         <v>16</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B103" s="7" t="s">
         <v>50</v>
       </c>
@@ -4613,9 +4613,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>68</v>
@@ -4631,12 +4631,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="I105" s="7"/>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="8"/>
@@ -4657,7 +4657,7 @@
       <c r="H106" s="8"/>
       <c r="I106" s="7"/>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="8"/>
@@ -4667,7 +4667,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="7"/>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="8"/>
@@ -4677,7 +4677,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="7"/>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="8"/>
@@ -4687,19 +4687,19 @@
       <c r="H109" s="8"/>
       <c r="I109" s="7"/>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="17" t="s">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B110" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="19"/>
-    </row>
-    <row r="111" spans="2:9">
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="14"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="11" t="s">
         <v>26</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B112" s="5" t="s">
         <v>45</v>
       </c>
@@ -4739,13 +4739,13 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B113" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -4753,7 +4753,7 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -4763,7 +4763,7 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -4775,12 +4775,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="B110:I110"/>
     <mergeCell ref="B60:I60"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="B68:I68"/>
@@ -4790,9 +4787,12 @@
     <mergeCell ref="B45:I45"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -4812,7 +4812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4822,7 +4822,7 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="3" width="13.375" style="3" bestFit="1" customWidth="1"/>
@@ -4835,12 +4835,12 @@
     <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4861,35 +4861,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>161</v>
       </c>
@@ -4928,14 +4928,14 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>134</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>126</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>201</v>
       </c>
@@ -4983,25 +4983,25 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>203</v>
       </c>
@@ -5012,14 +5012,14 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>204</v>
       </c>
@@ -5030,14 +5030,14 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
         <v>207</v>
       </c>
@@ -5048,16 +5048,16 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>131</v>
@@ -5066,16 +5066,16 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>131</v>
@@ -5084,16 +5084,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>131</v>
@@ -5102,16 +5102,16 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>131</v>
@@ -5120,14 +5120,14 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
         <v>209</v>
       </c>
@@ -5138,16 +5138,16 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>211</v>
@@ -5158,12 +5158,12 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>211</v>
@@ -5174,15 +5174,15 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
       <c r="I20" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -5190,19 +5190,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -5210,12 +5210,12 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>212</v>
@@ -5226,19 +5226,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -5246,10 +5246,10 @@
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -5259,7 +5259,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
@@ -5269,7 +5269,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -5279,19 +5279,19 @@
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="2:9">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="11" t="s">
         <v>26</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
         <v>45</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
         <v>47</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
         <v>47</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
         <v>47</v>
       </c>
@@ -5379,7 +5379,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -5389,12 +5389,12 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -5415,35 +5415,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="14" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" spans="2:9">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
@@ -5469,9 +5469,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>186</v>
@@ -5480,16 +5480,16 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>186</v>
@@ -5498,16 +5498,16 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>164</v>
@@ -5518,15 +5518,15 @@
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -5536,14 +5536,14 @@
         <v>0</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
@@ -5553,7 +5553,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -5563,19 +5563,19 @@
       <c r="H45" s="8"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="17" t="s">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="2:9">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="11" t="s">
         <v>26</v>
       </c>
@@ -5601,23 +5601,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
         <v>47</v>
       </c>
@@ -5633,7 +5633,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -5643,7 +5643,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -5653,12 +5653,12 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
@@ -5679,35 +5679,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="C54" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
       <c r="H54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="14" t="s">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="16"/>
-    </row>
-    <row r="56" spans="2:9">
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="5" t="s">
         <v>150</v>
       </c>
@@ -5746,14 +5746,14 @@
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
         <v>88</v>
       </c>
@@ -5764,14 +5764,14 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
         <v>62</v>
       </c>
@@ -5782,18 +5782,18 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>64</v>
@@ -5802,21 +5802,21 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -5826,12 +5826,12 @@
         <v>18</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>67</v>
@@ -5842,12 +5842,12 @@
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>64</v>
@@ -5860,15 +5860,15 @@
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -5878,10 +5878,10 @@
         <v>18</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
@@ -5891,19 +5891,19 @@
       <c r="H65" s="10"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="17" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
-    </row>
-    <row r="67" spans="2:9">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
         <v>26</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="5" t="s">
         <v>34</v>
       </c>
@@ -5943,7 +5943,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="7" t="s">
         <v>47</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="7" t="s">
         <v>48</v>
       </c>
@@ -5975,7 +5975,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -6015,17 +6015,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:I182"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="3" bestFit="1" customWidth="1"/>
@@ -6039,7 +6039,7 @@
     <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6065,35 +6065,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>150</v>
       </c>
@@ -6134,10 +6134,10 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>71</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>63</v>
       </c>
@@ -6168,14 +6168,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>77</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
         <v>80</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>175</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>163</v>
       </c>
@@ -6249,9 +6249,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>64</v>
@@ -6266,12 +6266,12 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>21</v>
@@ -6286,10 +6286,10 @@
         <v>18</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -6299,19 +6299,19 @@
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>26</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
@@ -6367,7 +6367,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6377,7 +6377,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -6387,12 +6387,12 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -6413,35 +6413,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
@@ -6467,12 +6467,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D27" s="8">
         <v>256</v>
@@ -6482,15 +6482,15 @@
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
       <c r="I27" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="D28" s="8">
         <v>50</v>
@@ -6500,15 +6500,15 @@
       <c r="G28" s="7"/>
       <c r="H28" s="8"/>
       <c r="I28" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -6516,10 +6516,10 @@
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -6529,7 +6529,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -6539,19 +6539,19 @@
       <c r="H31" s="10"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="2:9">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="11" t="s">
         <v>26</v>
       </c>
@@ -6577,13 +6577,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -6591,7 +6591,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -6601,7 +6601,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -6611,12 +6611,12 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>166</v>
@@ -6637,35 +6637,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="C39" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="14" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="2:9">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>9</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="5" t="s">
         <v>59</v>
       </c>
@@ -6702,19 +6702,19 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D43" s="8">
         <v>200</v>
@@ -6724,15 +6724,15 @@
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D44" s="8">
         <v>50</v>
@@ -6741,36 +6741,36 @@
       <c r="F44" s="8"/>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="D46" s="8">
         <v>100</v>
@@ -6780,10 +6780,10 @@
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
@@ -6793,7 +6793,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -6803,19 +6803,19 @@
       <c r="H48" s="10"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="17" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
-    </row>
-    <row r="50" spans="2:9">
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
         <v>26</v>
       </c>
@@ -6841,13 +6841,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -6855,15 +6855,15 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -6871,7 +6871,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -6881,7 +6881,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -6891,12 +6891,12 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>166</v>
@@ -6917,35 +6917,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="14" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="16"/>
-    </row>
-    <row r="59" spans="2:9">
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
         <v>9</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="5" t="s">
         <v>177</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
         <v>73</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
         <v>74</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
         <v>59</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -7051,7 +7051,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
@@ -7061,19 +7061,19 @@
       <c r="H65" s="10"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="17" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
-    </row>
-    <row r="67" spans="2:9">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
         <v>26</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="5" t="s">
         <v>46</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -7123,7 +7123,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -7133,12 +7133,12 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>166</v>
@@ -7159,35 +7159,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="C73" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
       <c r="H73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="14" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="16"/>
-    </row>
-    <row r="75" spans="2:9">
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="19"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
         <v>9</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="5" t="s">
         <v>59</v>
       </c>
@@ -7224,19 +7224,19 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -7244,16 +7244,16 @@
         <v>0</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>43</v>
@@ -7262,14 +7262,14 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
         <v>180</v>
       </c>
@@ -7286,12 +7286,12 @@
       <c r="G79" s="7"/>
       <c r="H79" s="8"/>
       <c r="I79" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>64</v>
@@ -7306,10 +7306,10 @@
       <c r="G80" s="7"/>
       <c r="H80" s="8"/>
       <c r="I80" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="8"/>
@@ -7319,7 +7319,7 @@
       <c r="H81" s="8"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
@@ -7329,19 +7329,19 @@
       <c r="H82" s="10"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="17" t="s">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B83" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="19"/>
-    </row>
-    <row r="84" spans="2:9">
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="11" t="s">
         <v>26</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="5" t="s">
         <v>46</v>
       </c>
@@ -7376,22 +7376,22 @@
         <v>59</v>
       </c>
       <c r="E85" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -7399,7 +7399,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -7409,7 +7409,7 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -7419,12 +7419,12 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="90" spans="2:9" ht="12.95" customHeight="1">
+    <row r="90" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>166</v>
@@ -7445,35 +7445,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
       <c r="H91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="14" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="16"/>
-    </row>
-    <row r="93" spans="2:9">
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="19"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" s="5" t="s">
         <v>59</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="7" t="s">
         <v>179</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B96" s="7" t="s">
         <v>180</v>
       </c>
@@ -7548,15 +7548,15 @@
       <c r="G96" s="7"/>
       <c r="H96" s="8"/>
       <c r="I96" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B97" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8">
         <v>1</v>
@@ -7568,10 +7568,10 @@
       <c r="G97" s="7"/>
       <c r="H97" s="8"/>
       <c r="I97" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="10"/>
@@ -7581,19 +7581,19 @@
       <c r="H98" s="10"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="17" t="s">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B99" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="19"/>
-    </row>
-    <row r="100" spans="2:9">
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="11" t="s">
         <v>26</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="5" t="s">
         <v>46</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" s="7" t="s">
         <v>47</v>
       </c>
@@ -7646,14 +7646,14 @@
         <v>179</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -7663,7 +7663,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -7673,12 +7673,12 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="106" spans="2:9" ht="12.95" customHeight="1">
+    <row r="106" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>166</v>
@@ -7699,35 +7699,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
       <c r="H107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="14" t="s">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B108" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="16"/>
-    </row>
-    <row r="109" spans="2:9">
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
         <v>9</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B110" s="5" t="s">
         <v>185</v>
       </c>
@@ -7769,9 +7769,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>186</v>
@@ -7782,12 +7782,12 @@
       <c r="G111" s="7"/>
       <c r="H111" s="8"/>
       <c r="I111" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B112" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>127</v>
@@ -7800,12 +7800,12 @@
       <c r="G112" s="7"/>
       <c r="H112" s="8"/>
       <c r="I112" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B113" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>128</v>
@@ -7818,10 +7818,10 @@
       <c r="G113" s="7"/>
       <c r="H113" s="8"/>
       <c r="I113" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="10"/>
@@ -7831,19 +7831,19 @@
       <c r="H114" s="10"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="17" t="s">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B115" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="19"/>
-    </row>
-    <row r="116" spans="2:9">
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="14"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" s="11" t="s">
         <v>26</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B117" s="5" t="s">
         <v>189</v>
       </c>
@@ -7878,14 +7878,14 @@
         <v>185</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B118" s="7" t="s">
         <v>47</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>129</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
@@ -7901,7 +7901,7 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -7911,7 +7911,7 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -7921,7 +7921,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="122" spans="2:9" ht="12.95" customHeight="1">
+    <row r="122" spans="2:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
@@ -7947,35 +7947,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
       <c r="H123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="14" t="s">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B124" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="16"/>
-    </row>
-    <row r="125" spans="2:9">
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="19"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
         <v>9</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="5" t="s">
         <v>185</v>
       </c>
@@ -8017,9 +8017,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>186</v>
@@ -8033,7 +8033,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
         <v>130</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="10"/>
@@ -8061,19 +8061,19 @@
       <c r="H129" s="10"/>
       <c r="I129" s="9"/>
     </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="17" t="s">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B130" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="19"/>
-    </row>
-    <row r="131" spans="2:9">
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="14"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B131" s="11" t="s">
         <v>26</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" s="5" t="s">
         <v>189</v>
       </c>
@@ -8108,30 +8108,30 @@
         <v>185</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="2:9">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B133" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E133" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
     </row>
-    <row r="134" spans="2:9">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -8141,7 +8141,7 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
     </row>
-    <row r="135" spans="2:9">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -8151,7 +8151,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="137" spans="2:9">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B137" s="1" t="s">
         <v>0</v>
       </c>
@@ -8177,35 +8177,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B138" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
       <c r="H138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="2:9">
-      <c r="B139" s="14" t="s">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B139" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="140" spans="2:9">
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="19"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
         <v>9</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B141" s="5" t="s">
         <v>195</v>
       </c>
@@ -8247,7 +8247,7 @@
       <c r="H141" s="6"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B142" s="7" t="s">
         <v>185</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B143" s="7" t="s">
         <v>197</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="8"/>
@@ -8289,7 +8289,7 @@
       <c r="H144" s="8"/>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="2:9">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="8"/>
@@ -8299,7 +8299,7 @@
       <c r="H145" s="8"/>
       <c r="I145" s="7"/>
     </row>
-    <row r="146" spans="2:9">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="8"/>
@@ -8309,7 +8309,7 @@
       <c r="H146" s="8"/>
       <c r="I146" s="7"/>
     </row>
-    <row r="147" spans="2:9">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
@@ -8319,7 +8319,7 @@
       <c r="H147" s="8"/>
       <c r="I147" s="7"/>
     </row>
-    <row r="148" spans="2:9">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
@@ -8329,7 +8329,7 @@
       <c r="H148" s="8"/>
       <c r="I148" s="7"/>
     </row>
-    <row r="149" spans="2:9">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
@@ -8339,7 +8339,7 @@
       <c r="H149" s="8"/>
       <c r="I149" s="7"/>
     </row>
-    <row r="150" spans="2:9">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="10"/>
@@ -8349,19 +8349,19 @@
       <c r="H150" s="10"/>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="2:9">
-      <c r="B151" s="17" t="s">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B151" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="19"/>
-    </row>
-    <row r="152" spans="2:9">
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="14"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B152" s="11" t="s">
         <v>26</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="2:9">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B153" s="5" t="s">
         <v>189</v>
       </c>
@@ -8401,7 +8401,7 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" spans="2:9">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B154" s="7" t="s">
         <v>47</v>
       </c>
@@ -8417,7 +8417,7 @@
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
     </row>
-    <row r="155" spans="2:9">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -8427,7 +8427,7 @@
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
     </row>
-    <row r="156" spans="2:9">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -8437,7 +8437,7 @@
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" spans="2:9">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B157" s="20" t="s">
         <v>200</v>
       </c>
@@ -8449,7 +8449,7 @@
       <c r="H157" s="21"/>
       <c r="I157" s="22"/>
     </row>
-    <row r="158" spans="2:9" ht="47.25" customHeight="1">
+    <row r="158" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -8459,12 +8459,12 @@
       <c r="H158" s="23"/>
       <c r="I158" s="23"/>
     </row>
-    <row r="160" spans="2:9">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B160" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>1</v>
@@ -8485,35 +8485,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:9">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
+      <c r="C161" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
       <c r="H161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="2:9">
-      <c r="B162" s="14" t="s">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B162" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="16"/>
-    </row>
-    <row r="163" spans="2:9">
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="19"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
         <v>9</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="2:9">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B164" s="5" t="s">
         <v>150</v>
       </c>
@@ -8550,35 +8550,35 @@
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H164" s="6"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="2:9">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B165" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C165" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H165" s="8"/>
       <c r="I165" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B166" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C166" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
@@ -8587,28 +8587,28 @@
       <c r="H166" s="8"/>
       <c r="I166" s="7"/>
     </row>
-    <row r="167" spans="2:9">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B167" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H167" s="8"/>
       <c r="I167" s="7"/>
     </row>
-    <row r="168" spans="2:9">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B168" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
@@ -8617,7 +8617,7 @@
       <c r="H168" s="8"/>
       <c r="I168" s="7"/>
     </row>
-    <row r="169" spans="2:9">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="8"/>
@@ -8627,7 +8627,7 @@
       <c r="H169" s="8"/>
       <c r="I169" s="7"/>
     </row>
-    <row r="170" spans="2:9">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
@@ -8637,7 +8637,7 @@
       <c r="H170" s="8"/>
       <c r="I170" s="7"/>
     </row>
-    <row r="171" spans="2:9">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="8"/>
@@ -8647,7 +8647,7 @@
       <c r="H171" s="8"/>
       <c r="I171" s="7"/>
     </row>
-    <row r="172" spans="2:9">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="8"/>
@@ -8657,7 +8657,7 @@
       <c r="H172" s="8"/>
       <c r="I172" s="7"/>
     </row>
-    <row r="173" spans="2:9">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="10"/>
@@ -8667,19 +8667,19 @@
       <c r="H173" s="10"/>
       <c r="I173" s="9"/>
     </row>
-    <row r="174" spans="2:9">
-      <c r="B174" s="17" t="s">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B174" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="19"/>
-    </row>
-    <row r="175" spans="2:9">
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="14"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B175" s="11" t="s">
         <v>26</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="2:9">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B176" s="5" t="s">
         <v>34</v>
       </c>
@@ -8719,13 +8719,13 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="2:9">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B177" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
@@ -8733,29 +8733,29 @@
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
     </row>
-    <row r="178" spans="2:9">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B178" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E178" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
     </row>
-    <row r="179" spans="2:9">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B179" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
@@ -8763,7 +8763,7 @@
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
     </row>
-    <row r="180" spans="2:9">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
@@ -8773,7 +8773,7 @@
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
     </row>
-    <row r="181" spans="2:9">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B181" s="20" t="s">
         <v>118</v>
       </c>
@@ -8785,7 +8785,7 @@
       <c r="H181" s="21"/>
       <c r="I181" s="22"/>
     </row>
-    <row r="182" spans="2:9" ht="47.25" customHeight="1">
+    <row r="182" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -8797,27 +8797,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="B162:I162"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B115:I115"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B32:I32"/>
     <mergeCell ref="B157:I157"/>
     <mergeCell ref="B158:I158"/>
     <mergeCell ref="B83:I83"/>
@@ -8831,6 +8810,27 @@
     <mergeCell ref="B151:I151"/>
     <mergeCell ref="B130:I130"/>
     <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="B124:I124"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="B162:I162"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B182:I182"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -8850,7 +8850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8860,7 +8860,7 @@
       <selection activeCell="A81" sqref="A81:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="3" bestFit="1" customWidth="1"/>
@@ -8874,12 +8874,12 @@
     <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -8900,35 +8900,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>150</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>62</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>71</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>89</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
         <v>93</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>96</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>97</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
         <v>98</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
         <v>95</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>110</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
         <v>99</v>
       </c>
@@ -9135,14 +9135,14 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>100</v>
       </c>
@@ -9153,32 +9153,32 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
@@ -9188,19 +9188,19 @@
       <c r="H19" s="10"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
         <v>26</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
@@ -9240,7 +9240,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
         <v>47</v>
       </c>
@@ -9256,7 +9256,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -9266,7 +9266,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -9276,12 +9276,12 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -9302,35 +9302,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
         <v>88</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
         <v>108</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -9398,19 +9398,19 @@
       <c r="H33" s="10"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="2:9">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
         <v>26</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
@@ -9452,7 +9452,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
         <v>47</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -9478,7 +9478,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -9488,12 +9488,12 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -9514,35 +9514,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="14" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="2:9">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
         <v>9</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
         <v>88</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
         <v>113</v>
       </c>
@@ -9595,14 +9595,14 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
         <v>115</v>
       </c>
@@ -9613,14 +9613,14 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
         <v>100</v>
       </c>
@@ -9631,14 +9631,14 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -9648,19 +9648,19 @@
       <c r="H49" s="10"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="17" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="2:9">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
         <v>26</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="5" t="s">
         <v>34</v>
       </c>
@@ -9702,13 +9702,13 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -9716,7 +9716,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -9726,7 +9726,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -9736,7 +9736,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>118</v>
       </c>
@@ -9748,7 +9748,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="2:9" ht="47.25" customHeight="1">
+    <row r="57" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -9758,12 +9758,12 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1</v>
@@ -9784,35 +9784,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="C60" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
       <c r="H60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="14" t="s">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="16"/>
-    </row>
-    <row r="62" spans="2:9">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="5" t="s">
         <v>88</v>
       </c>
@@ -9849,37 +9849,37 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="7" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -9887,10 +9887,10 @@
       <c r="G65" s="7"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -9900,7 +9900,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="10"/>
@@ -9910,19 +9910,19 @@
       <c r="H67" s="10"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="17" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="2:9">
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
         <v>26</v>
       </c>
@@ -9948,15 +9948,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -9964,12 +9964,12 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>59</v>
@@ -9980,7 +9980,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -9990,7 +9990,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -10000,7 +10000,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="20" t="s">
         <v>118</v>
       </c>
@@ -10012,7 +10012,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="22"/>
     </row>
-    <row r="75" spans="2:9" ht="47.25" customHeight="1">
+    <row r="75" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -10022,12 +10022,12 @@
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
@@ -10048,35 +10048,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+      <c r="C78" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
       <c r="H78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="14" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="16"/>
-    </row>
-    <row r="80" spans="2:9">
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="19"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
         <v>9</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="5" t="s">
         <v>150</v>
       </c>
@@ -10115,16 +10115,16 @@
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>17</v>
@@ -10133,16 +10133,16 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>17</v>
@@ -10151,41 +10151,41 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -10195,12 +10195,12 @@
         <v>18</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>67</v>
@@ -10211,15 +10211,15 @@
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
       <c r="I86" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -10229,15 +10229,15 @@
       <c r="G87" s="7"/>
       <c r="H87" s="8"/>
       <c r="I87" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -10247,10 +10247,10 @@
         <v>18</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="10"/>
@@ -10260,19 +10260,19 @@
       <c r="H89" s="10"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="17" t="s">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="19"/>
-    </row>
-    <row r="91" spans="2:9">
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="11" t="s">
         <v>26</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B92" s="5" t="s">
         <v>34</v>
       </c>
@@ -10312,15 +10312,15 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -10328,15 +10328,15 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C94" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -10344,7 +10344,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -10356,14 +10356,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:I75"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B20:I20"/>
@@ -10375,6 +10367,14 @@
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B90:I90"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:I75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -10394,17 +10394,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:I158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="3" bestFit="1" customWidth="1"/>
@@ -10418,12 +10418,12 @@
     <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -10444,35 +10444,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>150</v>
       </c>
@@ -10513,15 +10513,15 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -10534,9 +10534,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>174</v>
@@ -10550,7 +10550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -10560,7 +10560,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -10570,7 +10570,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -10580,19 +10580,19 @@
       <c r="H11" s="10"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
@@ -10632,7 +10632,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -10642,7 +10642,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -10652,7 +10652,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -10662,12 +10662,12 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -10688,35 +10688,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -10742,9 +10742,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>17</v>
@@ -10755,10 +10755,10 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
@@ -10774,9 +10774,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>67</v>
@@ -10787,10 +10787,10 @@
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
@@ -10800,7 +10800,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -10810,7 +10810,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -10820,19 +10820,19 @@
       <c r="H28" s="10"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
         <v>26</v>
       </c>
@@ -10858,23 +10858,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
         <v>47</v>
       </c>
@@ -10890,7 +10890,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -10900,7 +10900,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -10910,12 +10910,12 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -10936,35 +10936,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="14" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" spans="2:9">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
@@ -10990,9 +10990,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>17</v>
@@ -11003,10 +11003,10 @@
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
       <c r="I40" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
@@ -11022,12 +11022,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -11035,10 +11035,10 @@
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
@@ -11048,7 +11048,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -11058,19 +11058,19 @@
       <c r="H44" s="10"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="17" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="2:9">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="11" t="s">
         <v>26</v>
       </c>
@@ -11096,23 +11096,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
@@ -11128,7 +11128,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -11138,7 +11138,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -11148,12 +11148,12 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
@@ -11174,35 +11174,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="C53" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
       <c r="H53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="14" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55" spans="2:9">
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>9</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
         <v>150</v>
       </c>
@@ -11241,16 +11241,16 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>17</v>
@@ -11259,14 +11259,14 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
         <v>59</v>
       </c>
@@ -11277,16 +11277,16 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>21</v>
@@ -11299,15 +11299,15 @@
       <c r="G59" s="7"/>
       <c r="H59" s="8"/>
       <c r="I59" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -11315,12 +11315,12 @@
       <c r="G60" s="7"/>
       <c r="H60" s="8"/>
       <c r="I60" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>67</v>
@@ -11331,15 +11331,15 @@
       <c r="G61" s="7"/>
       <c r="H61" s="8"/>
       <c r="I61" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -11347,15 +11347,15 @@
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="7" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -11363,12 +11363,12 @@
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>174</v>
@@ -11379,17 +11379,17 @@
         <v>0</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
@@ -11399,14 +11399,14 @@
         <v>0</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
@@ -11416,19 +11416,19 @@
       <c r="H66" s="10"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="17" t="s">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="19"/>
-    </row>
-    <row r="68" spans="2:9">
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
         <v>26</v>
       </c>
@@ -11454,13 +11454,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -11468,7 +11468,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="7" t="s">
         <v>47</v>
       </c>
@@ -11484,15 +11484,15 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -11500,7 +11500,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -11510,7 +11510,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -11520,12 +11520,12 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1</v>
@@ -11546,35 +11546,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+      <c r="C76" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
       <c r="H76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="14" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="16"/>
-    </row>
-    <row r="78" spans="2:9">
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
         <v>9</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="5" t="s">
         <v>150</v>
       </c>
@@ -11613,16 +11613,16 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="7" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>17</v>
@@ -11631,14 +11631,14 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
         <v>59</v>
       </c>
@@ -11649,19 +11649,19 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -11669,12 +11669,12 @@
       <c r="G82" s="7"/>
       <c r="H82" s="8"/>
       <c r="I82" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>67</v>
@@ -11685,12 +11685,12 @@
       <c r="G83" s="7"/>
       <c r="H83" s="8"/>
       <c r="I83" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="7" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>174</v>
@@ -11701,19 +11701,19 @@
         <v>0</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D85" s="8">
         <v>1</v>
@@ -11723,14 +11723,14 @@
         <v>0</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -11740,7 +11740,7 @@
       <c r="H86" s="8"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="10"/>
@@ -11750,19 +11750,19 @@
       <c r="H87" s="10"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="17" t="s">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="19"/>
-    </row>
-    <row r="89" spans="2:9">
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="11" t="s">
         <v>26</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" s="5" t="s">
         <v>34</v>
       </c>
@@ -11802,7 +11802,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
         <v>47</v>
       </c>
@@ -11818,15 +11818,15 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B92" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -11834,7 +11834,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -11844,12 +11844,12 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
@@ -11870,35 +11870,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
+      <c r="C96" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
       <c r="H96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="14" t="s">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B97" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="16"/>
-    </row>
-    <row r="98" spans="2:9">
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="19"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="4" t="s">
         <v>9</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B99" s="5" t="s">
         <v>150</v>
       </c>
@@ -11937,16 +11937,16 @@
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>17</v>
@@ -11955,14 +11955,14 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="7" t="s">
         <v>59</v>
       </c>
@@ -11973,16 +11973,16 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>21</v>
@@ -11995,15 +11995,15 @@
       <c r="G102" s="7"/>
       <c r="H102" s="8"/>
       <c r="I102" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B103" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -12011,12 +12011,12 @@
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
       <c r="I103" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>67</v>
@@ -12027,15 +12027,15 @@
       <c r="G104" s="7"/>
       <c r="H104" s="8"/>
       <c r="I104" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -12043,15 +12043,15 @@
       <c r="G105" s="7"/>
       <c r="H105" s="8"/>
       <c r="I105" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B106" s="7" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -12059,12 +12059,12 @@
       <c r="G106" s="7"/>
       <c r="H106" s="8"/>
       <c r="I106" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>174</v>
@@ -12075,17 +12075,17 @@
         <v>0</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="7"/>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B108" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D108" s="8">
         <v>1</v>
@@ -12095,14 +12095,14 @@
         <v>0</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="10"/>
@@ -12112,19 +12112,19 @@
       <c r="H109" s="10"/>
       <c r="I109" s="9"/>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="17" t="s">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B110" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="19"/>
-    </row>
-    <row r="111" spans="2:9">
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="14"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="11" t="s">
         <v>26</v>
       </c>
@@ -12150,13 +12150,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B112" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -12164,7 +12164,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B113" s="7" t="s">
         <v>47</v>
       </c>
@@ -12180,15 +12180,15 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B114" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -12196,7 +12196,7 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -12206,7 +12206,7 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -12216,12 +12216,12 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
@@ -12242,35 +12242,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
+      <c r="C119" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
       <c r="H119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="14" t="s">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B120" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="16"/>
-    </row>
-    <row r="121" spans="2:9">
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="19"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
         <v>9</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B122" s="5" t="s">
         <v>150</v>
       </c>
@@ -12309,16 +12309,16 @@
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B123" s="7" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9">
-      <c r="B123" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>17</v>
@@ -12327,14 +12327,14 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
         <v>59</v>
       </c>
@@ -12345,19 +12345,19 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -12365,12 +12365,12 @@
       <c r="G125" s="7"/>
       <c r="H125" s="8"/>
       <c r="I125" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>67</v>
@@ -12381,12 +12381,12 @@
       <c r="G126" s="7"/>
       <c r="H126" s="8"/>
       <c r="I126" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B127" s="7" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9">
-      <c r="B127" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>174</v>
@@ -12397,19 +12397,19 @@
         <v>0</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D128" s="8">
         <v>1</v>
@@ -12419,14 +12419,14 @@
         <v>0</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="8"/>
@@ -12436,7 +12436,7 @@
       <c r="H129" s="8"/>
       <c r="I129" s="7"/>
     </row>
-    <row r="130" spans="2:9">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="10"/>
@@ -12446,19 +12446,19 @@
       <c r="H130" s="10"/>
       <c r="I130" s="9"/>
     </row>
-    <row r="131" spans="2:9">
-      <c r="B131" s="17" t="s">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B131" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="19"/>
-    </row>
-    <row r="132" spans="2:9">
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="14"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" s="11" t="s">
         <v>26</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B133" s="5" t="s">
         <v>34</v>
       </c>
@@ -12498,7 +12498,7 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" spans="2:9">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B134" s="7" t="s">
         <v>47</v>
       </c>
@@ -12514,15 +12514,15 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
     </row>
-    <row r="135" spans="2:9">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B135" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -12530,7 +12530,7 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
     </row>
-    <row r="136" spans="2:9">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -12540,12 +12540,12 @@
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B138" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>1</v>
@@ -12566,35 +12566,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
+      <c r="C139" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
       <c r="H139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="14" t="s">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B140" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="16"/>
-    </row>
-    <row r="141" spans="2:9">
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="19"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B141" s="4" t="s">
         <v>9</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B142" s="5" t="s">
         <v>150</v>
       </c>
@@ -12633,34 +12633,34 @@
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B143" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B144" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>17</v>
@@ -12669,16 +12669,16 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B145" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>17</v>
@@ -12687,18 +12687,18 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I145" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B146" s="7" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>17</v>
@@ -12707,37 +12707,37 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B147" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B148" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -12747,12 +12747,12 @@
         <v>18</v>
       </c>
       <c r="I148" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B149" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>67</v>
@@ -12763,15 +12763,15 @@
       <c r="G149" s="7"/>
       <c r="H149" s="8"/>
       <c r="I149" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B150" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -12781,15 +12781,15 @@
       <c r="G150" s="7"/>
       <c r="H150" s="8"/>
       <c r="I150" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B151" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C151" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -12799,10 +12799,10 @@
         <v>18</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="10"/>
@@ -12812,19 +12812,19 @@
       <c r="H152" s="10"/>
       <c r="I152" s="9"/>
     </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="17" t="s">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B153" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="19"/>
-    </row>
-    <row r="154" spans="2:9">
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="14"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B154" s="11" t="s">
         <v>26</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B155" s="5" t="s">
         <v>34</v>
       </c>
@@ -12864,15 +12864,15 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
     </row>
-    <row r="156" spans="2:9">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B156" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -12880,25 +12880,25 @@
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
     </row>
-    <row r="157" spans="2:9">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B157" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
     </row>
-    <row r="158" spans="2:9">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -12910,6 +12910,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="B77:I77"/>
     <mergeCell ref="B131:I131"/>
     <mergeCell ref="C139:G139"/>
     <mergeCell ref="B140:I140"/>
@@ -12919,21 +12934,6 @@
     <mergeCell ref="B110:I110"/>
     <mergeCell ref="C119:G119"/>
     <mergeCell ref="B120:I120"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">

--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="489">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1467,10 +1467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name_hiragana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会社名(ひらがな)</t>
     <rPh sb="0" eb="3">
       <t>カイシャメイ</t>
@@ -1478,19 +1474,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name_hiragana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INDEX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>order_in_series</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2326,6 +2310,210 @@
   </si>
   <si>
     <t>acronym</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phonetic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム会社ID</t>
+    <rPh sb="3" eb="5">
+      <t>ガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phonetic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリーズ名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリーズ名称のよみがな</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称の読みがな</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧で表示した時の表示順</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sort_order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small_image_width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small_image_height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>medium_image_width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>medium_image_height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>large_image_width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>large_image_height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小画像の幅</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小画像の高さ</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中画像の幅</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中画像の高さ</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大画像の幅</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大画像の高さ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>release_int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2632,15 +2820,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2654,6 +2833,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2984,10 +3172,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I115"/>
+  <dimension ref="B2:I125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -3033,29 +3221,29 @@
       <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -3123,7 +3311,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>299</v>
+        <v>459</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
@@ -3136,7 +3324,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -3176,16 +3364,16 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
@@ -3228,13 +3416,9 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>301</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -3242,13 +3426,9 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>302</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -3295,29 +3475,29 @@
       <c r="B20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -3367,65 +3547,75 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="8">
-        <v>200</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>461</v>
+      </c>
       <c r="I24" s="7" t="s">
-        <v>226</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>462</v>
+        <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>173</v>
       </c>
       <c r="D25" s="8">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="7" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="7" t="s">
-        <v>49</v>
+        <v>458</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="D26" s="8">
+        <v>10</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
       <c r="I26" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
@@ -3438,763 +3628,775 @@
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I31" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="5" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="7" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="1" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="17" t="s">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="5" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="5" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="5" t="s">
+      <c r="H40" s="6"/>
+      <c r="I40" s="5" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="8">
-        <v>200</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="D41" s="8">
+        <v>200</v>
+      </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>42</v>
+        <v>462</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="8"/>
+        <v>468</v>
+      </c>
+      <c r="D42" s="8">
+        <v>200</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>57</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>120</v>
+        <v>470</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="8"/>
+        <v>468</v>
+      </c>
+      <c r="D43" s="8">
+        <v>200</v>
+      </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
+      <c r="F43" s="8"/>
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>121</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="11" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B51" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E51" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I51" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="5" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B52" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="7" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="1" t="s">
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I58" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="1" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C59" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="1" t="s">
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="17" t="s">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="4" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="16"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="14"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D63" s="8">
+        <v>200</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D64" s="8">
+        <v>200</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="1" t="s">
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I72" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="1" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C73" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="1" t="s">
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="17" t="s">
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="4" t="s">
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="5" t="s">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6" t="s">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="5" t="s">
+      <c r="F76" s="6"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="5" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B72" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D74" s="8">
-        <v>200</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D76" s="8">
-        <v>100</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4202,607 +4404,809 @@
       <c r="G77" s="7"/>
       <c r="H77" s="8"/>
       <c r="I77" s="7" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" s="8">
-        <v>200</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H78" s="8"/>
       <c r="I78" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H79" s="8"/>
       <c r="I79" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80" s="8"/>
+        <v>229</v>
+      </c>
+      <c r="D80" s="8">
+        <v>200</v>
+      </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H80" s="8"/>
       <c r="I80" s="7" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H81" s="8"/>
       <c r="I81" s="7" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="8"/>
+      <c r="B82" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="8">
+        <v>100</v>
+      </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="7"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="7"/>
+      <c r="I82" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="7"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="7"/>
+      <c r="I83" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="8"/>
+      <c r="B84" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="8">
+        <v>200</v>
+      </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="7"/>
+      <c r="H84" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="B85" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="7"/>
+      <c r="H85" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
+      <c r="B86" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>467</v>
+      </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="7"/>
+      <c r="G86" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="14"/>
+      <c r="B87" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>33</v>
+      <c r="B88" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B89" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
+      <c r="B89" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>47</v>
+        <v>479</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
+        <v>467</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
+      <c r="H91" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="B92" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B93" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="2">
-        <v>0</v>
-      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="7"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I95" s="2"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="7"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="19"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="7"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B97" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="19"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H98" s="6"/>
-      <c r="I98" s="5" t="s">
-        <v>294</v>
+      <c r="B98" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B99" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="8">
-        <v>200</v>
-      </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="8">
-        <v>100</v>
-      </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
+        <v>227</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="8" t="s">
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B106" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="16"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B108" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B102" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B103" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B104" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I105" s="7"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="7"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="7"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H108" s="6"/>
+      <c r="I108" s="5" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
+      <c r="B109" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="7"/>
       <c r="H109" s="8"/>
-      <c r="I109" s="7"/>
+      <c r="I109" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="14"/>
+      <c r="B110" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="8">
+        <v>200</v>
+      </c>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B111" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>33</v>
+      <c r="B111" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="8">
+        <v>100</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B112" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
+      <c r="B112" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B113" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B114" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B115" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B120" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="19"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B121" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B122" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B123" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7" t="s">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="B110:I110"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="B106:I106"/>
+    <mergeCell ref="B120:I120"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B97:I97"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G59 G23:G28 G6:G11 G98:G109 G39:G44 G70:G86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G62:G65 G40:G49 G6:G11 G108:G119 G23:G29 G76:G96">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89:B92 B112:B115 B47:B50 B62:B64 B14:B17 B31:B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99:B102 B122:B125 B32:B34 B68:B70 B14:B17 B52:B56">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52 G94 G66 G35 G2 G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G58 G104 G72 G36 G2 G19">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4840,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4865,29 +5269,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -5093,7 +5497,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>131</v>
@@ -5106,12 +5510,12 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>131</v>
@@ -5124,7 +5528,7 @@
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -5147,7 +5551,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>211</v>
@@ -5158,12 +5562,12 @@
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>211</v>
@@ -5174,15 +5578,15 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
       <c r="I20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -5215,7 +5619,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>212</v>
@@ -5230,15 +5634,15 @@
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -5246,7 +5650,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -5280,16 +5684,16 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="11" t="s">
@@ -5394,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -5419,29 +5823,29 @@
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="C37" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
@@ -5471,7 +5875,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>186</v>
@@ -5484,12 +5888,12 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>186</v>
@@ -5502,12 +5906,12 @@
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>164</v>
@@ -5518,15 +5922,15 @@
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -5540,7 +5944,7 @@
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
@@ -5564,16 +5968,16 @@
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="11" t="s">
@@ -5607,10 +6011,10 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -5658,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
@@ -5683,29 +6087,29 @@
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="C54" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -5750,7 +6154,7 @@
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
@@ -5768,7 +6172,7 @@
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
@@ -5788,12 +6192,12 @@
         <v>18</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>64</v>
@@ -5808,12 +6212,12 @@
         <v>18</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>266</v>
@@ -5826,12 +6230,12 @@
         <v>18</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>67</v>
@@ -5842,12 +6246,12 @@
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>64</v>
@@ -5860,12 +6264,12 @@
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>266</v>
@@ -5878,7 +6282,7 @@
         <v>18</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
@@ -5892,16 +6296,16 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
@@ -6069,29 +6473,29 @@
       <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -6168,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="7" t="s">
@@ -6251,7 +6655,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>64</v>
@@ -6266,12 +6670,12 @@
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>21</v>
@@ -6286,7 +6690,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -6300,16 +6704,16 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
@@ -6392,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -6417,29 +6821,29 @@
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="C24" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
@@ -6469,10 +6873,10 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D27" s="8">
         <v>256</v>
@@ -6482,15 +6886,15 @@
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
       <c r="I27" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D28" s="8">
         <v>50</v>
@@ -6500,15 +6904,15 @@
       <c r="G28" s="7"/>
       <c r="H28" s="8"/>
       <c r="I28" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -6516,7 +6920,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
@@ -6540,16 +6944,16 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="11" t="s">
@@ -6616,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>166</v>
@@ -6641,29 +7045,29 @@
       <c r="B39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="C39" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
@@ -6741,28 +7145,28 @@
       <c r="F44" s="8"/>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
@@ -6804,16 +7208,16 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
@@ -6857,7 +7261,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>231</v>
@@ -6921,29 +7325,29 @@
       <c r="B57" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
@@ -7062,16 +7466,16 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
@@ -7138,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>166</v>
@@ -7163,29 +7567,29 @@
       <c r="B73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="19"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
@@ -7233,10 +7637,10 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -7248,7 +7652,7 @@
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
@@ -7330,16 +7734,16 @@
       <c r="I82" s="9"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="14"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="19"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="11" t="s">
@@ -7376,10 +7780,10 @@
         <v>59</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -7424,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>166</v>
@@ -7449,29 +7853,29 @@
       <c r="B91" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="19"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="16"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
@@ -7582,16 +7986,16 @@
       <c r="I98" s="9"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="19"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="11" t="s">
@@ -7678,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>166</v>
@@ -7703,29 +8107,29 @@
       <c r="B107" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
       <c r="H107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="19"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
@@ -7800,7 +8204,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="8"/>
       <c r="I112" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.15">
@@ -7818,7 +8222,7 @@
       <c r="G113" s="7"/>
       <c r="H113" s="8"/>
       <c r="I113" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.15">
@@ -7832,16 +8236,16 @@
       <c r="I114" s="9"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="14"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" s="11" t="s">
@@ -7951,29 +8355,29 @@
       <c r="B123" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
       <c r="H123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="19"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="16"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
@@ -8062,16 +8466,16 @@
       <c r="I129" s="9"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="14"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="19"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B131" s="11" t="s">
@@ -8121,10 +8525,10 @@
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
@@ -8181,29 +8585,29 @@
       <c r="B138" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
       <c r="H138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="19"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="16"/>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
@@ -8350,16 +8754,16 @@
       <c r="I150" s="9"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
-      <c r="I151" s="14"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="19"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B152" s="11" t="s">
@@ -8464,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>1</v>
@@ -8489,29 +8893,29 @@
       <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C161" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
       <c r="H161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="19"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="16"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
@@ -8668,16 +9072,16 @@
       <c r="I173" s="9"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="14"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="19"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B175" s="11" t="s">
@@ -8797,6 +9201,27 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="B162:I162"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B182:I182"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="B124:I124"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B32:I32"/>
     <mergeCell ref="B157:I157"/>
     <mergeCell ref="B158:I158"/>
     <mergeCell ref="B83:I83"/>
@@ -8810,27 +9235,6 @@
     <mergeCell ref="B151:I151"/>
     <mergeCell ref="B130:I130"/>
     <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B115:I115"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="B162:I162"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -8904,29 +9308,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -9189,16 +9593,16 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
@@ -9306,29 +9710,29 @@
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
@@ -9399,16 +9803,16 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
@@ -9518,29 +9922,29 @@
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
@@ -9649,16 +10053,16 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
@@ -9763,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1</v>
@@ -9788,29 +10192,29 @@
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="C60" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
       <c r="H60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="19"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
@@ -9858,10 +10262,10 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -9871,15 +10275,15 @@
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -9887,7 +10291,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
@@ -9911,16 +10315,16 @@
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="14"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
@@ -9950,13 +10354,13 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -9969,7 +10373,7 @@
         <v>47</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>59</v>
@@ -10027,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
@@ -10052,29 +10456,29 @@
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+      <c r="C78" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="19"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
@@ -10119,12 +10523,12 @@
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>17</v>
@@ -10137,12 +10541,12 @@
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>17</v>
@@ -10157,15 +10561,15 @@
         <v>18</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -10174,18 +10578,18 @@
         <v>253</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -10195,12 +10599,12 @@
         <v>18</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>67</v>
@@ -10211,15 +10615,15 @@
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
       <c r="I86" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -10229,15 +10633,15 @@
       <c r="G87" s="7"/>
       <c r="H87" s="8"/>
       <c r="I87" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -10247,7 +10651,7 @@
         <v>18</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
@@ -10261,16 +10665,16 @@
       <c r="I89" s="9"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="14"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="19"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="11" t="s">
@@ -10317,10 +10721,10 @@
         <v>47</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -10333,10 +10737,10 @@
         <v>48</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -10356,6 +10760,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B90:I90"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:I75"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B20:I20"/>
@@ -10367,14 +10779,6 @@
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:I75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -10423,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -10448,29 +10852,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -10513,15 +10917,15 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D7" s="8">
         <v>200</v>
@@ -10536,7 +10940,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>174</v>
@@ -10581,16 +10985,16 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
@@ -10667,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -10692,29 +11096,29 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -10744,7 +11148,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>17</v>
@@ -10755,7 +11159,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -10776,7 +11180,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>67</v>
@@ -10787,7 +11191,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -10821,16 +11225,16 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
@@ -10864,10 +11268,10 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -10915,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -10940,29 +11344,29 @@
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="C37" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
@@ -10992,7 +11396,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>17</v>
@@ -11003,7 +11407,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
       <c r="I40" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
@@ -11024,10 +11428,10 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -11035,7 +11439,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
@@ -11059,16 +11463,16 @@
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="11" t="s">
@@ -11102,10 +11506,10 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -11153,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
@@ -11178,29 +11582,29 @@
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="C53" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
@@ -11245,12 +11649,12 @@
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>17</v>
@@ -11263,7 +11667,7 @@
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
@@ -11286,7 +11690,7 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>21</v>
@@ -11299,15 +11703,15 @@
       <c r="G59" s="7"/>
       <c r="H59" s="8"/>
       <c r="I59" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -11315,12 +11719,12 @@
       <c r="G60" s="7"/>
       <c r="H60" s="8"/>
       <c r="I60" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>67</v>
@@ -11331,15 +11735,15 @@
       <c r="G61" s="7"/>
       <c r="H61" s="8"/>
       <c r="I61" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -11347,15 +11751,15 @@
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -11363,12 +11767,12 @@
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>174</v>
@@ -11386,10 +11790,10 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
@@ -11403,7 +11807,7 @@
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
@@ -11417,16 +11821,16 @@
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="14"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
@@ -11460,7 +11864,7 @@
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -11489,10 +11893,10 @@
         <v>48</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -11525,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1</v>
@@ -11550,29 +11954,29 @@
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
+      <c r="C76" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="19"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
@@ -11617,12 +12021,12 @@
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>17</v>
@@ -11635,7 +12039,7 @@
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
@@ -11658,10 +12062,10 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -11669,12 +12073,12 @@
       <c r="G82" s="7"/>
       <c r="H82" s="8"/>
       <c r="I82" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>67</v>
@@ -11685,12 +12089,12 @@
       <c r="G83" s="7"/>
       <c r="H83" s="8"/>
       <c r="I83" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>174</v>
@@ -11705,15 +12109,15 @@
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D85" s="8">
         <v>1</v>
@@ -11727,7 +12131,7 @@
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
@@ -11751,16 +12155,16 @@
       <c r="I87" s="9"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="14"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="11" t="s">
@@ -11823,10 +12227,10 @@
         <v>48</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -11849,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
@@ -11874,29 +12278,29 @@
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
+      <c r="C96" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
       <c r="H96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="19"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="16"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="4" t="s">
@@ -11941,12 +12345,12 @@
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>17</v>
@@ -11959,7 +12363,7 @@
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.15">
@@ -11982,7 +12386,7 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>21</v>
@@ -11995,15 +12399,15 @@
       <c r="G102" s="7"/>
       <c r="H102" s="8"/>
       <c r="I102" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B103" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -12011,12 +12415,12 @@
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
       <c r="I103" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>67</v>
@@ -12027,15 +12431,15 @@
       <c r="G104" s="7"/>
       <c r="H104" s="8"/>
       <c r="I104" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -12043,15 +12447,15 @@
       <c r="G105" s="7"/>
       <c r="H105" s="8"/>
       <c r="I105" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -12059,12 +12463,12 @@
       <c r="G106" s="7"/>
       <c r="H106" s="8"/>
       <c r="I106" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>174</v>
@@ -12082,10 +12486,10 @@
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B108" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D108" s="8">
         <v>1</v>
@@ -12099,7 +12503,7 @@
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
@@ -12113,16 +12517,16 @@
       <c r="I109" s="9"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="14"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="11" t="s">
@@ -12156,7 +12560,7 @@
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -12185,10 +12589,10 @@
         <v>48</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -12221,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
@@ -12246,29 +12650,29 @@
       <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
+      <c r="C119" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
       <c r="H119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="19"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="16"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
@@ -12313,12 +12717,12 @@
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B123" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>17</v>
@@ -12331,7 +12735,7 @@
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
@@ -12354,10 +12758,10 @@
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -12365,12 +12769,12 @@
       <c r="G125" s="7"/>
       <c r="H125" s="8"/>
       <c r="I125" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>67</v>
@@ -12381,12 +12785,12 @@
       <c r="G126" s="7"/>
       <c r="H126" s="8"/>
       <c r="I126" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>174</v>
@@ -12401,15 +12805,15 @@
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D128" s="8">
         <v>1</v>
@@ -12423,7 +12827,7 @@
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.15">
@@ -12447,16 +12851,16 @@
       <c r="I130" s="9"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="14"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="19"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" s="11" t="s">
@@ -12519,10 +12923,10 @@
         <v>48</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -12545,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>1</v>
@@ -12570,29 +12974,29 @@
       <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
+      <c r="C139" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
       <c r="H139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="19"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="16"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B141" s="4" t="s">
@@ -12637,15 +13041,15 @@
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B143" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -12655,12 +13059,12 @@
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B144" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>17</v>
@@ -12673,12 +13077,12 @@
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B145" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>17</v>
@@ -12693,12 +13097,12 @@
         <v>18</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B146" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>17</v>
@@ -12711,15 +13115,15 @@
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B147" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -12729,15 +13133,15 @@
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B148" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -12747,12 +13151,12 @@
         <v>18</v>
       </c>
       <c r="I148" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B149" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>67</v>
@@ -12763,15 +13167,15 @@
       <c r="G149" s="7"/>
       <c r="H149" s="8"/>
       <c r="I149" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B150" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -12781,15 +13185,15 @@
       <c r="G150" s="7"/>
       <c r="H150" s="8"/>
       <c r="I150" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B151" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -12799,7 +13203,7 @@
         <v>18</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.15">
@@ -12813,16 +13217,16 @@
       <c r="I152" s="9"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="14"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="19"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B154" s="11" t="s">
@@ -12869,10 +13273,10 @@
         <v>47</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -12885,13 +13289,13 @@
         <v>48</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
@@ -12910,21 +13314,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="B77:I77"/>
     <mergeCell ref="B131:I131"/>
     <mergeCell ref="C139:G139"/>
     <mergeCell ref="B140:I140"/>
@@ -12934,6 +13323,21 @@
     <mergeCell ref="B110:I110"/>
     <mergeCell ref="C119:G119"/>
     <mergeCell ref="B120:I120"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">

--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="491">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -2514,6 +2514,17 @@
   </si>
   <si>
     <t>release_int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amazonの商品ページURL</t>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2820,6 +2831,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2833,15 +2853,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3172,10 +3183,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I125"/>
+  <dimension ref="B2:I127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -3221,29 +3232,29 @@
       <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -3364,16 +3375,16 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
@@ -3475,29 +3486,29 @@
       <c r="B20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -3638,16 +3649,16 @@
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="11" t="s">
@@ -3745,29 +3756,29 @@
       <c r="B37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
@@ -3970,16 +3981,16 @@
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
@@ -4105,29 +4116,29 @@
       <c r="B59" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
       <c r="H59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="16"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
@@ -4222,16 +4233,16 @@
       <c r="I65" s="7"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
@@ -4323,29 +4334,29 @@
       <c r="B73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
       <c r="H73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="16"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="19"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
@@ -4529,7 +4540,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>68</v>
@@ -4539,38 +4550,36 @@
       <c r="F85" s="8"/>
       <c r="G85" s="7"/>
       <c r="H85" s="8" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>144</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="7" t="s">
-        <v>476</v>
+        <v>141</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>467</v>
+        <v>68</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-      <c r="G86" s="7" t="s">
-        <v>240</v>
-      </c>
+      <c r="G86" s="7"/>
       <c r="H86" s="8" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>482</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>467</v>
+        <v>174</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4582,53 +4591,53 @@
         <v>18</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="7" t="s">
-        <v>142</v>
+        <v>477</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="7"/>
+      <c r="G88" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="H88" s="8" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>145</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="7" t="s">
-        <v>478</v>
+        <v>142</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>467</v>
+        <v>68</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
-      <c r="G89" s="7" t="s">
-        <v>240</v>
-      </c>
+      <c r="G89" s="7"/>
       <c r="H89" s="8" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>484</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>467</v>
+        <v>174</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4640,53 +4649,53 @@
         <v>18</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>143</v>
+        <v>479</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-      <c r="G91" s="7"/>
+      <c r="G91" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="H91" s="8" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>146</v>
+        <v>485</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B92" s="7" t="s">
-        <v>480</v>
+        <v>143</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>467</v>
+        <v>68</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="7" t="s">
-        <v>240</v>
-      </c>
+      <c r="G92" s="7"/>
       <c r="H92" s="8" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>486</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>467</v>
+        <v>174</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4698,18 +4707,28 @@
         <v>18</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
+      <c r="B94" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="7"/>
+      <c r="G94" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="7"/>
@@ -4732,343 +4751,343 @@
       <c r="I96" s="7"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B98" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="19"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="11" t="s">
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="14"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B99" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C99" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D99" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E99" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F99" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G99" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H99" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="I99" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="5" t="s">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B100" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5" t="s">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B100" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>227</v>
-      </c>
+      <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E101" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>488</v>
+      </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="B102" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B103" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I106" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="1" t="s">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B107" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C107" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="1" t="s">
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="14" t="s">
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B108" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="16"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="4" t="s">
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B109" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F109" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G109" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H109" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="I109" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="5" t="s">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B110" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6" t="s">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F108" s="6"/>
-      <c r="G108" s="5" t="s">
+      <c r="F110" s="6"/>
+      <c r="G110" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H108" s="6"/>
-      <c r="I108" s="5" t="s">
+      <c r="H110" s="6"/>
+      <c r="I110" s="5" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D110" s="8">
-        <v>200</v>
-      </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="8">
-        <v>100</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="7"/>
-      <c r="H111" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="H111" s="8"/>
       <c r="I111" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B112" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D112" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D112" s="8">
+        <v>200</v>
+      </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="7"/>
-      <c r="H112" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="H112" s="8"/>
       <c r="I112" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B113" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D113" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D113" s="8">
+        <v>100</v>
+      </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="7"/>
       <c r="H113" s="8" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B114" s="7" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="7"/>
       <c r="H114" s="8" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B115" s="7" t="s">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="7"/>
       <c r="H115" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I115" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
+      <c r="B116" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="7"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="7"/>
+      <c r="H116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
+      <c r="B117" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="7"/>
-      <c r="H117" s="8"/>
+      <c r="H117" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="I117" s="7"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.15">
@@ -5092,121 +5111,141 @@
       <c r="I119" s="7"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B122" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B121" s="11" t="s">
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="14"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B123" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C123" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D123" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E123" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F123" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G123" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H121" s="11" t="s">
+      <c r="H123" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I121" s="11" t="s">
+      <c r="I123" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B122" s="5" t="s">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B124" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5" t="s">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="7" t="s">
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B125" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7" t="s">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B122:I122"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B98:I98"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="B60:I60"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="B120:I120"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B97:I97"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G62:G65 G40:G49 G6:G11 G108:G119 G23:G29 G76:G96">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G62:G65 G40:G49 G6:G11 G110:G121 G23:G29 G76:G97">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99:B102 B122:B125 B32:B34 B68:B70 B14:B17 B52:B56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B56 B124:B127 B32:B34 B68:B70 B14:B17 B100:B104">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G58 G104 G72 G36 G2 G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G58 G106 G72 G36 G2 G19">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5269,29 +5308,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -5684,16 +5723,16 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="11" t="s">
@@ -5823,29 +5862,29 @@
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
@@ -5968,16 +6007,16 @@
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="11" t="s">
@@ -6087,29 +6126,29 @@
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
       <c r="H54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="16"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -6296,16 +6335,16 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
@@ -6473,29 +6512,29 @@
       <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -6704,16 +6743,16 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
@@ -6821,29 +6860,29 @@
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
@@ -6944,16 +6983,16 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="11" t="s">
@@ -7045,29 +7084,29 @@
       <c r="B39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
@@ -7208,16 +7247,16 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
@@ -7325,29 +7364,29 @@
       <c r="B57" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="16"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
@@ -7466,16 +7505,16 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
@@ -7567,29 +7606,29 @@
       <c r="B73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
       <c r="H73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="16"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="19"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
@@ -7734,16 +7773,16 @@
       <c r="I82" s="9"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="19"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="11" t="s">
@@ -7853,29 +7892,29 @@
       <c r="B91" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
       <c r="H91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="16"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="19"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
@@ -7986,16 +8025,16 @@
       <c r="I98" s="9"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="19"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="11" t="s">
@@ -8107,29 +8146,29 @@
       <c r="B107" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
       <c r="H107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="16"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
@@ -8236,16 +8275,16 @@
       <c r="I114" s="9"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="19"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="14"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" s="11" t="s">
@@ -8355,29 +8394,29 @@
       <c r="B123" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
       <c r="H123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="16"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="19"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
@@ -8466,16 +8505,16 @@
       <c r="I129" s="9"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="19"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="14"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B131" s="11" t="s">
@@ -8585,29 +8624,29 @@
       <c r="B138" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
       <c r="H138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="16"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="19"/>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
@@ -8754,16 +8793,16 @@
       <c r="I150" s="9"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="19"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="14"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B152" s="11" t="s">
@@ -8893,29 +8932,29 @@
       <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C161" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
       <c r="H161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="16"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="19"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
@@ -9072,16 +9111,16 @@
       <c r="I173" s="9"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B174" s="17" t="s">
+      <c r="B174" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="19"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="14"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B175" s="11" t="s">
@@ -9201,27 +9240,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="B162:I162"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B115:I115"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B32:I32"/>
     <mergeCell ref="B157:I157"/>
     <mergeCell ref="B158:I158"/>
     <mergeCell ref="B83:I83"/>
@@ -9235,6 +9253,27 @@
     <mergeCell ref="B151:I151"/>
     <mergeCell ref="B130:I130"/>
     <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="B124:I124"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="B162:I162"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B182:I182"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -9308,29 +9347,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -9593,16 +9632,16 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
@@ -9710,29 +9749,29 @@
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
@@ -9803,16 +9842,16 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
@@ -9922,29 +9961,29 @@
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
@@ -10053,16 +10092,16 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
@@ -10192,29 +10231,29 @@
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
       <c r="H60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="16"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
@@ -10315,16 +10354,16 @@
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="19"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
@@ -10456,29 +10495,29 @@
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
       <c r="H78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="16"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="19"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
@@ -10665,16 +10704,16 @@
       <c r="I89" s="9"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="19"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="14"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="11" t="s">
@@ -10760,14 +10799,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:I75"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B20:I20"/>
@@ -10779,6 +10810,14 @@
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B90:I90"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:I75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -10852,29 +10891,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -10985,16 +11024,16 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
@@ -11096,29 +11135,29 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -11225,16 +11264,16 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
@@ -11344,29 +11383,29 @@
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
@@ -11463,16 +11502,16 @@
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="11" t="s">
@@ -11582,29 +11621,29 @@
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
       <c r="H53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
@@ -11821,16 +11860,16 @@
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="19"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
@@ -11954,29 +11993,29 @@
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
       <c r="H76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="16"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
@@ -12155,16 +12194,16 @@
       <c r="I87" s="9"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="19"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="14"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="11" t="s">
@@ -12278,29 +12317,29 @@
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
       <c r="H96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="16"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="19"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="4" t="s">
@@ -12517,16 +12556,16 @@
       <c r="I109" s="9"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="19"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="14"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="11" t="s">
@@ -12650,29 +12689,29 @@
       <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
       <c r="H119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="16"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="19"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
@@ -12851,16 +12890,16 @@
       <c r="I130" s="9"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="19"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="14"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" s="11" t="s">
@@ -12974,29 +13013,29 @@
       <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
       <c r="H139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="16"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="19"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B141" s="4" t="s">
@@ -13217,16 +13256,16 @@
       <c r="I152" s="9"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="19"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="14"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B154" s="11" t="s">
@@ -13314,6 +13353,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="B77:I77"/>
     <mergeCell ref="B131:I131"/>
     <mergeCell ref="C139:G139"/>
     <mergeCell ref="B140:I140"/>
@@ -13323,21 +13377,6 @@
     <mergeCell ref="B110:I110"/>
     <mergeCell ref="C119:G119"/>
     <mergeCell ref="B120:I120"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">

--- a/documents/database/DB定義書.xlsx
+++ b/documents/database/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="500">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -2198,10 +2198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>review_injustice_reports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>レビューの不正報告</t>
     <rPh sb="5" eb="7">
       <t>フセイ</t>
@@ -2525,6 +2521,49 @@
     <rPh sb="7" eb="9">
       <t>ショウヒン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>injustice_reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>injustice_review_comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不正レビューへのコメント</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>injustice_review_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>injustice_review_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2831,15 +2870,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2853,6 +2883,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3185,7 +3224,7 @@
   </sheetPr>
   <dimension ref="B2:I127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
@@ -3232,29 +3271,29 @@
       <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -3322,7 +3361,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
@@ -3375,16 +3414,16 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
@@ -3486,29 +3525,29 @@
       <c r="B20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -3570,10 +3609,10 @@
         <v>240</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -3596,7 +3635,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>173</v>
@@ -3649,16 +3688,16 @@
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="11" t="s">
@@ -3756,29 +3795,29 @@
       <c r="B37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
@@ -3846,10 +3885,10 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D42" s="8">
         <v>200</v>
@@ -3859,15 +3898,15 @@
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D43" s="8">
         <v>200</v>
@@ -3877,7 +3916,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
@@ -3957,7 +3996,7 @@
         <v>18</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
@@ -3981,16 +4020,16 @@
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
@@ -4024,7 +4063,7 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -4054,7 +4093,7 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -4068,7 +4107,7 @@
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -4116,29 +4155,29 @@
       <c r="B59" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="16"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
@@ -4171,7 +4210,7 @@
         <v>156</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
@@ -4191,7 +4230,7 @@
         <v>71</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D63" s="8">
         <v>200</v>
@@ -4201,15 +4240,15 @@
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D64" s="8">
         <v>200</v>
@@ -4219,7 +4258,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="8"/>
       <c r="I64" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
@@ -4233,16 +4272,16 @@
       <c r="I65" s="7"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
@@ -4334,29 +4373,29 @@
       <c r="B73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="19"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
@@ -4540,7 +4579,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>68</v>
@@ -4553,7 +4592,7 @@
         <v>18</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
@@ -4576,7 +4615,7 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>174</v>
@@ -4591,12 +4630,12 @@
         <v>18</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>174</v>
@@ -4611,7 +4650,7 @@
         <v>18</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
@@ -4634,7 +4673,7 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>174</v>
@@ -4649,12 +4688,12 @@
         <v>18</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>174</v>
@@ -4669,7 +4708,7 @@
         <v>18</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.15">
@@ -4692,7 +4731,7 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>174</v>
@@ -4707,12 +4746,12 @@
         <v>18</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>174</v>
@@ -4727,7 +4766,7 @@
         <v>18</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
@@ -4761,16 +4800,16 @@
       <c r="I97" s="7"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="14"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="19"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B99" s="11" t="s">
@@ -4821,7 +4860,7 @@
         <v>157</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
@@ -4896,29 +4935,29 @@
       <c r="B107" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
       <c r="H107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="19"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
@@ -5131,16 +5170,16 @@
       <c r="I121" s="7"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="14"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="19"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B123" s="11" t="s">
@@ -5218,6 +5257,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="B60:I60"/>
     <mergeCell ref="C107:G107"/>
     <mergeCell ref="B108:I108"/>
     <mergeCell ref="B122:I122"/>
@@ -5225,17 +5275,6 @@
     <mergeCell ref="C73:G73"/>
     <mergeCell ref="B74:I74"/>
     <mergeCell ref="B98:I98"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B21:I21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -5259,10 +5298,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I71"/>
+  <dimension ref="B2:I90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5308,29 +5347,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -5723,16 +5762,16 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="11" t="s">
@@ -5837,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -5862,29 +5901,29 @@
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
@@ -5966,7 +6005,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>438</v>
@@ -6007,16 +6046,16 @@
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="11" t="s">
@@ -6101,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
@@ -6126,29 +6165,29 @@
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="C54" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
@@ -6193,12 +6232,12 @@
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>88</v>
+        <v>491</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>17</v>
@@ -6211,7 +6250,7 @@
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
@@ -6236,165 +6275,153 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>64</v>
+        <v>266</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="G60" s="7"/>
       <c r="H60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="H61" s="8"/>
       <c r="I61" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="8">
+        <v>0</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8">
-        <v>0</v>
-      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="7" t="s">
-        <v>400</v>
-      </c>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>401</v>
-      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="9"/>
+      <c r="B65" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
+      <c r="B66" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="B67" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="B68" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>62</v>
+        <v>431</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -6403,34 +6430,307 @@
       <c r="I69" s="7"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B85" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="19"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B86" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B66:I66"/>
+  <mergeCells count="12">
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B85:I85"/>
+    <mergeCell ref="B65:I65"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B28:I28"/>
@@ -6442,13 +6742,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G36 G53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G36 G53 G72">
       <formula1>"MyISAM,InnoDB,MEMORY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B34 B48:B51 B68:B71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B34 B48:B51 B67:B70 B87:B90">
       <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G27 G40:G45 G57:G65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G27 G40:G45 G76:G84 G57:G64">
       <formula1>"BINARY,UNSIGNED,UNSIGNED ZEROFILL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6512,29 +6812,29 @@
       <c r="B3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -6729,7 +7029,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -6743,16 +7043,16 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
@@ -6860,29 +7160,29 @@
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
@@ -6959,7 +7259,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
@@ -6983,16 +7283,16 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="11" t="s">
@@ -7084,29 +7384,29 @@
       <c r="B39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
@@ -7184,28 +7484,28 @@
       <c r="F44" s="8"/>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
@@ -7247,16 +7547,16 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
@@ -7364,29 +7664,29 @@
       <c r="B57" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
@@ -7505,16 +7805,16 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
@@ -7606,29 +7906,29 @@
       <c r="B73" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="19"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
@@ -7676,10 +7976,10 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -7691,7 +7991,7 @@
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
@@ -7773,16 +8073,16 @@
       <c r="I82" s="9"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="14"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="19"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="11" t="s">
@@ -7819,10 +8119,10 @@
         <v>59</v>
       </c>
       <c r="E85" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -7892,29 +8192,29 @@
       <c r="B91" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="19"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="16"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
@@ -8025,16 +8325,16 @@
       <c r="I98" s="9"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="19"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="11" t="s">
@@ -8146,29 +8446,29 @@
       <c r="B107" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
       <c r="H107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="19"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
@@ -8275,16 +8575,16 @@
       <c r="I114" s="9"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="14"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" s="11" t="s">
@@ -8394,29 +8694,29 @@
       <c r="B123" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
       <c r="H123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="19"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="16"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="4" t="s">
@@ -8505,16 +8805,16 @@
       <c r="I129" s="9"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="14"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="19"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B131" s="11" t="s">
@@ -8624,29 +8924,29 @@
       <c r="B138" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
       <c r="H138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="19"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="16"/>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B140" s="4" t="s">
@@ -8793,16 +9093,16 @@
       <c r="I150" s="9"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
-      <c r="I151" s="14"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="19"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B152" s="11" t="s">
@@ -8932,29 +9232,29 @@
       <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C161" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
       <c r="H161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="19"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="16"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B163" s="4" t="s">
@@ -9111,16 +9411,16 @@
       <c r="I173" s="9"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="14"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="19"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B175" s="11" t="s">
@@ -9240,6 +9540,27 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="B162:I162"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B182:I182"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="B124:I124"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B32:I32"/>
     <mergeCell ref="B157:I157"/>
     <mergeCell ref="B158:I158"/>
     <mergeCell ref="B83:I83"/>
@@ -9253,27 +9574,6 @@
     <mergeCell ref="B151:I151"/>
     <mergeCell ref="B130:I130"/>
     <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B115:I115"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="B162:I162"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -9347,29 +9647,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -9632,16 +9932,16 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
@@ -9749,29 +10049,29 @@
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
@@ -9842,16 +10142,16 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
@@ -9961,29 +10261,29 @@
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
@@ -10092,16 +10392,16 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
@@ -10231,29 +10531,29 @@
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
       <c r="H60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="19"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
@@ -10354,16 +10654,16 @@
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="14"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
@@ -10495,29 +10795,29 @@
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="19"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
@@ -10704,16 +11004,16 @@
       <c r="I89" s="9"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="14"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="19"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="11" t="s">
@@ -10799,6 +11099,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B90:I90"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:I75"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B20:I20"/>
@@ -10810,14 +11118,6 @@
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:I75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -10891,29 +11191,29 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -11024,16 +11324,16 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
@@ -11135,29 +11435,29 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -11264,16 +11564,16 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
@@ -11383,29 +11683,29 @@
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
@@ -11502,16 +11802,16 @@
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="11" t="s">
@@ -11621,29 +11921,29 @@
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
@@ -11860,16 +12160,16 @@
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="14"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
@@ -11993,29 +12293,29 @@
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="19"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
@@ -12194,16 +12494,16 @@
       <c r="I87" s="9"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="14"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="11" t="s">
@@ -12317,29 +12617,29 @@
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
       <c r="H96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="19"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="16"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="4" t="s">
@@ -12556,16 +12856,16 @@
       <c r="I109" s="9"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="14"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" s="11" t="s">
@@ -12689,29 +12989,29 @@
       <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
       <c r="H119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="19"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="16"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B121" s="4" t="s">
@@ -12890,16 +13190,16 @@
       <c r="I130" s="9"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="14"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="19"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" s="11" t="s">
@@ -13013,29 +13313,29 @@
       <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
       <c r="H139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="19"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="16"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B141" s="4" t="s">
@@ -13256,16 +13556,16 @@
       <c r="I152" s="9"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="14"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="19"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B154" s="11" t="s">
@@ -13353,21 +13653,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="B77:I77"/>
     <mergeCell ref="B131:I131"/>
     <mergeCell ref="C139:G139"/>
     <mergeCell ref="B140:I140"/>
@@ -13377,6 +13662,21 @@
     <mergeCell ref="B110:I110"/>
     <mergeCell ref="C119:G119"/>
     <mergeCell ref="B120:I120"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
